--- a/Breeding.xlsx
+++ b/Breeding.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="562">
   <si>
     <t>Ref. No</t>
   </si>
@@ -563,6 +563,9 @@
     <t>A072</t>
   </si>
   <si>
+    <t>A073</t>
+  </si>
+  <si>
     <t>A074</t>
   </si>
   <si>
@@ -692,9 +695,6 @@
     <t>08569</t>
   </si>
   <si>
-    <t>0679</t>
-  </si>
-  <si>
     <t>A104</t>
   </si>
   <si>
@@ -1695,6 +1695,12 @@
   </si>
   <si>
     <t>09404</t>
+  </si>
+  <si>
+    <t>Mortality</t>
+  </si>
+  <si>
+    <t>Past candidate for reject</t>
   </si>
 </sst>
 </file>
@@ -1981,8 +1987,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="BreedingTable" displayName="BreedingTable" ref="A1:R336">
-  <autoFilter ref="A1:R336">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="BreedingTable" displayName="BreedingTable" ref="A1:R357">
+  <autoFilter ref="A1:R357">
     <filterColumn colId="1"/>
     <filterColumn colId="17"/>
   </autoFilter>
@@ -2297,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R336"/>
+  <dimension ref="A1:R357"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J196" sqref="J196"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2317,9 +2323,9 @@
     <col min="10" max="10" width="20.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="22.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2361,7 +2367,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -2412,6 +2418,7 @@
         <f>[Date Breed]+114</f>
         <v>43040</v>
       </c>
+      <c r="M2"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
       <c r="A3" t="s">
@@ -2445,6 +2452,7 @@
         <f>[Date Breed]+114</f>
         <v>43043</v>
       </c>
+      <c r="M3"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
       <c r="A4" t="s">
@@ -2478,6 +2486,7 @@
         <f>[Date Breed]+114</f>
         <v>43045</v>
       </c>
+      <c r="M4"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1">
       <c r="A5" t="s">
@@ -2511,6 +2520,7 @@
         <f>[Date Breed]+114</f>
         <v>43046</v>
       </c>
+      <c r="M5"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" t="s">
@@ -2544,6 +2554,7 @@
         <f>[Date Breed]+114</f>
         <v>43050</v>
       </c>
+      <c r="M6"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" t="s">
@@ -2577,6 +2588,7 @@
         <f>[Date Breed]+114</f>
         <v>43051</v>
       </c>
+      <c r="M7"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1">
       <c r="A8" t="s">
@@ -3084,6 +3096,7 @@
         <f>[Date Breed]+114</f>
         <v>43063</v>
       </c>
+      <c r="M19"/>
       <c r="N19" t="s">
         <v>23</v>
       </c>
@@ -3246,6 +3259,7 @@
         <f>[Date Breed]+114</f>
         <v>43066</v>
       </c>
+      <c r="M23"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1">
       <c r="A24" t="s">
@@ -3318,6 +3332,7 @@
         <f>[Date Breed]+114</f>
         <v>43069</v>
       </c>
+      <c r="M25"/>
       <c r="N25" t="s">
         <v>30</v>
       </c>
@@ -3348,12 +3363,13 @@
         <v>60</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L26" s="2">
         <f>[Date Breed]+114</f>
         <v>43071</v>
       </c>
+      <c r="M26"/>
       <c r="Q26" t="s">
         <v>540</v>
       </c>
@@ -3390,6 +3406,7 @@
         <f>[Date Breed]+114</f>
         <v>43071</v>
       </c>
+      <c r="M27"/>
       <c r="N27" t="s">
         <v>25</v>
       </c>
@@ -3684,6 +3701,7 @@
         <f>[Date Breed]+114</f>
         <v>43077</v>
       </c>
+      <c r="M34"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
@@ -3717,6 +3735,7 @@
         <f>[Date Breed]+114</f>
         <v>43080</v>
       </c>
+      <c r="M35"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
@@ -3750,6 +3769,7 @@
         <f>[Date Breed]+114</f>
         <v>43082</v>
       </c>
+      <c r="M36"/>
       <c r="N36" t="s">
         <v>28</v>
       </c>
@@ -3786,6 +3806,7 @@
         <f>[Date Breed]+114</f>
         <v>43083</v>
       </c>
+      <c r="M37"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
@@ -3819,6 +3840,7 @@
         <f>[Date Breed]+114</f>
         <v>43085</v>
       </c>
+      <c r="M38"/>
       <c r="N38" t="s">
         <v>57</v>
       </c>
@@ -3855,6 +3877,7 @@
         <f>[Date Breed]+114</f>
         <v>43085</v>
       </c>
+      <c r="M39"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
@@ -3888,6 +3911,7 @@
         <f>[Date Breed]+114</f>
         <v>43086</v>
       </c>
+      <c r="M40"/>
       <c r="N40" t="s">
         <v>65</v>
       </c>
@@ -3924,6 +3948,7 @@
         <f>[Date Breed]+114</f>
         <v>43087</v>
       </c>
+      <c r="M41"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
@@ -3954,6 +3979,7 @@
         <f>[Date Breed]+114</f>
         <v>43087</v>
       </c>
+      <c r="M42"/>
       <c r="R42" s="19" t="s">
         <v>546</v>
       </c>
@@ -3990,6 +4016,7 @@
         <f>[Date Breed]+114</f>
         <v>43090</v>
       </c>
+      <c r="M43"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
@@ -4023,6 +4050,7 @@
         <f>[Date Breed]+114</f>
         <v>43091</v>
       </c>
+      <c r="M44"/>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
@@ -4056,6 +4084,7 @@
         <f>[Date Breed]+114</f>
         <v>43091</v>
       </c>
+      <c r="M45"/>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
@@ -4089,6 +4118,7 @@
         <f>[Date Breed]+114</f>
         <v>43093</v>
       </c>
+      <c r="M46"/>
       <c r="N46" t="s">
         <v>73</v>
       </c>
@@ -4125,6 +4155,7 @@
         <f>[Date Breed]+114</f>
         <v>43093</v>
       </c>
+      <c r="M47"/>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
@@ -4158,6 +4189,7 @@
         <f>[Date Breed]+114</f>
         <v>43093</v>
       </c>
+      <c r="M48"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" t="s">
@@ -4188,6 +4220,7 @@
         <f>[Date Breed]+114</f>
         <v>43094</v>
       </c>
+      <c r="M49"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" t="s">
@@ -4218,6 +4251,7 @@
         <f>[Date Breed]+114</f>
         <v>43093</v>
       </c>
+      <c r="M50"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" t="s">
@@ -4293,6 +4327,7 @@
         <f>[Date Breed]+114</f>
         <v>43094</v>
       </c>
+      <c r="M52"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" t="s">
@@ -4452,6 +4487,7 @@
         <f>[Date Breed]+114</f>
         <v>43099</v>
       </c>
+      <c r="M56"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" t="s">
@@ -4530,6 +4566,7 @@
         <f>[Date Breed]+114</f>
         <v>43096</v>
       </c>
+      <c r="M58"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" t="s">
@@ -4647,6 +4684,7 @@
         <f>[Date Breed]+114</f>
         <v>43103</v>
       </c>
+      <c r="M61"/>
       <c r="N61" t="s">
         <v>88</v>
       </c>
@@ -4722,6 +4760,7 @@
         <f>[Date Breed]+114</f>
         <v>43103</v>
       </c>
+      <c r="M63"/>
       <c r="N63" t="s">
         <v>90</v>
       </c>
@@ -4758,6 +4797,7 @@
         <f>[Date Breed]+114</f>
         <v>43104</v>
       </c>
+      <c r="M64"/>
       <c r="N64" t="s">
         <v>91</v>
       </c>
@@ -4836,7 +4876,7 @@
         <f>[Date Breed]+114</f>
         <v>43105</v>
       </c>
-      <c r="M66" s="16">
+      <c r="M66" s="2">
         <v>43106</v>
       </c>
       <c r="O66" t="s">
@@ -5010,6 +5050,7 @@
         <f>[Date Breed]+114</f>
         <v>43105</v>
       </c>
+      <c r="M70"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" t="s">
@@ -5043,6 +5084,7 @@
         <f>[Date Breed]+114</f>
         <v>43107</v>
       </c>
+      <c r="M71"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" t="s">
@@ -5118,6 +5160,7 @@
         <f>[Date Breed]+114</f>
         <v>43108</v>
       </c>
+      <c r="M73"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" t="s">
@@ -5148,6 +5191,7 @@
         <f>[Date Breed]+114</f>
         <v>43111</v>
       </c>
+      <c r="M74"/>
       <c r="N74" t="s">
         <v>98</v>
       </c>
@@ -5181,6 +5225,7 @@
         <f>[Date Breed]+114</f>
         <v>43111</v>
       </c>
+      <c r="M75"/>
       <c r="N75" t="s">
         <v>102</v>
       </c>
@@ -5214,6 +5259,7 @@
         <f>[Date Breed]+114</f>
         <v>43111</v>
       </c>
+      <c r="M76"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" t="s">
@@ -5370,6 +5416,7 @@
         <f>[Date Breed]+114</f>
         <v>43113</v>
       </c>
+      <c r="M80"/>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" t="s">
@@ -5532,6 +5579,7 @@
         <f>[Date Breed]+114</f>
         <v>43115</v>
       </c>
+      <c r="M84"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" t="s">
@@ -5562,6 +5610,7 @@
         <f>[Date Breed]+114</f>
         <v>43115</v>
       </c>
+      <c r="M85"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" t="s">
@@ -5592,6 +5641,7 @@
         <f>[Date Breed]+114</f>
         <v>43116</v>
       </c>
+      <c r="M86"/>
       <c r="N86" t="s">
         <v>122</v>
       </c>
@@ -5625,6 +5675,7 @@
         <f>[Date Breed]+114</f>
         <v>43116</v>
       </c>
+      <c r="M87"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" t="s">
@@ -5655,6 +5706,7 @@
         <f>[Date Breed]+114</f>
         <v>43116</v>
       </c>
+      <c r="M88"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" t="s">
@@ -5685,6 +5737,7 @@
         <f>[Date Breed]+114</f>
         <v>43117</v>
       </c>
+      <c r="M89"/>
       <c r="N89" t="s">
         <v>109</v>
       </c>
@@ -5700,7 +5753,7 @@
         <v>19</v>
       </c>
       <c r="E90" s="2">
-        <v>43005</v>
+        <v>43004</v>
       </c>
       <c r="G90" s="23" t="s">
         <v>20</v>
@@ -5711,12 +5764,12 @@
       <c r="I90" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J90" s="20" t="s">
+      <c r="J90" s="17" t="s">
         <v>36</v>
       </c>
       <c r="L90" s="2">
         <f>[Date Breed]+114</f>
-        <v>43119</v>
+        <v>43118</v>
       </c>
       <c r="M90" s="16">
         <v>43120</v>
@@ -5736,16 +5789,16 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C91" t="s">
         <v>19</v>
       </c>
       <c r="E91" s="2">
-        <v>43009</v>
+        <v>43005</v>
       </c>
       <c r="G91" s="23" t="s">
         <v>20</v>
@@ -5756,41 +5809,27 @@
       <c r="I91" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>36</v>
+      <c r="J91" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="L91" s="2">
         <f>[Date Breed]+114</f>
-        <v>43123</v>
-      </c>
-      <c r="M91" s="16">
-        <v>43125</v>
-      </c>
-      <c r="N91" t="s">
-        <v>139</v>
-      </c>
-      <c r="O91" t="s">
-        <v>36</v>
-      </c>
-      <c r="P91">
-        <v>13</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>538</v>
-      </c>
+        <v>43119</v>
+      </c>
+      <c r="M91"/>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>185</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
       </c>
       <c r="E92" s="2">
-        <v>43010</v>
+        <v>43009</v>
       </c>
       <c r="G92" s="23" t="s">
         <v>20</v>
@@ -5799,25 +5838,37 @@
         <v>21</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J92" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K92" s="2">
-        <v>43028</v>
+        <v>56</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L92" s="2">
         <f>[Date Breed]+114</f>
-        <v>43124</v>
+        <v>43123</v>
+      </c>
+      <c r="M92" s="16">
+        <v>43125</v>
+      </c>
+      <c r="N92" t="s">
+        <v>139</v>
+      </c>
+      <c r="O92" t="s">
+        <v>36</v>
+      </c>
+      <c r="P92">
+        <v>13</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C93" t="s">
         <v>19</v>
@@ -5834,32 +5885,24 @@
       <c r="I93" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J93" s="3" t="s">
-        <v>36</v>
+      <c r="J93" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93" s="2">
+        <v>43028</v>
       </c>
       <c r="L93" s="2">
         <f>[Date Breed]+114</f>
         <v>43124</v>
       </c>
-      <c r="M93" s="16">
-        <v>43124</v>
-      </c>
-      <c r="O93" t="s">
-        <v>36</v>
-      </c>
-      <c r="P93">
-        <v>7</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>536</v>
-      </c>
+      <c r="M93"/>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C94" t="s">
         <v>19</v>
@@ -5883,8 +5926,17 @@
         <f>[Date Breed]+114</f>
         <v>43124</v>
       </c>
-      <c r="N94" t="s">
-        <v>128</v>
+      <c r="M94" s="16">
+        <v>43124</v>
+      </c>
+      <c r="O94" t="s">
+        <v>36</v>
+      </c>
+      <c r="P94">
+        <v>7</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -5892,13 +5944,13 @@
         <v>190</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
         <v>19</v>
       </c>
       <c r="E95" s="2">
-        <v>43012</v>
+        <v>43010</v>
       </c>
       <c r="G95" s="23" t="s">
         <v>20</v>
@@ -5914,22 +5966,11 @@
       </c>
       <c r="L95" s="2">
         <f>[Date Breed]+114</f>
-        <v>43126</v>
-      </c>
-      <c r="M95" s="16">
-        <v>43127</v>
-      </c>
+        <v>43124</v>
+      </c>
+      <c r="M95"/>
       <c r="N95" t="s">
-        <v>135</v>
-      </c>
-      <c r="O95" t="s">
-        <v>539</v>
-      </c>
-      <c r="P95">
-        <v>7</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>536</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5937,13 +5978,13 @@
         <v>191</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
         <v>19</v>
       </c>
       <c r="E96" s="2">
-        <v>43013</v>
+        <v>43012</v>
       </c>
       <c r="G96" s="23" t="s">
         <v>20</v>
@@ -5952,40 +5993,43 @@
         <v>21</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L96" s="2">
         <f>[Date Breed]+114</f>
-        <v>43127</v>
+        <v>43126</v>
       </c>
       <c r="M96" s="16">
         <v>43127</v>
       </c>
+      <c r="N96" t="s">
+        <v>135</v>
+      </c>
       <c r="O96" t="s">
-        <v>36</v>
+        <v>539</v>
       </c>
       <c r="P96">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q96" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="97" spans="1:18">
       <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C97" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="2">
-        <v>43014</v>
+        <v>43013</v>
       </c>
       <c r="G97" s="23" t="s">
         <v>20</v>
@@ -5994,29 +6038,26 @@
         <v>21</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L97" s="2">
         <f>[Date Breed]+114</f>
-        <v>43128</v>
+        <v>43127</v>
       </c>
       <c r="M97" s="16">
-        <v>43131</v>
-      </c>
-      <c r="N97" t="s">
-        <v>149</v>
+        <v>43127</v>
       </c>
       <c r="O97" t="s">
-        <v>539</v>
+        <v>36</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q97" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6024,13 +6065,13 @@
         <v>194</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
       </c>
       <c r="E98" s="2">
-        <v>43015</v>
+        <v>43014</v>
       </c>
       <c r="G98" s="23" t="s">
         <v>20</v>
@@ -6039,40 +6080,43 @@
         <v>21</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L98" s="2">
         <f>[Date Breed]+114</f>
-        <v>43129</v>
+        <v>43128</v>
       </c>
       <c r="M98" s="16">
         <v>43131</v>
       </c>
+      <c r="N98" t="s">
+        <v>149</v>
+      </c>
       <c r="O98" t="s">
-        <v>36</v>
+        <v>539</v>
       </c>
       <c r="P98">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C99" t="s">
         <v>19</v>
       </c>
       <c r="E99" s="2">
-        <v>43016</v>
+        <v>43015</v>
       </c>
       <c r="G99" s="23" t="s">
         <v>20</v>
@@ -6088,22 +6132,19 @@
       </c>
       <c r="L99" s="2">
         <f>[Date Breed]+114</f>
-        <v>43130</v>
+        <v>43129</v>
       </c>
       <c r="M99" s="16">
         <v>43131</v>
       </c>
-      <c r="N99" t="s">
-        <v>153</v>
-      </c>
       <c r="O99" t="s">
-        <v>539</v>
+        <v>36</v>
       </c>
       <c r="P99">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q99" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6111,13 +6152,13 @@
         <v>197</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
       </c>
       <c r="E100" s="2">
-        <v>43017</v>
+        <v>43016</v>
       </c>
       <c r="G100" s="23" t="s">
         <v>20</v>
@@ -6133,27 +6174,30 @@
       </c>
       <c r="L100" s="2">
         <f>[Date Breed]+114</f>
+        <v>43130</v>
+      </c>
+      <c r="M100" s="16">
         <v>43131</v>
       </c>
-      <c r="M100" s="16">
-        <v>43134</v>
+      <c r="N100" t="s">
+        <v>153</v>
       </c>
       <c r="O100" t="s">
-        <v>36</v>
+        <v>539</v>
       </c>
       <c r="P100">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q100" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
@@ -6177,19 +6221,31 @@
         <f>[Date Breed]+114</f>
         <v>43131</v>
       </c>
+      <c r="M101" s="16">
+        <v>43134</v>
+      </c>
+      <c r="O101" t="s">
+        <v>36</v>
+      </c>
+      <c r="P101">
+        <v>8</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="102" spans="1:18">
       <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C102" t="s">
         <v>19</v>
       </c>
       <c r="E102" s="2">
-        <v>43018</v>
+        <v>43017</v>
       </c>
       <c r="G102" s="23" t="s">
         <v>20</v>
@@ -6198,40 +6254,29 @@
         <v>21</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L102" s="2">
         <f>[Date Breed]+114</f>
-        <v>43132</v>
-      </c>
-      <c r="M102" s="16">
-        <v>43133</v>
-      </c>
-      <c r="O102" t="s">
-        <v>36</v>
-      </c>
-      <c r="P102">
-        <v>7</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>536</v>
-      </c>
+        <v>43131</v>
+      </c>
+      <c r="M102"/>
     </row>
     <row r="103" spans="1:18">
       <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C103" t="s">
         <v>19</v>
       </c>
       <c r="E103" s="2">
-        <v>43019</v>
+        <v>43018</v>
       </c>
       <c r="G103" s="23" t="s">
         <v>20</v>
@@ -6240,20 +6285,26 @@
         <v>21</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J103" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K103" s="2">
-        <v>43032</v>
+        <v>60</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L103" s="2">
         <f>[Date Breed]+114</f>
+        <v>43132</v>
+      </c>
+      <c r="M103" s="16">
         <v>43133</v>
       </c>
-      <c r="N103" t="s">
-        <v>108</v>
+      <c r="O103" t="s">
+        <v>36</v>
+      </c>
+      <c r="P103">
+        <v>7</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6261,13 +6312,13 @@
         <v>204</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
       </c>
       <c r="E104" s="2">
-        <v>43020</v>
+        <v>43019</v>
       </c>
       <c r="G104" s="23" t="s">
         <v>20</v>
@@ -6276,17 +6327,21 @@
         <v>21</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="K104" s="2">
+        <v>43032</v>
       </c>
       <c r="L104" s="2">
         <f>[Date Breed]+114</f>
-        <v>43134</v>
-      </c>
+        <v>43133</v>
+      </c>
+      <c r="M104"/>
       <c r="N104" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6294,13 +6349,13 @@
         <v>205</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
       </c>
       <c r="E105" s="2">
-        <v>43022</v>
+        <v>43020</v>
       </c>
       <c r="G105" s="23" t="s">
         <v>20</v>
@@ -6309,29 +6364,18 @@
         <v>21</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="J105" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="L105" s="2">
         <f>[Date Breed]+114</f>
-        <v>43136</v>
-      </c>
-      <c r="M105" s="16">
-        <v>43138</v>
-      </c>
+        <v>43134</v>
+      </c>
+      <c r="M105"/>
       <c r="N105" t="s">
-        <v>174</v>
-      </c>
-      <c r="O105" t="s">
-        <v>539</v>
-      </c>
-      <c r="P105">
-        <v>11</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>535</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6339,7 +6383,7 @@
         <v>206</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
@@ -6354,17 +6398,29 @@
         <v>21</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="L106" s="2">
         <f>[Date Breed]+114</f>
         <v>43136</v>
       </c>
+      <c r="M106" s="16">
+        <v>43138</v>
+      </c>
       <c r="N106" t="s">
-        <v>165</v>
+        <v>174</v>
+      </c>
+      <c r="O106" t="s">
+        <v>539</v>
+      </c>
+      <c r="P106">
+        <v>11</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6372,13 +6428,13 @@
         <v>207</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
       </c>
       <c r="E107" s="2">
-        <v>43023</v>
+        <v>43022</v>
       </c>
       <c r="G107" s="23" t="s">
         <v>20</v>
@@ -6387,29 +6443,18 @@
         <v>21</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L107" s="2">
         <f>[Date Breed]+114</f>
-        <v>43137</v>
-      </c>
-      <c r="M107" s="16">
-        <v>43138</v>
-      </c>
+        <v>43136</v>
+      </c>
+      <c r="M107"/>
       <c r="N107" t="s">
-        <v>177</v>
-      </c>
-      <c r="O107" t="s">
-        <v>36</v>
-      </c>
-      <c r="P107">
-        <v>7</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>536</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6417,7 +6462,7 @@
         <v>208</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -6434,15 +6479,27 @@
       <c r="I108" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J108" s="14" t="s">
-        <v>22</v>
+      <c r="J108" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L108" s="2">
         <f>[Date Breed]+114</f>
         <v>43137</v>
       </c>
+      <c r="M108" s="16">
+        <v>43138</v>
+      </c>
       <c r="N108" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="O108" t="s">
+        <v>36</v>
+      </c>
+      <c r="P108">
+        <v>7</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -6450,13 +6507,13 @@
         <v>209</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C109" t="s">
         <v>19</v>
       </c>
       <c r="E109" s="2">
-        <v>43024</v>
+        <v>43023</v>
       </c>
       <c r="G109" s="23" t="s">
         <v>20</v>
@@ -6465,40 +6522,32 @@
         <v>21</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="J109" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="L109" s="2">
         <f>[Date Breed]+114</f>
-        <v>43138</v>
-      </c>
-      <c r="M109" s="16">
-        <v>43140</v>
-      </c>
-      <c r="O109" t="s">
-        <v>36</v>
-      </c>
-      <c r="P109">
-        <v>11</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>535</v>
+        <v>43137</v>
+      </c>
+      <c r="M109"/>
+      <c r="N109" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C110" t="s">
         <v>19</v>
       </c>
       <c r="E110" s="2">
-        <v>43025</v>
+        <v>43024</v>
       </c>
       <c r="G110" s="23" t="s">
         <v>20</v>
@@ -6507,17 +6556,26 @@
         <v>21</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L110" s="2">
         <f>[Date Breed]+114</f>
-        <v>43139</v>
-      </c>
-      <c r="N110" t="s">
-        <v>113</v>
-      </c>
-      <c r="R110" s="19" t="s">
-        <v>546</v>
+        <v>43138</v>
+      </c>
+      <c r="M110" s="16">
+        <v>43140</v>
+      </c>
+      <c r="O110" t="s">
+        <v>36</v>
+      </c>
+      <c r="P110">
+        <v>11</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -6525,7 +6583,7 @@
         <v>212</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
         <v>19</v>
@@ -6542,23 +6600,24 @@
       <c r="I111" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J111" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="L111" s="2">
         <f>[Date Breed]+114</f>
         <v>43139</v>
       </c>
+      <c r="M111"/>
       <c r="N111" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="15" customHeight="1">
+        <v>113</v>
+      </c>
+      <c r="R111" s="19" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
         <v>213</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
         <v>19</v>
@@ -6582,25 +6641,17 @@
         <f>[Date Breed]+114</f>
         <v>43139</v>
       </c>
-      <c r="M112" s="16">
-        <v>43142</v>
-      </c>
-      <c r="O112" t="s">
-        <v>36</v>
-      </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>542</v>
+      <c r="M112"/>
+      <c r="N112" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="15" customHeight="1">
       <c r="A113" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
@@ -6617,15 +6668,24 @@
       <c r="I113" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J113" s="14" t="s">
-        <v>22</v>
+      <c r="J113" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L113" s="2">
         <f>[Date Breed]+114</f>
         <v>43139</v>
       </c>
-      <c r="N113" t="s">
-        <v>182</v>
+      <c r="M113" s="16">
+        <v>43142</v>
+      </c>
+      <c r="O113" t="s">
+        <v>36</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="15" customHeight="1">
@@ -6633,13 +6693,13 @@
         <v>216</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
       </c>
       <c r="E114" s="2">
-        <v>43026</v>
+        <v>43025</v>
       </c>
       <c r="G114" s="23" t="s">
         <v>20</v>
@@ -6648,40 +6708,32 @@
         <v>21</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="J114" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="L114" s="2">
         <f>[Date Breed]+114</f>
-        <v>43140</v>
-      </c>
-      <c r="M114" s="16">
         <v>43139</v>
       </c>
-      <c r="O114" t="s">
-        <v>36</v>
-      </c>
-      <c r="P114">
-        <v>6</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>537</v>
+      <c r="M114"/>
+      <c r="N114" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:18" ht="15" customHeight="1">
       <c r="A115" t="s">
+        <v>217</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="C115" t="s">
         <v>19</v>
       </c>
       <c r="E115" s="2">
-        <v>43027</v>
+        <v>43026</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>20</v>
@@ -6697,27 +6749,27 @@
       </c>
       <c r="L115" s="2">
         <f>[Date Breed]+114</f>
-        <v>43141</v>
+        <v>43140</v>
       </c>
       <c r="M115" s="16">
-        <v>43143</v>
+        <v>43139</v>
       </c>
       <c r="O115" t="s">
         <v>36</v>
       </c>
       <c r="P115">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q115" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="116" spans="1:18" ht="15" customHeight="1">
       <c r="A116" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C116" t="s">
         <v>19</v>
@@ -6742,19 +6794,16 @@
         <v>43141</v>
       </c>
       <c r="M116" s="16">
-        <v>43147</v>
-      </c>
-      <c r="N116" t="s">
-        <v>171</v>
+        <v>43143</v>
       </c>
       <c r="O116" t="s">
         <v>36</v>
       </c>
       <c r="P116">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q116" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="15" customHeight="1">
@@ -6762,13 +6811,13 @@
         <v>221</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="C117" t="s">
         <v>19</v>
       </c>
       <c r="E117" s="2">
-        <v>43028</v>
+        <v>43027</v>
       </c>
       <c r="G117" s="23" t="s">
         <v>20</v>
@@ -6784,22 +6833,22 @@
       </c>
       <c r="L117" s="2">
         <f>[Date Breed]+114</f>
-        <v>43142</v>
+        <v>43141</v>
       </c>
       <c r="M117" s="16">
-        <v>43142</v>
+        <v>43147</v>
       </c>
       <c r="N117" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="O117" t="s">
         <v>36</v>
       </c>
       <c r="P117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q117" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="118" spans="1:18" ht="15" customHeight="1">
@@ -6807,7 +6856,7 @@
         <v>222</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="C118" t="s">
         <v>19</v>
@@ -6822,7 +6871,7 @@
         <v>21</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>36</v>
@@ -6835,36 +6884,36 @@
         <v>43142</v>
       </c>
       <c r="N118" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="O118" t="s">
-        <v>539</v>
+        <v>36</v>
       </c>
       <c r="P118">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q118" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="15" customHeight="1">
       <c r="A119" t="s">
         <v>223</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
       </c>
       <c r="E119" s="2">
-        <v>43032</v>
+        <v>43028</v>
       </c>
       <c r="G119" s="23" t="s">
         <v>20</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>56</v>
@@ -6874,36 +6923,37 @@
       </c>
       <c r="L119" s="2">
         <f>[Date Breed]+114</f>
-        <v>43146</v>
+        <v>43142</v>
       </c>
       <c r="M119" s="16">
-        <v>43147</v>
+        <v>43142</v>
+      </c>
+      <c r="N119" t="s">
+        <v>186</v>
       </c>
       <c r="O119" t="s">
-        <v>36</v>
+        <v>539</v>
       </c>
       <c r="P119">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q119" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="120" spans="1:18">
-      <c r="A120" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>99</v>
+      <c r="A120" t="s">
+        <v>224</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
       </c>
-      <c r="D120" s="4"/>
-      <c r="E120" s="6">
-        <v>43036</v>
-      </c>
-      <c r="F120" s="5"/>
+      <c r="E120" s="2">
+        <v>43032</v>
+      </c>
       <c r="G120" s="23" t="s">
         <v>20</v>
       </c>
@@ -6913,31 +6963,32 @@
       <c r="I120" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J120" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K120" s="7"/>
+      <c r="J120" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L120" s="2">
         <f>[Date Breed]+114</f>
-        <v>43150</v>
-      </c>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="19" t="s">
-        <v>545</v>
+        <v>43146</v>
+      </c>
+      <c r="M120" s="16">
+        <v>43147</v>
+      </c>
+      <c r="O120" t="s">
+        <v>36</v>
+      </c>
+      <c r="P120">
+        <v>15</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
@@ -6966,7 +7017,7 @@
       </c>
       <c r="M121" s="4"/>
       <c r="N121" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
@@ -6977,17 +7028,17 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="6">
-        <v>43037</v>
+        <v>43036</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="23" t="s">
@@ -6999,41 +7050,38 @@
       <c r="I122" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J122" s="3" t="s">
-        <v>36</v>
+      <c r="J122" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="K122" s="7"/>
       <c r="L122" s="2">
         <f>[Date Breed]+114</f>
-        <v>43151</v>
-      </c>
-      <c r="M122" s="21">
-        <v>43153</v>
-      </c>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P122" s="4">
-        <v>7</v>
-      </c>
-      <c r="Q122" s="4" t="s">
-        <v>536</v>
+        <v>43150</v>
+      </c>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="19" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="6">
-        <v>43038</v>
+        <v>43037</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="23" t="s">
@@ -7042,7 +7090,7 @@
       <c r="H123" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I123" s="5" t="s">
+      <c r="I123" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J123" s="3" t="s">
@@ -7051,7 +7099,7 @@
       <c r="K123" s="7"/>
       <c r="L123" s="2">
         <f>[Date Breed]+114</f>
-        <v>43152</v>
+        <v>43151</v>
       </c>
       <c r="M123" s="21">
         <v>43153</v>
@@ -7061,7 +7109,7 @@
         <v>36</v>
       </c>
       <c r="P123" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q123" s="4" t="s">
         <v>536</v>
@@ -7069,17 +7117,17 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="C124" t="s">
         <v>19</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="6">
-        <v>43039</v>
+        <v>43038</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="23" t="s">
@@ -7091,28 +7139,34 @@
       <c r="I124" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J124" s="14" t="s">
-        <v>22</v>
+      <c r="J124" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="K124" s="7"/>
       <c r="L124" s="2">
         <f>[Date Breed]+114</f>
+        <v>43152</v>
+      </c>
+      <c r="M124" s="21">
         <v>43153</v>
       </c>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P124" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q124" s="4" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
@@ -7131,41 +7185,35 @@
       <c r="I125" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J125" s="3" t="s">
-        <v>36</v>
+      <c r="J125" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="K125" s="7"/>
       <c r="L125" s="2">
         <f>[Date Breed]+114</f>
         <v>43153</v>
       </c>
-      <c r="M125" s="21">
-        <v>43153</v>
-      </c>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P125" s="4">
-        <v>6</v>
-      </c>
-      <c r="Q125" s="4" t="s">
-        <v>537</v>
-      </c>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C126" t="s">
         <v>19</v>
       </c>
       <c r="D126" s="4"/>
-      <c r="E126" s="8">
-        <v>43040</v>
+      <c r="E126" s="6">
+        <v>43039</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="23" t="s">
@@ -7177,34 +7225,34 @@
       <c r="I126" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J126" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K126" s="8"/>
+      <c r="J126" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K126" s="7"/>
       <c r="L126" s="2">
         <f>[Date Breed]+114</f>
-        <v>43154</v>
+        <v>43153</v>
       </c>
       <c r="M126" s="21">
-        <v>43156</v>
+        <v>43153</v>
       </c>
       <c r="N126" s="4"/>
       <c r="O126" s="4" t="s">
         <v>36</v>
       </c>
       <c r="P126" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q126" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C127" t="s">
         <v>19</v>
@@ -7232,30 +7280,32 @@
         <v>43154</v>
       </c>
       <c r="M127" s="21">
-        <v>43160</v>
+        <v>43156</v>
       </c>
       <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
+      <c r="O127" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="P127" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q127" s="4" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C128" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="8">
-        <v>43042</v>
+        <v>43040</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="23" t="s">
@@ -7273,26 +7323,28 @@
       <c r="K128" s="8"/>
       <c r="L128" s="2">
         <f>[Date Breed]+114</f>
-        <v>43156</v>
+        <v>43154</v>
       </c>
       <c r="M128" s="21">
-        <v>43161</v>
+        <v>43160</v>
       </c>
       <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
+      <c r="O128" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="P128" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q128" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="129" spans="1:17">
       <c r="A129" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C129" t="s">
         <v>19</v>
@@ -7320,14 +7372,14 @@
         <v>43156</v>
       </c>
       <c r="M129" s="21">
-        <v>43160</v>
+        <v>43161</v>
       </c>
       <c r="N129" s="4"/>
       <c r="O129" s="4" t="s">
         <v>36</v>
       </c>
       <c r="P129" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q129" s="4" t="s">
         <v>542</v>
@@ -7335,17 +7387,17 @@
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C130" t="s">
         <v>19</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="8">
-        <v>43043</v>
+        <v>43042</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="23" t="s">
@@ -7355,28 +7407,36 @@
         <v>21</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J130" s="15" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="2">
         <f>[Date Breed]+114</f>
-        <v>43157</v>
-      </c>
-      <c r="M130" s="4"/>
+        <v>43156</v>
+      </c>
+      <c r="M130" s="21">
+        <v>43160</v>
+      </c>
       <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
+      <c r="O130" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P130" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="4" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C131" t="s">
         <v>19</v>
@@ -7411,17 +7471,17 @@
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="8">
-        <v>43044</v>
+        <v>43043</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="23" t="s">
@@ -7434,27 +7494,25 @@
         <v>60</v>
       </c>
       <c r="J132" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K132" s="8"/>
       <c r="L132" s="2">
         <f>[Date Breed]+114</f>
-        <v>43158</v>
+        <v>43157</v>
       </c>
       <c r="M132" s="4"/>
-      <c r="N132" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="N132" s="4"/>
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
       <c r="Q132" s="4"/>
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="C133" t="s">
         <v>19</v>
@@ -7471,10 +7529,10 @@
         <v>21</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J133" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="2">
@@ -7482,17 +7540,19 @@
         <v>43158</v>
       </c>
       <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
+      <c r="N133" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="O133" s="4"/>
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C134" t="s">
         <v>19</v>
@@ -7509,10 +7569,10 @@
         <v>21</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J134" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="2">
@@ -7527,17 +7587,17 @@
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C135" t="s">
         <v>19</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="8">
-        <v>43045</v>
+        <v>43044</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="23" t="s">
@@ -7549,39 +7609,33 @@
       <c r="I135" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J135" s="9" t="s">
-        <v>36</v>
+      <c r="J135" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="2">
         <f>[Date Breed]+114</f>
-        <v>43159</v>
-      </c>
-      <c r="M135" s="21">
-        <v>43160</v>
-      </c>
+        <v>43158</v>
+      </c>
+      <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
-      <c r="P135" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q135" s="4" t="s">
-        <v>536</v>
-      </c>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C136" t="s">
         <v>19</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="8">
-        <v>43046</v>
+        <v>43045</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="23" t="s">
@@ -7599,29 +7653,35 @@
       <c r="K136" s="8"/>
       <c r="L136" s="2">
         <f>[Date Breed]+114</f>
+        <v>43159</v>
+      </c>
+      <c r="M136" s="21">
         <v>43160</v>
       </c>
-      <c r="M136" s="21">
-        <v>43162</v>
-      </c>
       <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
+      <c r="O136" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P136" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q136" s="4" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C137" t="s">
         <v>19</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="8">
-        <v>43049</v>
+        <v>43046</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="23" t="s">
@@ -7631,35 +7691,43 @@
         <v>21</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J137" s="15" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K137" s="8"/>
       <c r="L137" s="2">
         <f>[Date Breed]+114</f>
-        <v>43163</v>
-      </c>
-      <c r="M137" s="4"/>
+        <v>43160</v>
+      </c>
+      <c r="M137" s="21">
+        <v>43162</v>
+      </c>
       <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
+      <c r="O137" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P137" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q137" s="4" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B138" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C138" t="s">
         <v>19</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="8">
-        <v>43051</v>
+        <v>43049</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="23" t="s">
@@ -7671,34 +7739,26 @@
       <c r="I138" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J138" s="9" t="s">
-        <v>36</v>
+      <c r="J138" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K138" s="8"/>
       <c r="L138" s="2">
         <f>[Date Breed]+114</f>
-        <v>43165</v>
-      </c>
-      <c r="M138" s="21">
-        <v>43166</v>
-      </c>
+        <v>43163</v>
+      </c>
+      <c r="M138" s="4"/>
       <c r="N138" s="4"/>
-      <c r="O138" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P138" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q138" s="4" t="s">
-        <v>535</v>
-      </c>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C139" t="s">
         <v>19</v>
@@ -7733,18 +7793,18 @@
         <v>36</v>
       </c>
       <c r="P139" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q139" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="140" spans="1:17">
       <c r="A140" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="C140" t="s">
         <v>19</v>
@@ -7771,25 +7831,33 @@
         <f>[Date Breed]+114</f>
         <v>43165</v>
       </c>
-      <c r="M140" s="4"/>
+      <c r="M140" s="21">
+        <v>43166</v>
+      </c>
       <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
+      <c r="O140" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P140" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q140" s="4" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="141" spans="1:17">
       <c r="A141" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C141" t="s">
         <v>19</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="8">
-        <v>43052</v>
+        <v>43051</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="23" t="s">
@@ -7807,35 +7875,35 @@
       <c r="K141" s="8"/>
       <c r="L141" s="2">
         <f>[Date Breed]+114</f>
-        <v>43166</v>
+        <v>43165</v>
       </c>
       <c r="M141" s="21">
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="N141" s="4"/>
       <c r="O141" s="4" t="s">
         <v>36</v>
       </c>
       <c r="P141" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q141" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="142" spans="1:17">
       <c r="A142" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>265</v>
       </c>
       <c r="C142" t="s">
         <v>19</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="8">
-        <v>43053</v>
+        <v>43052</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="23" t="s">
@@ -7853,20 +7921,28 @@
       <c r="K142" s="8"/>
       <c r="L142" s="2">
         <f>[Date Breed]+114</f>
-        <v>43167</v>
-      </c>
-      <c r="M142" s="4"/>
+        <v>43166</v>
+      </c>
+      <c r="M142" s="21">
+        <v>43166</v>
+      </c>
       <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
+      <c r="O142" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P142" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q142" s="4" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="143" spans="1:17">
       <c r="A143" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>267</v>
       </c>
       <c r="C143" t="s">
         <v>19</v>
@@ -7883,7 +7959,7 @@
         <v>21</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J143" s="9" t="s">
         <v>36</v>
@@ -7893,25 +7969,33 @@
         <f>[Date Breed]+114</f>
         <v>43167</v>
       </c>
-      <c r="M143" s="4"/>
+      <c r="M143" s="21">
+        <v>43170</v>
+      </c>
       <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
+      <c r="O143" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P143" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q143" s="4" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="144" spans="1:17">
       <c r="A144" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>269</v>
       </c>
       <c r="C144" t="s">
         <v>19</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="8">
-        <v>43055</v>
+        <v>43053</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="23" t="s">
@@ -7929,27 +8013,35 @@
       <c r="K144" s="8"/>
       <c r="L144" s="2">
         <f>[Date Breed]+114</f>
+        <v>43167</v>
+      </c>
+      <c r="M144" s="21">
         <v>43169</v>
       </c>
-      <c r="M144" s="4"/>
       <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-    </row>
-    <row r="145" spans="1:17">
+      <c r="O144" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P144" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q144" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C145" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C145" t="s">
         <v>19</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="8">
-        <v>43057</v>
+        <v>43055</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="23" t="s">
@@ -7959,28 +8051,36 @@
         <v>21</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J145" s="9" t="s">
         <v>36</v>
       </c>
       <c r="K145" s="8"/>
-      <c r="L145" s="8">
-        <f>[Date Breed]+114</f>
-        <v>43171</v>
-      </c>
-      <c r="M145" s="4"/>
+      <c r="L145" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43169</v>
+      </c>
+      <c r="M145" s="21">
+        <v>43169</v>
+      </c>
       <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
-    </row>
-    <row r="146" spans="1:17">
+      <c r="O145" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P145" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q145" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>273</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>19</v>
@@ -8007,25 +8107,33 @@
         <f>[Date Breed]+114</f>
         <v>43171</v>
       </c>
-      <c r="M146" s="4"/>
+      <c r="M146" s="21">
+        <v>43172</v>
+      </c>
       <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-    </row>
-    <row r="147" spans="1:17">
+      <c r="O146" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P146" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q146" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>275</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="8">
-        <v>43058</v>
+        <v>43057</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="23" t="s">
@@ -8043,27 +8151,35 @@
       <c r="K147" s="8"/>
       <c r="L147" s="8">
         <f>[Date Breed]+114</f>
+        <v>43171</v>
+      </c>
+      <c r="M147" s="21">
         <v>43172</v>
       </c>
-      <c r="M147" s="4"/>
       <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="4"/>
-    </row>
-    <row r="148" spans="1:17">
+      <c r="O147" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P147" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q147" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>158</v>
+        <v>277</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="8">
-        <v>43059</v>
+        <v>43058</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="23" t="s">
@@ -8081,27 +8197,31 @@
       <c r="K148" s="8"/>
       <c r="L148" s="8">
         <f>[Date Breed]+114</f>
-        <v>43173</v>
+        <v>43172</v>
       </c>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
-      <c r="P148" s="4"/>
-      <c r="Q148" s="4"/>
-    </row>
-    <row r="149" spans="1:17">
+      <c r="P148" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q148" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="8">
-        <v>43060</v>
+        <v>43059</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="23" t="s">
@@ -8119,27 +8239,38 @@
       <c r="K149" s="8"/>
       <c r="L149" s="8">
         <f>[Date Breed]+114</f>
-        <v>43174</v>
-      </c>
-      <c r="M149" s="4"/>
+        <v>43173</v>
+      </c>
+      <c r="M149" s="21">
+        <v>43172</v>
+      </c>
       <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="4"/>
-      <c r="Q149" s="4"/>
-    </row>
-    <row r="150" spans="1:17">
+      <c r="O149" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="P149" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q149" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="R149" s="19" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="8">
-        <v>43061</v>
+        <v>43060</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="23" t="s">
@@ -8157,7 +8288,7 @@
       <c r="K150" s="8"/>
       <c r="L150" s="8">
         <f>[Date Breed]+114</f>
-        <v>43175</v>
+        <v>43174</v>
       </c>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
@@ -8165,26 +8296,26 @@
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:18">
       <c r="A151" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>180</v>
+        <v>281</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="8">
-        <v>43062</v>
+        <v>43061</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="23" t="s">
         <v>20</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>341</v>
+        <v>21</v>
       </c>
       <c r="I151" s="5" t="s">
         <v>56</v>
@@ -8195,20 +8326,28 @@
       <c r="K151" s="8"/>
       <c r="L151" s="8">
         <f>[Date Breed]+114</f>
-        <v>43176</v>
-      </c>
-      <c r="M151" s="4"/>
+        <v>43175</v>
+      </c>
+      <c r="M151" s="21">
+        <v>43173</v>
+      </c>
       <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
-      <c r="P151" s="4"/>
-      <c r="Q151" s="4"/>
-    </row>
-    <row r="152" spans="1:17">
+      <c r="O151" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P151" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q151" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>19</v>
@@ -8222,10 +8361,10 @@
         <v>20</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>21</v>
+        <v>341</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J152" s="9" t="s">
         <v>36</v>
@@ -8241,12 +8380,12 @@
       <c r="P152" s="4"/>
       <c r="Q152" s="4"/>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:18">
       <c r="A153" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>183</v>
+        <v>284</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>19</v>
@@ -8273,25 +8412,33 @@
         <f>[Date Breed]+114</f>
         <v>43176</v>
       </c>
-      <c r="M153" s="4"/>
+      <c r="M153" s="21">
+        <v>43173</v>
+      </c>
       <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-    </row>
-    <row r="154" spans="1:17">
+      <c r="O153" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="P153" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q153" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="8">
-        <v>43065</v>
+        <v>43062</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="23" t="s">
@@ -8301,7 +8448,7 @@
         <v>21</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J154" s="9" t="s">
         <v>36</v>
@@ -8309,7 +8456,7 @@
       <c r="K154" s="8"/>
       <c r="L154" s="8">
         <f>[Date Breed]+114</f>
-        <v>43179</v>
+        <v>43176</v>
       </c>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
@@ -8317,19 +8464,19 @@
       <c r="P154" s="4"/>
       <c r="Q154" s="4"/>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:18">
       <c r="A155" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="8">
-        <v>43064</v>
+        <v>43065</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="23" t="s">
@@ -8339,7 +8486,7 @@
         <v>21</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J155" s="9" t="s">
         <v>36</v>
@@ -8347,7 +8494,7 @@
       <c r="K155" s="8"/>
       <c r="L155" s="8">
         <f>[Date Breed]+114</f>
-        <v>43178</v>
+        <v>43179</v>
       </c>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
@@ -8355,19 +8502,19 @@
       <c r="P155" s="4"/>
       <c r="Q155" s="4"/>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:18">
       <c r="A156" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="8">
-        <v>43066</v>
+        <v>43064</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="23" t="s">
@@ -8377,15 +8524,15 @@
         <v>21</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J156" s="15" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="J156" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K156" s="8"/>
       <c r="L156" s="8">
         <f>[Date Breed]+114</f>
-        <v>43180</v>
+        <v>43178</v>
       </c>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
@@ -8393,19 +8540,19 @@
       <c r="P156" s="4"/>
       <c r="Q156" s="4"/>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:18">
       <c r="A157" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="8">
-        <v>43067</v>
+        <v>43066</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="23" t="s">
@@ -8423,7 +8570,7 @@
       <c r="K157" s="8"/>
       <c r="L157" s="8">
         <f>[Date Breed]+114</f>
-        <v>43181</v>
+        <v>43180</v>
       </c>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
@@ -8431,19 +8578,19 @@
       <c r="P157" s="4"/>
       <c r="Q157" s="4"/>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:18">
       <c r="A158" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="8">
-        <v>43068</v>
+        <v>43067</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="23" t="s">
@@ -8455,13 +8602,13 @@
       <c r="I158" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J158" s="9" t="s">
-        <v>36</v>
+      <c r="J158" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8">
         <f>[Date Breed]+114</f>
-        <v>43182</v>
+        <v>43181</v>
       </c>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
@@ -8469,19 +8616,19 @@
       <c r="P158" s="4"/>
       <c r="Q158" s="4"/>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:18">
       <c r="A159" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="8">
-        <v>43069</v>
+        <v>43068</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="23" t="s">
@@ -8491,7 +8638,7 @@
         <v>21</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J159" s="9" t="s">
         <v>36</v>
@@ -8499,7 +8646,7 @@
       <c r="K159" s="8"/>
       <c r="L159" s="8">
         <f>[Date Breed]+114</f>
-        <v>43183</v>
+        <v>43182</v>
       </c>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
@@ -8507,19 +8654,19 @@
       <c r="P159" s="4"/>
       <c r="Q159" s="4"/>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:18">
       <c r="A160" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="8">
-        <v>43070</v>
+        <v>43069</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="23" t="s">
@@ -8529,7 +8676,7 @@
         <v>21</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J160" s="9" t="s">
         <v>36</v>
@@ -8537,7 +8684,7 @@
       <c r="K160" s="8"/>
       <c r="L160" s="8">
         <f>[Date Breed]+114</f>
-        <v>43184</v>
+        <v>43183</v>
       </c>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
@@ -8547,17 +8694,17 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="8">
-        <v>43071</v>
+        <v>43070</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="23" t="s">
@@ -8567,7 +8714,7 @@
         <v>21</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J161" s="9" t="s">
         <v>36</v>
@@ -8575,7 +8722,7 @@
       <c r="K161" s="8"/>
       <c r="L161" s="8">
         <f>[Date Breed]+114</f>
-        <v>43185</v>
+        <v>43184</v>
       </c>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
@@ -8585,17 +8732,17 @@
     </row>
     <row r="162" spans="1:18">
       <c r="A162" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="8">
-        <v>43072</v>
+        <v>43071</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="23" t="s">
@@ -8605,7 +8752,7 @@
         <v>21</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J162" s="9" t="s">
         <v>36</v>
@@ -8613,24 +8760,20 @@
       <c r="K162" s="8"/>
       <c r="L162" s="8">
         <f>[Date Breed]+114</f>
-        <v>43186</v>
+        <v>43185</v>
       </c>
       <c r="M162" s="4"/>
-      <c r="N162" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="O162" s="4" t="s">
-        <v>539</v>
-      </c>
+      <c r="N162" s="4"/>
+      <c r="O162" s="4"/>
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
     </row>
     <row r="163" spans="1:18">
       <c r="A163" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>19</v>
@@ -8658,24 +8801,28 @@
         <v>43186</v>
       </c>
       <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
+      <c r="N163" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="O163" s="4" t="s">
+        <v>539</v>
+      </c>
       <c r="P163" s="4"/>
       <c r="Q163" s="4"/>
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="8">
-        <v>43074</v>
+        <v>43072</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="23" t="s">
@@ -8693,7 +8840,7 @@
       <c r="K164" s="8"/>
       <c r="L164" s="8">
         <f>[Date Breed]+114</f>
-        <v>43188</v>
+        <v>43186</v>
       </c>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
@@ -8703,10 +8850,10 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>19</v>
@@ -8725,8 +8872,8 @@
       <c r="I165" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J165" s="15" t="s">
-        <v>22</v>
+      <c r="J165" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8">
@@ -8741,10 +8888,10 @@
     </row>
     <row r="166" spans="1:18">
       <c r="A166" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>19</v>
@@ -8761,9 +8908,9 @@
         <v>21</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J166" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J166" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K166" s="8"/>
@@ -8779,17 +8926,17 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="8">
-        <v>43075</v>
+        <v>43074</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="23" t="s">
@@ -8799,7 +8946,7 @@
         <v>21</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J167" s="9" t="s">
         <v>22</v>
@@ -8807,7 +8954,7 @@
       <c r="K167" s="8"/>
       <c r="L167" s="8">
         <f>[Date Breed]+114</f>
-        <v>43189</v>
+        <v>43188</v>
       </c>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
@@ -8817,10 +8964,10 @@
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>19</v>
@@ -8840,7 +8987,7 @@
         <v>56</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K168" s="8"/>
       <c r="L168" s="8">
@@ -8855,24 +9002,24 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="8">
-        <v>43077</v>
+        <v>43075</v>
       </c>
       <c r="F169" s="5"/>
-      <c r="G169" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>173</v>
+      <c r="G169" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I169" s="5" t="s">
         <v>56</v>
@@ -8883,7 +9030,7 @@
       <c r="K169" s="8"/>
       <c r="L169" s="8">
         <f>[Date Breed]+114</f>
-        <v>43191</v>
+        <v>43189</v>
       </c>
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
@@ -8893,17 +9040,17 @@
     </row>
     <row r="170" spans="1:18">
       <c r="A170" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="8">
-        <v>43078</v>
+        <v>43077</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="24" t="s">
@@ -8915,13 +9062,13 @@
       <c r="I170" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J170" s="15" t="s">
-        <v>22</v>
+      <c r="J170" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K170" s="8"/>
       <c r="L170" s="8">
         <f>[Date Breed]+114</f>
-        <v>43192</v>
+        <v>43191</v>
       </c>
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
@@ -8931,10 +9078,10 @@
     </row>
     <row r="171" spans="1:18">
       <c r="A171" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>19</v>
@@ -8948,13 +9095,13 @@
         <v>20</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I171" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J171" s="9" t="s">
-        <v>36</v>
+      <c r="J171" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K171" s="8"/>
       <c r="L171" s="8">
@@ -8969,10 +9116,10 @@
     </row>
     <row r="172" spans="1:18">
       <c r="A172" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>19</v>
@@ -9007,17 +9154,17 @@
     </row>
     <row r="173" spans="1:18">
       <c r="A173" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>123</v>
+        <v>338</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="8">
-        <v>43079</v>
+        <v>43078</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="24" t="s">
@@ -9027,38 +9174,35 @@
         <v>21</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J173" s="15" t="s">
-        <v>22</v>
+        <v>56</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8">
         <f>[Date Breed]+114</f>
-        <v>43193</v>
+        <v>43192</v>
       </c>
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
       <c r="P173" s="4"/>
       <c r="Q173" s="4"/>
-      <c r="R173" t="s">
-        <v>545</v>
-      </c>
     </row>
     <row r="174" spans="1:18">
       <c r="A174" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="8">
-        <v>43080</v>
+        <v>43079</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="24" t="s">
@@ -9068,28 +9212,31 @@
         <v>21</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J174" s="9" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="J174" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8">
         <f>[Date Breed]+114</f>
-        <v>43194</v>
+        <v>43193</v>
       </c>
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
       <c r="Q174" s="4"/>
+      <c r="R174" s="19" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="175" spans="1:18">
       <c r="A175" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>19</v>
@@ -9106,7 +9253,7 @@
         <v>21</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J175" s="9" t="s">
         <v>36</v>
@@ -9124,10 +9271,10 @@
     </row>
     <row r="176" spans="1:18">
       <c r="A176" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>249</v>
+        <v>340</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>19</v>
@@ -9155,28 +9302,24 @@
         <v>43194</v>
       </c>
       <c r="M176" s="4"/>
-      <c r="N176" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="O176" s="4" t="s">
-        <v>539</v>
-      </c>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
       <c r="P176" s="4"/>
       <c r="Q176" s="4"/>
     </row>
     <row r="177" spans="1:17">
       <c r="A177" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="8">
-        <v>43081</v>
+        <v>43080</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="24" t="s">
@@ -9186,7 +9329,7 @@
         <v>21</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J177" s="9" t="s">
         <v>36</v>
@@ -9194,34 +9337,38 @@
       <c r="K177" s="8"/>
       <c r="L177" s="8">
         <f>[Date Breed]+114</f>
-        <v>43195</v>
+        <v>43194</v>
       </c>
       <c r="M177" s="4"/>
-      <c r="N177" s="4"/>
-      <c r="O177" s="4"/>
+      <c r="N177" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="O177" s="4" t="s">
+        <v>539</v>
+      </c>
       <c r="P177" s="4"/>
       <c r="Q177" s="4"/>
     </row>
     <row r="178" spans="1:17">
       <c r="A178" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="8">
-        <v>43082</v>
+        <v>43081</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>341</v>
+      <c r="H178" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="I178" s="5" t="s">
         <v>56</v>
@@ -9232,7 +9379,7 @@
       <c r="K178" s="8"/>
       <c r="L178" s="8">
         <f>[Date Breed]+114</f>
-        <v>43196</v>
+        <v>43195</v>
       </c>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
@@ -9242,10 +9389,10 @@
     </row>
     <row r="179" spans="1:17">
       <c r="A179" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>19</v>
@@ -9280,10 +9427,10 @@
     </row>
     <row r="180" spans="1:17">
       <c r="A180" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>342</v>
+        <v>201</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>19</v>
@@ -9296,11 +9443,11 @@
       <c r="G180" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H180" s="5" t="s">
-        <v>21</v>
+      <c r="H180" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J180" s="9" t="s">
         <v>36</v>
@@ -9318,35 +9465,35 @@
     </row>
     <row r="181" spans="1:17">
       <c r="A181" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>186</v>
+        <v>342</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="8">
-        <v>43083</v>
+        <v>43082</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J181" s="15" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8">
         <f>[Date Breed]+114</f>
-        <v>43197</v>
+        <v>43196</v>
       </c>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
@@ -9356,10 +9503,10 @@
     </row>
     <row r="182" spans="1:17">
       <c r="A182" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>343</v>
+        <v>187</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>19</v>
@@ -9370,13 +9517,13 @@
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H182" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J182" s="15" t="s">
         <v>22</v>
@@ -9394,10 +9541,10 @@
     </row>
     <row r="183" spans="1:17">
       <c r="A183" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>19</v>
@@ -9414,7 +9561,7 @@
         <v>21</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J183" s="15" t="s">
         <v>22</v>
@@ -9432,17 +9579,17 @@
     </row>
     <row r="184" spans="1:17">
       <c r="A184" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="8">
-        <v>43084</v>
+        <v>43083</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="24" t="s">
@@ -9460,7 +9607,7 @@
       <c r="K184" s="8"/>
       <c r="L184" s="8">
         <f>[Date Breed]+114</f>
-        <v>43198</v>
+        <v>43197</v>
       </c>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
@@ -9470,24 +9617,24 @@
     </row>
     <row r="185" spans="1:17">
       <c r="A185" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="8">
-        <v>43086</v>
+        <v>43084</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>341</v>
+      <c r="H185" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="I185" s="5" t="s">
         <v>56</v>
@@ -9498,7 +9645,7 @@
       <c r="K185" s="8"/>
       <c r="L185" s="8">
         <f>[Date Breed]+114</f>
-        <v>43200</v>
+        <v>43198</v>
       </c>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
@@ -9508,10 +9655,10 @@
     </row>
     <row r="186" spans="1:17">
       <c r="A186" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>19</v>
@@ -9530,8 +9677,8 @@
       <c r="I186" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J186" s="9" t="s">
-        <v>36</v>
+      <c r="J186" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K186" s="8"/>
       <c r="L186" s="8">
@@ -9539,50 +9686,46 @@
         <v>43200</v>
       </c>
       <c r="M186" s="4"/>
-      <c r="N186" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="O186" s="4" t="s">
-        <v>539</v>
-      </c>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
       <c r="P186" s="4"/>
       <c r="Q186" s="4"/>
     </row>
     <row r="187" spans="1:17">
       <c r="A187" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="8">
-        <v>43087</v>
+        <v>43086</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H187" s="5" t="s">
-        <v>21</v>
+      <c r="H187" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="I187" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J187" s="15" t="s">
-        <v>22</v>
+      <c r="J187" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K187" s="8"/>
       <c r="L187" s="8">
         <f>[Date Breed]+114</f>
-        <v>43201</v>
+        <v>43200</v>
       </c>
       <c r="M187" s="4"/>
       <c r="N187" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O187" s="4" t="s">
         <v>539</v>
@@ -9592,10 +9735,10 @@
     </row>
     <row r="188" spans="1:17">
       <c r="A188" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>19</v>
@@ -9614,8 +9757,8 @@
       <c r="I188" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J188" s="18" t="s">
-        <v>36</v>
+      <c r="J188" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K188" s="8"/>
       <c r="L188" s="8">
@@ -9623,28 +9766,32 @@
         <v>43201</v>
       </c>
       <c r="M188" s="4"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="4"/>
+      <c r="N188" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="O188" s="4" t="s">
+        <v>539</v>
+      </c>
       <c r="P188" s="4"/>
       <c r="Q188" s="4"/>
     </row>
     <row r="189" spans="1:17">
       <c r="A189" s="4" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>47</v>
+        <v>347</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="8">
-        <v>43088</v>
+        <v>43087</v>
       </c>
       <c r="F189" s="5"/>
       <c r="G189" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H189" s="5" t="s">
         <v>21</v>
@@ -9652,13 +9799,13 @@
       <c r="I189" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J189" s="9" t="s">
+      <c r="J189" s="18" t="s">
         <v>36</v>
       </c>
       <c r="K189" s="8"/>
       <c r="L189" s="8">
         <f>[Date Breed]+114</f>
-        <v>43202</v>
+        <v>43201</v>
       </c>
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
@@ -9668,10 +9815,10 @@
     </row>
     <row r="190" spans="1:17">
       <c r="A190" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>19</v>
@@ -9691,7 +9838,7 @@
         <v>56</v>
       </c>
       <c r="J190" s="9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K190" s="8"/>
       <c r="L190" s="8">
@@ -9706,35 +9853,35 @@
     </row>
     <row r="191" spans="1:17">
       <c r="A191" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>357</v>
+        <v>18</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="8">
-        <v>43089</v>
+        <v>43088</v>
       </c>
       <c r="F191" s="5"/>
       <c r="G191" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="I191" s="5" t="s">
         <v>56</v>
       </c>
       <c r="J191" s="9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K191" s="8"/>
       <c r="L191" s="8">
         <f>[Date Breed]+114</f>
-        <v>43203</v>
+        <v>43202</v>
       </c>
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
@@ -9744,10 +9891,10 @@
     </row>
     <row r="192" spans="1:17">
       <c r="A192" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>166</v>
+        <v>357</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>19</v>
@@ -9782,10 +9929,10 @@
     </row>
     <row r="193" spans="1:18">
       <c r="A193" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>19</v>
@@ -9796,7 +9943,7 @@
       </c>
       <c r="F193" s="5"/>
       <c r="G193" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H193" s="5" t="s">
         <v>173</v>
@@ -9820,10 +9967,10 @@
     </row>
     <row r="194" spans="1:18">
       <c r="A194" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>19</v>
@@ -9858,24 +10005,24 @@
     </row>
     <row r="195" spans="1:18">
       <c r="A195" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="8">
-        <v>43090</v>
+        <v>43089</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I195" s="5" t="s">
         <v>56</v>
@@ -9886,7 +10033,7 @@
       <c r="K195" s="8"/>
       <c r="L195" s="8">
         <f>[Date Breed]+114</f>
-        <v>43204</v>
+        <v>43203</v>
       </c>
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
@@ -9896,10 +10043,10 @@
     </row>
     <row r="196" spans="1:18">
       <c r="A196" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>19</v>
@@ -9919,7 +10066,7 @@
         <v>56</v>
       </c>
       <c r="J196" s="9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K196" s="8"/>
       <c r="L196" s="8">
@@ -9934,35 +10081,35 @@
     </row>
     <row r="197" spans="1:18">
       <c r="A197" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>42</v>
+        <v>359</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="8">
-        <v>43093</v>
+        <v>43090</v>
       </c>
       <c r="F197" s="5"/>
       <c r="G197" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>341</v>
+        <v>20</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="I197" s="5" t="s">
         <v>56</v>
       </c>
       <c r="J197" s="9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="8">
         <f>[Date Breed]+114</f>
-        <v>43207</v>
+        <v>43204</v>
       </c>
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
@@ -9972,24 +10119,24 @@
     </row>
     <row r="198" spans="1:18">
       <c r="A198" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>391</v>
+        <v>42</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="8">
-        <v>43094</v>
+        <v>43093</v>
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H198" s="5" t="s">
-        <v>173</v>
+        <v>93</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="I198" s="5" t="s">
         <v>56</v>
@@ -10000,7 +10147,7 @@
       <c r="K198" s="8"/>
       <c r="L198" s="8">
         <f>[Date Breed]+114</f>
-        <v>43208</v>
+        <v>43207</v>
       </c>
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
@@ -10010,10 +10157,10 @@
     </row>
     <row r="199" spans="1:18">
       <c r="A199" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>19</v>
@@ -10048,17 +10195,17 @@
     </row>
     <row r="200" spans="1:18">
       <c r="A200" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="8">
-        <v>43095</v>
+        <v>43094</v>
       </c>
       <c r="F200" s="5"/>
       <c r="G200" s="24" t="s">
@@ -10070,13 +10217,13 @@
       <c r="I200" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J200" s="15" t="s">
-        <v>22</v>
+      <c r="J200" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K200" s="8"/>
       <c r="L200" s="8">
         <f>[Date Breed]+114</f>
-        <v>43209</v>
+        <v>43208</v>
       </c>
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
@@ -10086,10 +10233,10 @@
     </row>
     <row r="201" spans="1:18">
       <c r="A201" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>51</v>
+        <v>393</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>19</v>
@@ -10102,8 +10249,8 @@
       <c r="G201" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>341</v>
+      <c r="H201" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="I201" s="5" t="s">
         <v>56</v>
@@ -10124,10 +10271,10 @@
     </row>
     <row r="202" spans="1:18">
       <c r="A202" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>394</v>
+        <v>51</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>19</v>
@@ -10162,10 +10309,10 @@
     </row>
     <row r="203" spans="1:18">
       <c r="A203" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>53</v>
+        <v>394</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>19</v>
@@ -10176,10 +10323,10 @@
       </c>
       <c r="F203" s="5"/>
       <c r="G203" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H203" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="I203" s="5" t="s">
         <v>56</v>
@@ -10200,10 +10347,10 @@
     </row>
     <row r="204" spans="1:18">
       <c r="A204" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>395</v>
+        <v>53</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>19</v>
@@ -10214,7 +10361,7 @@
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H204" s="5" t="s">
         <v>21</v>
@@ -10238,10 +10385,10 @@
     </row>
     <row r="205" spans="1:18">
       <c r="A205" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>19</v>
@@ -10260,8 +10407,8 @@
       <c r="I205" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J205" s="9" t="s">
-        <v>36</v>
+      <c r="J205" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K205" s="8"/>
       <c r="L205" s="8">
@@ -10276,51 +10423,48 @@
     </row>
     <row r="206" spans="1:18">
       <c r="A206" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>396</v>
+        <v>312</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="8">
-        <v>43097</v>
+        <v>43095</v>
       </c>
       <c r="F206" s="5"/>
       <c r="G206" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="I206" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J206" s="15" t="s">
-        <v>22</v>
+      <c r="J206" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K206" s="8"/>
       <c r="L206" s="8">
         <f>[Date Breed]+114</f>
-        <v>43211</v>
+        <v>43209</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>
       <c r="O206" s="4"/>
       <c r="P206" s="4"/>
       <c r="Q206" s="4"/>
-      <c r="R206" s="19" t="s">
-        <v>546</v>
-      </c>
     </row>
     <row r="207" spans="1:18">
       <c r="A207" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>55</v>
+        <v>396</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>19</v>
@@ -10331,7 +10475,7 @@
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H207" s="5" t="s">
         <v>173</v>
@@ -10339,8 +10483,8 @@
       <c r="I207" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J207" s="9" t="s">
-        <v>36</v>
+      <c r="J207" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K207" s="8"/>
       <c r="L207" s="8">
@@ -10352,13 +10496,16 @@
       <c r="O207" s="4"/>
       <c r="P207" s="4"/>
       <c r="Q207" s="4"/>
+      <c r="R207" s="19" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="208" spans="1:18">
       <c r="A208" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>397</v>
+        <v>55</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>19</v>
@@ -10369,16 +10516,16 @@
       </c>
       <c r="F208" s="5"/>
       <c r="G208" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>341</v>
+        <v>93</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="I208" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J208" s="15" t="s">
-        <v>22</v>
+      <c r="J208" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K208" s="8"/>
       <c r="L208" s="8">
@@ -10393,17 +10540,17 @@
     </row>
     <row r="209" spans="1:17">
       <c r="A209" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="8">
-        <v>43099</v>
+        <v>43097</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="24" t="s">
@@ -10421,7 +10568,7 @@
       <c r="K209" s="8"/>
       <c r="L209" s="8">
         <f>[Date Breed]+114</f>
-        <v>43213</v>
+        <v>43211</v>
       </c>
       <c r="M209" s="4"/>
       <c r="N209" s="4"/>
@@ -10431,17 +10578,17 @@
     </row>
     <row r="210" spans="1:17">
       <c r="A210" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>336</v>
+        <v>398</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="8">
-        <v>43098</v>
+        <v>43099</v>
       </c>
       <c r="F210" s="5"/>
       <c r="G210" s="24" t="s">
@@ -10453,13 +10600,13 @@
       <c r="I210" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J210" s="9" t="s">
-        <v>36</v>
+      <c r="J210" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K210" s="8"/>
       <c r="L210" s="8">
         <f>[Date Breed]+114</f>
-        <v>43212</v>
+        <v>43213</v>
       </c>
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
@@ -10469,24 +10616,24 @@
     </row>
     <row r="211" spans="1:17">
       <c r="A211" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="8">
-        <v>43089</v>
+        <v>43098</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H211" s="5" t="s">
-        <v>21</v>
+      <c r="H211" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="I211" s="5" t="s">
         <v>56</v>
@@ -10497,7 +10644,7 @@
       <c r="K211" s="8"/>
       <c r="L211" s="8">
         <f>[Date Breed]+114</f>
-        <v>43203</v>
+        <v>43212</v>
       </c>
       <c r="M211" s="4"/>
       <c r="N211" s="4"/>
@@ -10507,17 +10654,17 @@
     </row>
     <row r="212" spans="1:17">
       <c r="A212" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="8">
-        <v>43100</v>
+        <v>43089</v>
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="24" t="s">
@@ -10529,13 +10676,13 @@
       <c r="I212" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J212" s="15" t="s">
-        <v>22</v>
+      <c r="J212" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K212" s="8"/>
       <c r="L212" s="8">
         <f>[Date Breed]+114</f>
-        <v>43214</v>
+        <v>43203</v>
       </c>
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>
@@ -10545,35 +10692,35 @@
     </row>
     <row r="213" spans="1:17">
       <c r="A213" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="8">
-        <v>43101</v>
+        <v>43100</v>
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H213" s="1" t="s">
-        <v>341</v>
+      <c r="H213" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="I213" s="5" t="s">
         <v>56</v>
       </c>
       <c r="J213" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K213" s="8"/>
       <c r="L213" s="8">
         <f>[Date Breed]+114</f>
-        <v>43215</v>
+        <v>43214</v>
       </c>
       <c r="M213" s="4"/>
       <c r="N213" s="4"/>
@@ -10583,35 +10730,35 @@
     </row>
     <row r="214" spans="1:17">
       <c r="A214" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="8">
-        <v>43102</v>
+        <v>43101</v>
       </c>
       <c r="F214" s="5"/>
       <c r="G214" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H214" s="5" t="s">
-        <v>173</v>
+      <c r="H214" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="I214" s="5" t="s">
         <v>56</v>
       </c>
       <c r="J214" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K214" s="8"/>
       <c r="L214" s="8">
         <f>[Date Breed]+114</f>
-        <v>43216</v>
+        <v>43215</v>
       </c>
       <c r="M214" s="4"/>
       <c r="N214" s="4"/>
@@ -10621,10 +10768,10 @@
     </row>
     <row r="215" spans="1:17">
       <c r="A215" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>244</v>
+        <v>435</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>19</v>
@@ -10637,14 +10784,14 @@
       <c r="G215" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H215" s="1" t="s">
-        <v>341</v>
+      <c r="H215" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="I215" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J215" s="9" t="s">
-        <v>36</v>
+      <c r="J215" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K215" s="8"/>
       <c r="L215" s="8">
@@ -10659,10 +10806,10 @@
     </row>
     <row r="216" spans="1:17">
       <c r="A216" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>436</v>
+        <v>244</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>19</v>
@@ -10697,10 +10844,10 @@
     </row>
     <row r="217" spans="1:17">
       <c r="A217" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>78</v>
+        <v>436</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>19</v>
@@ -10711,7 +10858,7 @@
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>341</v>
@@ -10735,10 +10882,10 @@
     </row>
     <row r="218" spans="1:17">
       <c r="A218" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>19</v>
@@ -10773,21 +10920,21 @@
     </row>
     <row r="219" spans="1:17">
       <c r="A219" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>437</v>
+        <v>76</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="8">
-        <v>43103</v>
+        <v>43102</v>
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>341</v>
@@ -10801,7 +10948,7 @@
       <c r="K219" s="8"/>
       <c r="L219" s="8">
         <f>[Date Breed]+114</f>
-        <v>43217</v>
+        <v>43216</v>
       </c>
       <c r="M219" s="4"/>
       <c r="N219" s="4"/>
@@ -10811,10 +10958,10 @@
     </row>
     <row r="220" spans="1:17">
       <c r="A220" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>251</v>
+        <v>437</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>19</v>
@@ -10849,10 +10996,10 @@
     </row>
     <row r="221" spans="1:17">
       <c r="A221" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>19</v>
@@ -10865,14 +11012,14 @@
       <c r="G221" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H221" s="5" t="s">
-        <v>21</v>
+      <c r="H221" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="I221" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J221" s="15" t="s">
-        <v>22</v>
+      <c r="J221" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K221" s="8"/>
       <c r="L221" s="8">
@@ -10887,24 +11034,24 @@
     </row>
     <row r="222" spans="1:17">
       <c r="A222" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="8">
-        <v>43104</v>
+        <v>43103</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="I222" s="5" t="s">
         <v>56</v>
@@ -10915,7 +11062,7 @@
       <c r="K222" s="8"/>
       <c r="L222" s="8">
         <f>[Date Breed]+114</f>
-        <v>43218</v>
+        <v>43217</v>
       </c>
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
@@ -10925,17 +11072,17 @@
     </row>
     <row r="223" spans="1:17">
       <c r="A223" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>438</v>
+        <v>343</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="8">
-        <v>43105</v>
+        <v>43104</v>
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="24" t="s">
@@ -10947,13 +11094,13 @@
       <c r="I223" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J223" s="9" t="s">
-        <v>36</v>
+      <c r="J223" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K223" s="8"/>
       <c r="L223" s="8">
         <f>[Date Breed]+114</f>
-        <v>43219</v>
+        <v>43218</v>
       </c>
       <c r="M223" s="4"/>
       <c r="N223" s="4"/>
@@ -10963,10 +11110,10 @@
     </row>
     <row r="224" spans="1:17">
       <c r="A224" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>62</v>
+        <v>438</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>19</v>
@@ -10977,7 +11124,7 @@
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H224" s="5" t="s">
         <v>173</v>
@@ -11001,10 +11148,10 @@
     </row>
     <row r="225" spans="1:17">
       <c r="A225" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>439</v>
+        <v>62</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>19</v>
@@ -11015,7 +11162,7 @@
       </c>
       <c r="F225" s="5"/>
       <c r="G225" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>173</v>
@@ -11039,24 +11186,24 @@
     </row>
     <row r="226" spans="1:17">
       <c r="A226" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>291</v>
+        <v>439</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="8">
-        <v>43108</v>
+        <v>43105</v>
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I226" s="5" t="s">
         <v>56</v>
@@ -11067,7 +11214,7 @@
       <c r="K226" s="8"/>
       <c r="L226" s="8">
         <f>[Date Breed]+114</f>
-        <v>43222</v>
+        <v>43219</v>
       </c>
       <c r="M226" s="4"/>
       <c r="N226" s="4"/>
@@ -11077,10 +11224,10 @@
     </row>
     <row r="227" spans="1:17">
       <c r="A227" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>19</v>
@@ -11091,7 +11238,7 @@
       </c>
       <c r="F227" s="5"/>
       <c r="G227" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H227" s="5" t="s">
         <v>21</v>
@@ -11115,10 +11262,10 @@
     </row>
     <row r="228" spans="1:17">
       <c r="A228" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>440</v>
+        <v>35</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>19</v>
@@ -11135,10 +11282,10 @@
         <v>21</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J228" s="15" t="s">
-        <v>22</v>
+        <v>56</v>
+      </c>
+      <c r="J228" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="8">
@@ -11153,10 +11300,10 @@
     </row>
     <row r="229" spans="1:17">
       <c r="A229" s="4" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>19</v>
@@ -11167,16 +11314,16 @@
       </c>
       <c r="F229" s="5"/>
       <c r="G229" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H229" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J229" s="9" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="J229" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K229" s="8"/>
       <c r="L229" s="8">
@@ -11191,24 +11338,24 @@
     </row>
     <row r="230" spans="1:17">
       <c r="A230" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D230" s="4"/>
       <c r="E230" s="8">
-        <v>43110</v>
+        <v>43108</v>
       </c>
       <c r="F230" s="5"/>
       <c r="G230" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>341</v>
+        <v>20</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="I230" s="5" t="s">
         <v>56</v>
@@ -11219,7 +11366,7 @@
       <c r="K230" s="8"/>
       <c r="L230" s="8">
         <f>[Date Breed]+114</f>
-        <v>43224</v>
+        <v>43222</v>
       </c>
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
@@ -11229,10 +11376,10 @@
     </row>
     <row r="231" spans="1:17">
       <c r="A231" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>19</v>
@@ -11243,7 +11390,7 @@
       </c>
       <c r="F231" s="5"/>
       <c r="G231" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>341</v>
@@ -11267,24 +11414,24 @@
     </row>
     <row r="232" spans="1:17">
       <c r="A232" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>84</v>
+        <v>442</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="8">
-        <v>43111</v>
+        <v>43110</v>
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H232" s="5" t="s">
-        <v>173</v>
+        <v>20</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="I232" s="5" t="s">
         <v>56</v>
@@ -11295,7 +11442,7 @@
       <c r="K232" s="8"/>
       <c r="L232" s="8">
         <f>[Date Breed]+114</f>
-        <v>43225</v>
+        <v>43224</v>
       </c>
       <c r="M232" s="4"/>
       <c r="N232" s="4"/>
@@ -11305,10 +11452,10 @@
     </row>
     <row r="233" spans="1:17">
       <c r="A233" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>443</v>
+        <v>84</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>19</v>
@@ -11319,7 +11466,7 @@
       </c>
       <c r="F233" s="5"/>
       <c r="G233" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H233" s="5" t="s">
         <v>173</v>
@@ -11343,10 +11490,10 @@
     </row>
     <row r="234" spans="1:17">
       <c r="A234" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>19</v>
@@ -11381,24 +11528,24 @@
     </row>
     <row r="235" spans="1:17">
       <c r="A235" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="8">
-        <v>43112</v>
+        <v>43111</v>
       </c>
       <c r="F235" s="5"/>
       <c r="G235" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I235" s="5" t="s">
         <v>56</v>
@@ -11409,7 +11556,7 @@
       <c r="K235" s="8"/>
       <c r="L235" s="8">
         <f>[Date Breed]+114</f>
-        <v>43226</v>
+        <v>43225</v>
       </c>
       <c r="M235" s="4"/>
       <c r="N235" s="4"/>
@@ -11419,17 +11566,17 @@
     </row>
     <row r="236" spans="1:17">
       <c r="A236" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>310</v>
+        <v>445</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="8">
-        <v>43113</v>
+        <v>43112</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="24" t="s">
@@ -11447,7 +11594,7 @@
       <c r="K236" s="8"/>
       <c r="L236" s="8">
         <f>[Date Breed]+114</f>
-        <v>43227</v>
+        <v>43226</v>
       </c>
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
@@ -11457,10 +11604,10 @@
     </row>
     <row r="237" spans="1:17">
       <c r="A237" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>19</v>
@@ -11471,7 +11618,7 @@
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="24" t="s">
-        <v>447</v>
+        <v>20</v>
       </c>
       <c r="H237" s="5" t="s">
         <v>21</v>
@@ -11479,8 +11626,8 @@
       <c r="I237" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J237" s="15" t="s">
-        <v>22</v>
+      <c r="J237" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K237" s="8"/>
       <c r="L237" s="8">
@@ -11495,35 +11642,35 @@
     </row>
     <row r="238" spans="1:17">
       <c r="A238" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="8">
-        <v>43115</v>
+        <v>43113</v>
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>341</v>
+        <v>447</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="I238" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J238" s="9" t="s">
-        <v>36</v>
+      <c r="J238" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K238" s="8"/>
       <c r="L238" s="8">
         <f>[Date Breed]+114</f>
-        <v>43229</v>
+        <v>43227</v>
       </c>
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>
@@ -11533,10 +11680,10 @@
     </row>
     <row r="239" spans="1:17">
       <c r="A239" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>19</v>
@@ -11547,7 +11694,7 @@
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>341</v>
@@ -11571,10 +11718,10 @@
     </row>
     <row r="240" spans="1:17">
       <c r="A240" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>359</v>
+        <v>64</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>19</v>
@@ -11585,7 +11732,7 @@
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>341</v>
@@ -11593,8 +11740,8 @@
       <c r="I240" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J240" s="15" t="s">
-        <v>22</v>
+      <c r="J240" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K240" s="8"/>
       <c r="L240" s="8">
@@ -11609,35 +11756,35 @@
     </row>
     <row r="241" spans="1:17">
       <c r="A241" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D241" s="4"/>
       <c r="E241" s="8">
-        <v>43116</v>
+        <v>43115</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H241" s="5" t="s">
-        <v>173</v>
+      <c r="H241" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="I241" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J241" s="9" t="s">
-        <v>36</v>
+      <c r="J241" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K241" s="8"/>
       <c r="L241" s="8">
         <f>[Date Breed]+114</f>
-        <v>43230</v>
+        <v>43229</v>
       </c>
       <c r="M241" s="4"/>
       <c r="N241" s="4"/>
@@ -11647,10 +11794,10 @@
     </row>
     <row r="242" spans="1:17">
       <c r="A242" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>53</v>
+        <v>395</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>19</v>
@@ -11661,7 +11808,7 @@
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H242" s="5" t="s">
         <v>173</v>
@@ -11685,24 +11832,24 @@
     </row>
     <row r="243" spans="1:17">
       <c r="A243" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>448</v>
+        <v>53</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="8">
-        <v>43117</v>
+        <v>43116</v>
       </c>
       <c r="F243" s="5"/>
       <c r="G243" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I243" s="5" t="s">
         <v>56</v>
@@ -11713,7 +11860,7 @@
       <c r="K243" s="8"/>
       <c r="L243" s="8">
         <f>[Date Breed]+114</f>
-        <v>43231</v>
+        <v>43230</v>
       </c>
       <c r="M243" s="4"/>
       <c r="N243" s="4"/>
@@ -11723,24 +11870,24 @@
     </row>
     <row r="244" spans="1:17">
       <c r="A244" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D244" s="4"/>
       <c r="E244" s="8">
-        <v>43118</v>
+        <v>43117</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>341</v>
+      <c r="H244" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="I244" s="5" t="s">
         <v>56</v>
@@ -11751,7 +11898,7 @@
       <c r="K244" s="8"/>
       <c r="L244" s="8">
         <f>[Date Breed]+114</f>
-        <v>43232</v>
+        <v>43231</v>
       </c>
       <c r="M244" s="4"/>
       <c r="N244" s="4"/>
@@ -11761,10 +11908,10 @@
     </row>
     <row r="245" spans="1:17">
       <c r="A245" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>49</v>
+        <v>449</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>19</v>
@@ -11775,7 +11922,7 @@
       </c>
       <c r="F245" s="5"/>
       <c r="G245" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>341</v>
@@ -11799,10 +11946,10 @@
     </row>
     <row r="246" spans="1:17">
       <c r="A246" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>19</v>
@@ -11837,21 +11984,21 @@
     </row>
     <row r="247" spans="1:17">
       <c r="A247" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>446</v>
+        <v>51</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="8">
-        <v>43119</v>
+        <v>43118</v>
       </c>
       <c r="F247" s="5"/>
       <c r="G247" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>341</v>
@@ -11865,7 +12012,7 @@
       <c r="K247" s="8"/>
       <c r="L247" s="8">
         <f>[Date Breed]+114</f>
-        <v>43233</v>
+        <v>43232</v>
       </c>
       <c r="M247" s="4"/>
       <c r="N247" s="4"/>
@@ -11875,35 +12022,35 @@
     </row>
     <row r="248" spans="1:17">
       <c r="A248" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D248" s="4"/>
       <c r="E248" s="8">
-        <v>43120</v>
+        <v>43119</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H248" s="5" t="s">
-        <v>173</v>
+      <c r="H248" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="I248" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J248" s="15" t="s">
-        <v>22</v>
+      <c r="J248" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K248" s="8"/>
       <c r="L248" s="8">
         <f>[Date Breed]+114</f>
-        <v>43234</v>
+        <v>43233</v>
       </c>
       <c r="M248" s="4"/>
       <c r="N248" s="4"/>
@@ -11913,35 +12060,35 @@
     </row>
     <row r="249" spans="1:17">
       <c r="A249" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B249" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C249" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D249" s="11"/>
-      <c r="E249" s="12">
-        <v>43123</v>
-      </c>
-      <c r="F249" s="10"/>
-      <c r="G249" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H249" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="I249" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J249" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K249" s="12"/>
-      <c r="L249" s="12">
-        <f>[Date Breed]+114</f>
-        <v>43237</v>
+        <v>420</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D249" s="4"/>
+      <c r="E249" s="8">
+        <v>43120</v>
+      </c>
+      <c r="F249" s="5"/>
+      <c r="G249" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I249" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J249" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K249" s="8"/>
+      <c r="L249" s="8">
+        <f>[Date Breed]+114</f>
+        <v>43234</v>
       </c>
       <c r="M249" s="4"/>
       <c r="N249" s="4"/>
@@ -11951,33 +12098,33 @@
     </row>
     <row r="250" spans="1:17">
       <c r="A250" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D250" s="4"/>
-      <c r="E250" s="8">
+        <v>421</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250" s="11"/>
+      <c r="E250" s="12">
         <v>43123</v>
       </c>
-      <c r="F250" s="5"/>
-      <c r="G250" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H250" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I250" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J250" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K250" s="8"/>
-      <c r="L250" s="8">
+      <c r="F250" s="10"/>
+      <c r="G250" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H250" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I250" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J250" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K250" s="12"/>
+      <c r="L250" s="12">
         <f>[Date Breed]+114</f>
         <v>43237</v>
       </c>
@@ -11989,35 +12136,35 @@
     </row>
     <row r="251" spans="1:17">
       <c r="A251" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251" s="8">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F251" s="5"/>
       <c r="G251" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="H251" s="5" t="s">
-        <v>21</v>
+      <c r="H251" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="I251" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J251" s="15" t="s">
-        <v>22</v>
+      <c r="J251" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K251" s="8"/>
       <c r="L251" s="8">
         <f>[Date Breed]+114</f>
-        <v>43238</v>
+        <v>43237</v>
       </c>
       <c r="M251" s="4"/>
       <c r="N251" s="4"/>
@@ -12027,10 +12174,10 @@
     </row>
     <row r="252" spans="1:17">
       <c r="A252" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>19</v>
@@ -12065,35 +12212,35 @@
     </row>
     <row r="253" spans="1:17">
       <c r="A253" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B253" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C253" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D253" s="11"/>
-      <c r="E253" s="12">
-        <v>43125</v>
-      </c>
-      <c r="F253" s="10"/>
-      <c r="G253" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D253" s="4"/>
+      <c r="E253" s="8">
+        <v>43124</v>
+      </c>
+      <c r="F253" s="5"/>
+      <c r="G253" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="H253" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="I253" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J253" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K253" s="12"/>
-      <c r="L253" s="12">
-        <f>[Date Breed]+114</f>
-        <v>43239</v>
+      <c r="H253" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I253" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J253" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K253" s="8"/>
+      <c r="L253" s="8">
+        <f>[Date Breed]+114</f>
+        <v>43238</v>
       </c>
       <c r="M253" s="4"/>
       <c r="N253" s="4"/>
@@ -12103,10 +12250,10 @@
     </row>
     <row r="254" spans="1:17">
       <c r="A254" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>434</v>
+        <v>33</v>
       </c>
       <c r="C254" s="11" t="s">
         <v>19</v>
@@ -12117,7 +12264,7 @@
       </c>
       <c r="F254" s="10"/>
       <c r="G254" s="25" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H254" s="10" t="s">
         <v>452</v>
@@ -12141,21 +12288,21 @@
     </row>
     <row r="255" spans="1:17">
       <c r="A255" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D255" s="11"/>
       <c r="E255" s="12">
-        <v>43127</v>
+        <v>43125</v>
       </c>
       <c r="F255" s="10"/>
       <c r="G255" s="25" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H255" s="10" t="s">
         <v>452</v>
@@ -12169,7 +12316,7 @@
       <c r="K255" s="12"/>
       <c r="L255" s="12">
         <f>[Date Breed]+114</f>
-        <v>43241</v>
+        <v>43239</v>
       </c>
       <c r="M255" s="4"/>
       <c r="N255" s="4"/>
@@ -12179,10 +12326,10 @@
     </row>
     <row r="256" spans="1:17">
       <c r="A256" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>398</v>
+        <v>18</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>19</v>
@@ -12193,13 +12340,13 @@
       </c>
       <c r="F256" s="10"/>
       <c r="G256" s="25" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H256" s="10" t="s">
         <v>452</v>
       </c>
       <c r="I256" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J256" s="13" t="s">
         <v>36</v>
@@ -12217,35 +12364,35 @@
     </row>
     <row r="257" spans="1:18">
       <c r="A257" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D257" s="4"/>
-      <c r="E257" s="8">
-        <v>43129</v>
-      </c>
-      <c r="F257" s="5"/>
-      <c r="G257" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H257" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I257" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D257" s="11"/>
+      <c r="E257" s="12">
+        <v>43127</v>
+      </c>
+      <c r="F257" s="10"/>
+      <c r="G257" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H257" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I257" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J257" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K257" s="8"/>
-      <c r="L257" s="8">
-        <f>[Date Breed]+114</f>
-        <v>43243</v>
+      <c r="J257" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K257" s="12"/>
+      <c r="L257" s="12">
+        <f>[Date Breed]+114</f>
+        <v>43241</v>
       </c>
       <c r="M257" s="4"/>
       <c r="N257" s="4"/>
@@ -12255,10 +12402,10 @@
     </row>
     <row r="258" spans="1:18">
       <c r="A258" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>200</v>
+        <v>435</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>19</v>
@@ -12277,8 +12424,8 @@
       <c r="I258" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J258" s="15" t="s">
-        <v>22</v>
+      <c r="J258" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K258" s="8"/>
       <c r="L258" s="8">
@@ -12290,41 +12437,38 @@
       <c r="O258" s="4"/>
       <c r="P258" s="4"/>
       <c r="Q258" s="4"/>
-      <c r="R258" s="19" t="s">
-        <v>545</v>
-      </c>
     </row>
     <row r="259" spans="1:18">
       <c r="A259" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="8">
-        <v>43130</v>
+        <v>43129</v>
       </c>
       <c r="F259" s="5"/>
       <c r="G259" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J259" s="9" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="J259" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K259" s="8"/>
       <c r="L259" s="8">
         <f>[Date Breed]+114</f>
-        <v>43244</v>
+        <v>43243</v>
       </c>
       <c r="M259" s="4"/>
       <c r="N259" s="4"/>
@@ -12337,21 +12481,21 @@
     </row>
     <row r="260" spans="1:18">
       <c r="A260" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D260" s="4"/>
       <c r="E260" s="8">
-        <v>43131</v>
+        <v>43130</v>
       </c>
       <c r="F260" s="5"/>
       <c r="G260" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H260" s="5" t="s">
         <v>21</v>
@@ -12365,20 +12509,23 @@
       <c r="K260" s="8"/>
       <c r="L260" s="8">
         <f>[Date Breed]+114</f>
-        <v>43245</v>
+        <v>43244</v>
       </c>
       <c r="M260" s="4"/>
       <c r="N260" s="4"/>
       <c r="O260" s="4"/>
       <c r="P260" s="4"/>
       <c r="Q260" s="4"/>
+      <c r="R260" s="19" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="261" spans="1:18">
       <c r="A261" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>528</v>
+        <v>134</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>19</v>
@@ -12389,7 +12536,7 @@
       </c>
       <c r="F261" s="5"/>
       <c r="G261" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H261" s="5" t="s">
         <v>21</v>
@@ -12413,40 +12560,48 @@
     </row>
     <row r="262" spans="1:18">
       <c r="A262" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C262" t="s">
-        <v>19</v>
-      </c>
-      <c r="E262" s="2">
-        <v>43132</v>
-      </c>
-      <c r="G262" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H262" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I262" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J262" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L262" s="2">
-        <f>[Date Breed]+114</f>
-        <v>43246</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D262" s="4"/>
+      <c r="E262" s="8">
+        <v>43131</v>
+      </c>
+      <c r="F262" s="5"/>
+      <c r="G262" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J262" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K262" s="8"/>
+      <c r="L262" s="8">
+        <f>[Date Breed]+114</f>
+        <v>43245</v>
+      </c>
+      <c r="M262" s="4"/>
+      <c r="N262" s="4"/>
+      <c r="O262" s="4"/>
+      <c r="P262" s="4"/>
+      <c r="Q262" s="4"/>
     </row>
     <row r="263" spans="1:18">
       <c r="A263" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>343</v>
+        <v>121</v>
       </c>
       <c r="C263" t="s">
         <v>19</v>
@@ -12455,13 +12610,13 @@
         <v>43132</v>
       </c>
       <c r="G263" s="23" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J263" s="3" t="s">
         <v>36</v>
@@ -12470,19 +12625,20 @@
         <f>[Date Breed]+114</f>
         <v>43246</v>
       </c>
+      <c r="M263"/>
     </row>
     <row r="264" spans="1:18">
       <c r="A264" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C264" t="s">
         <v>19</v>
       </c>
       <c r="E264" s="2">
-        <v>43133</v>
+        <v>43132</v>
       </c>
       <c r="G264" s="23" t="s">
         <v>20</v>
@@ -12498,15 +12654,16 @@
       </c>
       <c r="L264" s="2">
         <f>[Date Breed]+114</f>
-        <v>43247</v>
-      </c>
+        <v>43246</v>
+      </c>
+      <c r="M264"/>
     </row>
     <row r="265" spans="1:18">
       <c r="A265" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>529</v>
+        <v>359</v>
       </c>
       <c r="C265" t="s">
         <v>19</v>
@@ -12521,7 +12678,7 @@
         <v>21</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J265" s="3" t="s">
         <v>36</v>
@@ -12530,19 +12687,20 @@
         <f>[Date Breed]+114</f>
         <v>43247</v>
       </c>
+      <c r="M265"/>
     </row>
     <row r="266" spans="1:18">
       <c r="A266" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C266" t="s">
         <v>19</v>
       </c>
       <c r="E266" s="2">
-        <v>43135</v>
+        <v>43133</v>
       </c>
       <c r="G266" s="23" t="s">
         <v>20</v>
@@ -12558,15 +12716,16 @@
       </c>
       <c r="L266" s="2">
         <f>[Date Breed]+114</f>
-        <v>43249</v>
-      </c>
+        <v>43247</v>
+      </c>
+      <c r="M266"/>
     </row>
     <row r="267" spans="1:18">
       <c r="A267" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C267" t="s">
         <v>19</v>
@@ -12590,49 +12749,51 @@
         <f>[Date Breed]+114</f>
         <v>43249</v>
       </c>
+      <c r="M267"/>
     </row>
     <row r="268" spans="1:18">
       <c r="A268" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C268" t="s">
         <v>19</v>
       </c>
       <c r="E268" s="2">
-        <v>43136</v>
+        <v>43135</v>
       </c>
       <c r="G268" s="23" t="s">
         <v>20</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J268" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L268" s="2">
         <f>[Date Breed]+114</f>
-        <v>43250</v>
-      </c>
+        <v>43249</v>
+      </c>
+      <c r="M268"/>
     </row>
     <row r="269" spans="1:18">
       <c r="A269" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C269" t="s">
         <v>19</v>
       </c>
       <c r="E269" s="2">
-        <v>43137</v>
+        <v>43136</v>
       </c>
       <c r="G269" s="23" t="s">
         <v>20</v>
@@ -12641,60 +12802,54 @@
         <v>173</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J269" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L269" s="2">
         <f>[Date Breed]+114</f>
-        <v>43251</v>
-      </c>
+        <v>43250</v>
+      </c>
+      <c r="M269"/>
     </row>
     <row r="270" spans="1:18">
       <c r="A270" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D270" s="4"/>
-      <c r="E270" s="8">
+        <v>460</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C270" t="s">
+        <v>19</v>
+      </c>
+      <c r="E270" s="2">
         <v>43137</v>
       </c>
-      <c r="F270" s="5"/>
-      <c r="G270" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H270" s="5" t="s">
+      <c r="G270" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H270" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I270" s="5" t="s">
+      <c r="I270" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J270" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K270" s="8"/>
-      <c r="L270" s="8">
+      <c r="J270" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L270" s="2">
         <f>[Date Breed]+114</f>
         <v>43251</v>
       </c>
-      <c r="M270" s="4"/>
-      <c r="N270" s="4"/>
-      <c r="O270" s="4"/>
-      <c r="P270" s="4"/>
-      <c r="Q270" s="4"/>
+      <c r="M270"/>
     </row>
     <row r="271" spans="1:18">
       <c r="A271" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>19</v>
@@ -12729,17 +12884,17 @@
     </row>
     <row r="272" spans="1:18">
       <c r="A272" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D272" s="4"/>
       <c r="E272" s="8">
-        <v>43138</v>
+        <v>43137</v>
       </c>
       <c r="F272" s="5"/>
       <c r="G272" s="24" t="s">
@@ -12757,7 +12912,7 @@
       <c r="K272" s="8"/>
       <c r="L272" s="8">
         <f>[Date Breed]+114</f>
-        <v>43252</v>
+        <v>43251</v>
       </c>
       <c r="M272" s="4"/>
       <c r="N272" s="4"/>
@@ -12767,24 +12922,24 @@
     </row>
     <row r="273" spans="1:18">
       <c r="A273" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D273" s="4"/>
       <c r="E273" s="8">
-        <v>43139</v>
+        <v>43138</v>
       </c>
       <c r="F273" s="5"/>
       <c r="G273" s="24" t="s">
         <v>93</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I273" s="5" t="s">
         <v>60</v>
@@ -12795,7 +12950,7 @@
       <c r="K273" s="8"/>
       <c r="L273" s="8">
         <f>[Date Breed]+114</f>
-        <v>43253</v>
+        <v>43252</v>
       </c>
       <c r="M273" s="4"/>
       <c r="N273" s="4"/>
@@ -12805,27 +12960,27 @@
     </row>
     <row r="274" spans="1:18">
       <c r="A274" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>450</v>
+        <v>132</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D274" s="4"/>
       <c r="E274" s="8">
-        <v>43141</v>
+        <v>43139</v>
       </c>
       <c r="F274" s="5"/>
       <c r="G274" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H274" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J274" s="9" t="s">
         <v>36</v>
@@ -12833,7 +12988,7 @@
       <c r="K274" s="8"/>
       <c r="L274" s="8">
         <f>[Date Breed]+114</f>
-        <v>43255</v>
+        <v>43253</v>
       </c>
       <c r="M274" s="4"/>
       <c r="N274" s="4"/>
@@ -12843,10 +12998,10 @@
     </row>
     <row r="275" spans="1:18">
       <c r="A275" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>534</v>
+        <v>450</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>19</v>
@@ -12863,7 +13018,7 @@
         <v>21</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J275" s="9" t="s">
         <v>36</v>
@@ -12881,17 +13036,17 @@
     </row>
     <row r="276" spans="1:18">
       <c r="A276" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D276" s="4"/>
       <c r="E276" s="8">
-        <v>43143</v>
+        <v>43141</v>
       </c>
       <c r="F276" s="5"/>
       <c r="G276" s="24" t="s">
@@ -12909,7 +13064,7 @@
       <c r="K276" s="8"/>
       <c r="L276" s="8">
         <f>[Date Breed]+114</f>
-        <v>43257</v>
+        <v>43255</v>
       </c>
       <c r="M276" s="4"/>
       <c r="N276" s="4"/>
@@ -12919,10 +13074,10 @@
     </row>
     <row r="277" spans="1:18">
       <c r="A277" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>19</v>
@@ -12956,36 +13111,36 @@
       <c r="Q277" s="4"/>
     </row>
     <row r="278" spans="1:18">
-      <c r="A278" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B278" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C278" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D278" s="11"/>
-      <c r="E278" s="12">
-        <v>43144</v>
-      </c>
-      <c r="F278" s="10"/>
-      <c r="G278" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H278" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="I278" s="10" t="s">
+      <c r="A278" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="4"/>
+      <c r="E278" s="8">
+        <v>43143</v>
+      </c>
+      <c r="F278" s="5"/>
+      <c r="G278" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I278" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J278" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K278" s="12"/>
-      <c r="L278" s="12">
-        <f>[Date Breed]+114</f>
-        <v>43258</v>
+      <c r="J278" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K278" s="8"/>
+      <c r="L278" s="8">
+        <f>[Date Breed]+114</f>
+        <v>43257</v>
       </c>
       <c r="M278" s="4"/>
       <c r="N278" s="4"/>
@@ -12995,10 +13150,10 @@
     </row>
     <row r="279" spans="1:18">
       <c r="A279" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>549</v>
+        <v>152</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>19</v>
@@ -13009,13 +13164,13 @@
       </c>
       <c r="F279" s="10"/>
       <c r="G279" s="25" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H279" s="10" t="s">
         <v>452</v>
       </c>
       <c r="I279" s="10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J279" s="13" t="s">
         <v>36</v>
@@ -13033,17 +13188,17 @@
     </row>
     <row r="280" spans="1:18">
       <c r="A280" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D280" s="11"/>
       <c r="E280" s="12">
-        <v>43146</v>
+        <v>43144</v>
       </c>
       <c r="F280" s="10"/>
       <c r="G280" s="25" t="s">
@@ -13053,7 +13208,7 @@
         <v>452</v>
       </c>
       <c r="I280" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J280" s="13" t="s">
         <v>36</v>
@@ -13061,7 +13216,7 @@
       <c r="K280" s="12"/>
       <c r="L280" s="12">
         <f>[Date Breed]+114</f>
-        <v>43260</v>
+        <v>43258</v>
       </c>
       <c r="M280" s="4"/>
       <c r="N280" s="4"/>
@@ -13071,27 +13226,27 @@
     </row>
     <row r="281" spans="1:18">
       <c r="A281" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D281" s="11"/>
       <c r="E281" s="12">
-        <v>43147</v>
+        <v>43146</v>
       </c>
       <c r="F281" s="10"/>
       <c r="G281" s="25" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H281" s="10" t="s">
         <v>452</v>
       </c>
       <c r="I281" s="10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J281" s="13" t="s">
         <v>36</v>
@@ -13099,7 +13254,7 @@
       <c r="K281" s="12"/>
       <c r="L281" s="12">
         <f>[Date Breed]+114</f>
-        <v>43261</v>
+        <v>43260</v>
       </c>
       <c r="M281" s="4"/>
       <c r="N281" s="4"/>
@@ -13108,34 +13263,34 @@
       <c r="Q281" s="4"/>
     </row>
     <row r="282" spans="1:18">
-      <c r="A282" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D282" s="4"/>
-      <c r="E282" s="8">
+      <c r="A282" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="11"/>
+      <c r="E282" s="12">
         <v>43147</v>
       </c>
-      <c r="F282" s="5"/>
-      <c r="G282" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H282" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I282" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J282" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K282" s="8"/>
-      <c r="L282" s="8">
+      <c r="F282" s="10"/>
+      <c r="G282" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H282" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I282" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J282" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K282" s="12"/>
+      <c r="L282" s="12">
         <f>[Date Breed]+114</f>
         <v>43261</v>
       </c>
@@ -13147,10 +13302,10 @@
     </row>
     <row r="283" spans="1:18">
       <c r="A283" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>96</v>
+        <v>345</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>19</v>
@@ -13161,16 +13316,16 @@
       </c>
       <c r="F283" s="5"/>
       <c r="G283" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H283" s="5" t="s">
         <v>173</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J283" s="9" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="J283" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="K283" s="8"/>
       <c r="L283" s="8">
@@ -13185,10 +13340,10 @@
     </row>
     <row r="284" spans="1:18">
       <c r="A284" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>551</v>
+        <v>96</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>19</v>
@@ -13199,7 +13354,7 @@
       </c>
       <c r="F284" s="5"/>
       <c r="G284" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H284" s="5" t="s">
         <v>173</v>
@@ -13207,8 +13362,8 @@
       <c r="I284" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J284" s="15" t="s">
-        <v>22</v>
+      <c r="J284" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K284" s="8"/>
       <c r="L284" s="8">
@@ -13220,77 +13375,77 @@
       <c r="O284" s="4"/>
       <c r="P284" s="4"/>
       <c r="Q284" s="4"/>
-      <c r="R284" s="19" t="s">
-        <v>546</v>
-      </c>
     </row>
     <row r="285" spans="1:18">
-      <c r="A285" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B285" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C285" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D285" s="11"/>
-      <c r="E285" s="12">
-        <v>43148</v>
-      </c>
-      <c r="F285" s="10"/>
-      <c r="G285" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H285" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="I285" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J285" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K285" s="12"/>
-      <c r="L285" s="12">
-        <f>[Date Breed]+114</f>
-        <v>43262</v>
+      <c r="A285" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D285" s="4"/>
+      <c r="E285" s="8">
+        <v>43147</v>
+      </c>
+      <c r="F285" s="5"/>
+      <c r="G285" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H285" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I285" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J285" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K285" s="8"/>
+      <c r="L285" s="8">
+        <f>[Date Breed]+114</f>
+        <v>43261</v>
       </c>
       <c r="M285" s="4"/>
       <c r="N285" s="4"/>
       <c r="O285" s="4"/>
       <c r="P285" s="4"/>
       <c r="Q285" s="4"/>
+      <c r="R285" s="19" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="286" spans="1:18">
-      <c r="A286" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D286" s="4"/>
-      <c r="E286" s="8">
+      <c r="A286" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D286" s="11"/>
+      <c r="E286" s="12">
         <v>43148</v>
       </c>
-      <c r="F286" s="5"/>
-      <c r="G286" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H286" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I286" s="5" t="s">
+      <c r="F286" s="10"/>
+      <c r="G286" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H286" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I286" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J286" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K286" s="8"/>
-      <c r="L286" s="8">
+      <c r="J286" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K286" s="12"/>
+      <c r="L286" s="12">
         <f>[Date Breed]+114</f>
         <v>43262</v>
       </c>
@@ -13302,21 +13457,21 @@
     </row>
     <row r="287" spans="1:18">
       <c r="A287" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>68</v>
+        <v>400</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D287" s="4"/>
       <c r="E287" s="8">
-        <v>43149</v>
+        <v>43148</v>
       </c>
       <c r="F287" s="5"/>
       <c r="G287" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H287" s="5" t="s">
         <v>173</v>
@@ -13330,7 +13485,7 @@
       <c r="K287" s="8"/>
       <c r="L287" s="8">
         <f>[Date Breed]+114</f>
-        <v>43263</v>
+        <v>43262</v>
       </c>
       <c r="M287" s="4"/>
       <c r="N287" s="4"/>
@@ -13340,27 +13495,27 @@
     </row>
     <row r="288" spans="1:18">
       <c r="A288" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>554</v>
+        <v>68</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D288" s="4"/>
       <c r="E288" s="8">
-        <v>43150</v>
+        <v>43149</v>
       </c>
       <c r="F288" s="5"/>
       <c r="G288" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H288" s="5" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J288" s="9" t="s">
         <v>36</v>
@@ -13368,7 +13523,7 @@
       <c r="K288" s="8"/>
       <c r="L288" s="8">
         <f>[Date Breed]+114</f>
-        <v>43264</v>
+        <v>43263</v>
       </c>
       <c r="M288" s="4"/>
       <c r="N288" s="4"/>
@@ -13378,10 +13533,10 @@
     </row>
     <row r="289" spans="1:17">
       <c r="A289" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>170</v>
+        <v>554</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>19</v>
@@ -13392,13 +13547,13 @@
       </c>
       <c r="F289" s="5"/>
       <c r="G289" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H289" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I289" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J289" s="9" t="s">
         <v>36</v>
@@ -13416,10 +13571,10 @@
     </row>
     <row r="290" spans="1:17">
       <c r="A290" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>19</v>
@@ -13454,10 +13609,10 @@
     </row>
     <row r="291" spans="1:17">
       <c r="A291" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>552</v>
+        <v>164</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>19</v>
@@ -13468,7 +13623,7 @@
       </c>
       <c r="F291" s="5"/>
       <c r="G291" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H291" s="5" t="s">
         <v>21</v>
@@ -13492,17 +13647,17 @@
     </row>
     <row r="292" spans="1:17">
       <c r="A292" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D292" s="4"/>
       <c r="E292" s="8">
-        <v>43151</v>
+        <v>43150</v>
       </c>
       <c r="F292" s="5"/>
       <c r="G292" s="24" t="s">
@@ -13514,11 +13669,13 @@
       <c r="I292" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J292" s="9"/>
+      <c r="J292" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K292" s="8"/>
       <c r="L292" s="8">
         <f>[Date Breed]+114</f>
-        <v>43265</v>
+        <v>43264</v>
       </c>
       <c r="M292" s="4"/>
       <c r="N292" s="4"/>
@@ -13528,33 +13685,35 @@
     </row>
     <row r="293" spans="1:17">
       <c r="A293" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D293" s="4"/>
       <c r="E293" s="8">
-        <v>43154</v>
+        <v>43151</v>
       </c>
       <c r="F293" s="5"/>
       <c r="G293" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>556</v>
+        <v>21</v>
       </c>
       <c r="I293" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J293" s="9"/>
+      <c r="J293" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K293" s="8"/>
       <c r="L293" s="8">
         <f>[Date Breed]+114</f>
-        <v>43268</v>
+        <v>43265</v>
       </c>
       <c r="M293" s="4"/>
       <c r="N293" s="4"/>
@@ -13564,10 +13723,10 @@
     </row>
     <row r="294" spans="1:17">
       <c r="A294" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>19</v>
@@ -13586,7 +13745,9 @@
       <c r="I294" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J294" s="9"/>
+      <c r="J294" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K294" s="8"/>
       <c r="L294" s="8">
         <f>[Date Breed]+114</f>
@@ -13600,33 +13761,35 @@
     </row>
     <row r="295" spans="1:17">
       <c r="A295" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>89</v>
+        <v>397</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="8">
-        <v>43155</v>
+        <v>43154</v>
       </c>
       <c r="F295" s="5"/>
       <c r="G295" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>173</v>
+        <v>556</v>
       </c>
       <c r="I295" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J295" s="9"/>
+      <c r="J295" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K295" s="8"/>
       <c r="L295" s="8">
         <f>[Date Breed]+114</f>
-        <v>43269</v>
+        <v>43268</v>
       </c>
       <c r="M295" s="4"/>
       <c r="N295" s="4"/>
@@ -13636,17 +13799,17 @@
     </row>
     <row r="296" spans="1:17">
       <c r="A296" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D296" s="4"/>
       <c r="E296" s="8">
-        <v>43157</v>
+        <v>43155</v>
       </c>
       <c r="F296" s="5"/>
       <c r="G296" s="24" t="s">
@@ -13656,13 +13819,15 @@
         <v>173</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J296" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="J296" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K296" s="8"/>
       <c r="L296" s="8">
         <f>[Date Breed]+114</f>
-        <v>43271</v>
+        <v>43269</v>
       </c>
       <c r="M296" s="4"/>
       <c r="N296" s="4"/>
@@ -13672,10 +13837,10 @@
     </row>
     <row r="297" spans="1:17">
       <c r="A297" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>19</v>
@@ -13688,11 +13853,11 @@
       <c r="G297" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="H297" s="1" t="s">
-        <v>341</v>
+      <c r="H297" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J297" s="9"/>
       <c r="K297" s="8"/>
@@ -13708,24 +13873,24 @@
     </row>
     <row r="298" spans="1:17">
       <c r="A298" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D298" s="4"/>
       <c r="E298" s="8">
-        <v>43158</v>
+        <v>43157</v>
       </c>
       <c r="F298" s="5"/>
       <c r="G298" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="H298" s="5" t="s">
-        <v>21</v>
+      <c r="H298" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="I298" s="5" t="s">
         <v>60</v>
@@ -13734,7 +13899,7 @@
       <c r="K298" s="8"/>
       <c r="L298" s="8">
         <f>[Date Breed]+114</f>
-        <v>43272</v>
+        <v>43271</v>
       </c>
       <c r="M298" s="4"/>
       <c r="N298" s="4"/>
@@ -13744,10 +13909,10 @@
     </row>
     <row r="299" spans="1:17">
       <c r="A299" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>557</v>
+        <v>193</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>19</v>
@@ -13758,7 +13923,7 @@
       </c>
       <c r="F299" s="5"/>
       <c r="G299" s="24" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H299" s="5" t="s">
         <v>21</v>
@@ -13780,33 +13945,33 @@
     </row>
     <row r="300" spans="1:17">
       <c r="A300" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>87</v>
+        <v>557</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D300" s="4"/>
       <c r="E300" s="8">
-        <v>43159</v>
+        <v>43158</v>
       </c>
       <c r="F300" s="5"/>
       <c r="G300" s="24" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H300" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J300" s="9"/>
       <c r="K300" s="8"/>
       <c r="L300" s="8">
         <f>[Date Breed]+114</f>
-        <v>43273</v>
+        <v>43272</v>
       </c>
       <c r="M300" s="4"/>
       <c r="N300" s="4"/>
@@ -13816,17 +13981,17 @@
     </row>
     <row r="301" spans="1:17">
       <c r="A301" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D301" s="4"/>
       <c r="E301" s="8">
-        <v>43161</v>
+        <v>43159</v>
       </c>
       <c r="F301" s="5"/>
       <c r="G301" s="24" t="s">
@@ -13842,7 +14007,7 @@
       <c r="K301" s="8"/>
       <c r="L301" s="8">
         <f>[Date Breed]+114</f>
-        <v>43275</v>
+        <v>43273</v>
       </c>
       <c r="M301" s="4"/>
       <c r="N301" s="4"/>
@@ -13851,34 +14016,34 @@
       <c r="Q301" s="4"/>
     </row>
     <row r="302" spans="1:17">
-      <c r="A302" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B302" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C302" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D302" s="11"/>
-      <c r="E302" s="12">
-        <v>43162</v>
-      </c>
-      <c r="F302" s="10"/>
-      <c r="G302" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H302" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="I302" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J302" s="13"/>
-      <c r="K302" s="12"/>
-      <c r="L302" s="12">
-        <f>[Date Breed]+114</f>
-        <v>43276</v>
+      <c r="A302" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D302" s="4"/>
+      <c r="E302" s="8">
+        <v>43161</v>
+      </c>
+      <c r="F302" s="5"/>
+      <c r="G302" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H302" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I302" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J302" s="9"/>
+      <c r="K302" s="8"/>
+      <c r="L302" s="8">
+        <f>[Date Breed]+114</f>
+        <v>43275</v>
       </c>
       <c r="M302" s="4"/>
       <c r="N302" s="4"/>
@@ -13888,21 +14053,21 @@
     </row>
     <row r="303" spans="1:17">
       <c r="A303" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>66</v>
+        <v>558</v>
       </c>
       <c r="C303" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D303" s="11"/>
       <c r="E303" s="12">
-        <v>43163</v>
+        <v>43162</v>
       </c>
       <c r="F303" s="10"/>
       <c r="G303" s="25" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H303" s="10" t="s">
         <v>452</v>
@@ -13914,7 +14079,7 @@
       <c r="K303" s="12"/>
       <c r="L303" s="12">
         <f>[Date Breed]+114</f>
-        <v>43277</v>
+        <v>43276</v>
       </c>
       <c r="M303" s="4"/>
       <c r="N303" s="4"/>
@@ -13924,10 +14089,10 @@
     </row>
     <row r="304" spans="1:17">
       <c r="A304" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="C304" s="11" t="s">
         <v>19</v>
@@ -13960,10 +14125,10 @@
     </row>
     <row r="305" spans="1:17">
       <c r="A305" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>559</v>
+        <v>162</v>
       </c>
       <c r="C305" s="11" t="s">
         <v>19</v>
@@ -13974,7 +14139,7 @@
       </c>
       <c r="F305" s="10"/>
       <c r="G305" s="25" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H305" s="10" t="s">
         <v>452</v>
@@ -13995,34 +14160,34 @@
       <c r="Q305" s="4"/>
     </row>
     <row r="306" spans="1:17">
-      <c r="A306" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D306" s="4"/>
-      <c r="E306" s="8">
-        <v>43164</v>
-      </c>
-      <c r="F306" s="5"/>
-      <c r="G306" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H306" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I306" s="5" t="s">
+      <c r="A306" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C306" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D306" s="11"/>
+      <c r="E306" s="12">
+        <v>43163</v>
+      </c>
+      <c r="F306" s="10"/>
+      <c r="G306" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H306" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I306" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J306" s="9"/>
-      <c r="K306" s="8"/>
-      <c r="L306" s="8">
-        <f>[Date Breed]+114</f>
-        <v>43278</v>
+      <c r="J306" s="13"/>
+      <c r="K306" s="12"/>
+      <c r="L306" s="12">
+        <f>[Date Breed]+114</f>
+        <v>43277</v>
       </c>
       <c r="M306" s="4"/>
       <c r="N306" s="4"/>
@@ -14032,17 +14197,17 @@
     </row>
     <row r="307" spans="1:17">
       <c r="A307" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D307" s="4"/>
       <c r="E307" s="8">
-        <v>43165</v>
+        <v>43164</v>
       </c>
       <c r="F307" s="5"/>
       <c r="G307" s="24" t="s">
@@ -14052,13 +14217,13 @@
         <v>173</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J307" s="9"/>
       <c r="K307" s="8"/>
       <c r="L307" s="8">
         <f>[Date Breed]+114</f>
-        <v>43279</v>
+        <v>43278</v>
       </c>
       <c r="M307" s="4"/>
       <c r="N307" s="4"/>
@@ -14068,10 +14233,10 @@
     </row>
     <row r="308" spans="1:17">
       <c r="A308" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>19</v>
@@ -14104,10 +14269,10 @@
     </row>
     <row r="309" spans="1:17">
       <c r="A309" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>19</v>
@@ -14140,17 +14305,17 @@
     </row>
     <row r="310" spans="1:17">
       <c r="A310" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D310" s="4"/>
       <c r="E310" s="8">
-        <v>43166</v>
+        <v>43165</v>
       </c>
       <c r="F310" s="5"/>
       <c r="G310" s="24" t="s">
@@ -14166,7 +14331,7 @@
       <c r="K310" s="8"/>
       <c r="L310" s="8">
         <f>[Date Breed]+114</f>
-        <v>43280</v>
+        <v>43279</v>
       </c>
       <c r="M310" s="4"/>
       <c r="N310" s="4"/>
@@ -14176,24 +14341,24 @@
     </row>
     <row r="311" spans="1:17">
       <c r="A311" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D311" s="4"/>
       <c r="E311" s="8">
-        <v>43167</v>
+        <v>43166</v>
       </c>
       <c r="F311" s="5"/>
       <c r="G311" s="24" t="s">
         <v>93</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I311" s="5" t="s">
         <v>56</v>
@@ -14202,7 +14367,7 @@
       <c r="K311" s="8"/>
       <c r="L311" s="8">
         <f>[Date Breed]+114</f>
-        <v>43281</v>
+        <v>43280</v>
       </c>
       <c r="M311" s="4"/>
       <c r="N311" s="4"/>
@@ -14212,21 +14377,33 @@
     </row>
     <row r="312" spans="1:17">
       <c r="A312" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="B312" s="5"/>
-      <c r="C312" s="4"/>
+        <v>502</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D312" s="4"/>
-      <c r="E312" s="8"/>
+      <c r="E312" s="8">
+        <v>43167</v>
+      </c>
       <c r="F312" s="5"/>
-      <c r="G312" s="24"/>
-      <c r="H312" s="5"/>
-      <c r="I312" s="5"/>
+      <c r="G312" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H312" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I312" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J312" s="9"/>
       <c r="K312" s="8"/>
       <c r="L312" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43281</v>
       </c>
       <c r="M312" s="4"/>
       <c r="N312" s="4"/>
@@ -14236,21 +14413,33 @@
     </row>
     <row r="313" spans="1:17">
       <c r="A313" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="B313" s="5"/>
-      <c r="C313" s="4"/>
+        <v>503</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D313" s="4"/>
-      <c r="E313" s="8"/>
+      <c r="E313" s="8">
+        <v>43170</v>
+      </c>
       <c r="F313" s="5"/>
-      <c r="G313" s="24"/>
-      <c r="H313" s="5"/>
-      <c r="I313" s="5"/>
+      <c r="G313" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H313" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I313" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J313" s="9"/>
       <c r="K313" s="8"/>
       <c r="L313" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43284</v>
       </c>
       <c r="M313" s="4"/>
       <c r="N313" s="4"/>
@@ -14260,21 +14449,33 @@
     </row>
     <row r="314" spans="1:17">
       <c r="A314" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="B314" s="5"/>
-      <c r="C314" s="4"/>
+        <v>504</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D314" s="4"/>
-      <c r="E314" s="8"/>
+      <c r="E314" s="8">
+        <v>43170</v>
+      </c>
       <c r="F314" s="5"/>
-      <c r="G314" s="24"/>
-      <c r="H314" s="5"/>
-      <c r="I314" s="5"/>
+      <c r="G314" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I314" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J314" s="9"/>
       <c r="K314" s="8"/>
       <c r="L314" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43284</v>
       </c>
       <c r="M314" s="4"/>
       <c r="N314" s="4"/>
@@ -14284,21 +14485,33 @@
     </row>
     <row r="315" spans="1:17">
       <c r="A315" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="B315" s="5"/>
-      <c r="C315" s="4"/>
+        <v>505</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D315" s="4"/>
-      <c r="E315" s="8"/>
+      <c r="E315" s="8">
+        <v>43172</v>
+      </c>
       <c r="F315" s="5"/>
-      <c r="G315" s="24"/>
-      <c r="H315" s="5"/>
-      <c r="I315" s="5"/>
+      <c r="G315" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H315" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I315" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J315" s="9"/>
       <c r="K315" s="8"/>
       <c r="L315" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43286</v>
       </c>
       <c r="M315" s="4"/>
       <c r="N315" s="4"/>
@@ -14308,21 +14521,33 @@
     </row>
     <row r="316" spans="1:17">
       <c r="A316" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B316" s="5"/>
-      <c r="C316" s="4"/>
+        <v>506</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D316" s="4"/>
-      <c r="E316" s="8"/>
+      <c r="E316" s="8">
+        <v>43173</v>
+      </c>
       <c r="F316" s="5"/>
-      <c r="G316" s="24"/>
-      <c r="H316" s="5"/>
-      <c r="I316" s="5"/>
+      <c r="G316" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H316" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I316" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J316" s="9"/>
       <c r="K316" s="8"/>
       <c r="L316" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43287</v>
       </c>
       <c r="M316" s="4"/>
       <c r="N316" s="4"/>
@@ -14332,21 +14557,33 @@
     </row>
     <row r="317" spans="1:17">
       <c r="A317" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="B317" s="5"/>
-      <c r="C317" s="4"/>
+        <v>507</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D317" s="4"/>
-      <c r="E317" s="8"/>
+      <c r="E317" s="8">
+        <v>43538</v>
+      </c>
       <c r="F317" s="5"/>
-      <c r="G317" s="24"/>
-      <c r="H317" s="5"/>
-      <c r="I317" s="5"/>
+      <c r="G317" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H317" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I317" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J317" s="9"/>
       <c r="K317" s="8"/>
       <c r="L317" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43652</v>
       </c>
       <c r="M317" s="4"/>
       <c r="N317" s="4"/>
@@ -14355,22 +14592,34 @@
       <c r="Q317" s="4"/>
     </row>
     <row r="318" spans="1:17">
-      <c r="A318" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B318" s="5"/>
-      <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
-      <c r="E318" s="8"/>
-      <c r="F318" s="5"/>
-      <c r="G318" s="24"/>
-      <c r="H318" s="5"/>
-      <c r="I318" s="5"/>
-      <c r="J318" s="9"/>
-      <c r="K318" s="8"/>
-      <c r="L318" s="8">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
+      <c r="A318" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B318" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C318" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D318" s="11"/>
+      <c r="E318" s="12">
+        <v>43173</v>
+      </c>
+      <c r="F318" s="10"/>
+      <c r="G318" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H318" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I318" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J318" s="13"/>
+      <c r="K318" s="12"/>
+      <c r="L318" s="12">
+        <f>[Date Breed]+114</f>
+        <v>43287</v>
       </c>
       <c r="M318" s="4"/>
       <c r="N318" s="4"/>
@@ -14380,21 +14629,33 @@
     </row>
     <row r="319" spans="1:17">
       <c r="A319" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="B319" s="5"/>
-      <c r="C319" s="4"/>
+        <v>509</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D319" s="4"/>
-      <c r="E319" s="8"/>
+      <c r="E319" s="8">
+        <v>43173</v>
+      </c>
       <c r="F319" s="5"/>
-      <c r="G319" s="24"/>
-      <c r="H319" s="5"/>
-      <c r="I319" s="5"/>
+      <c r="G319" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H319" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I319" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J319" s="9"/>
       <c r="K319" s="8"/>
       <c r="L319" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43287</v>
       </c>
       <c r="M319" s="4"/>
       <c r="N319" s="4"/>
@@ -14403,22 +14664,34 @@
       <c r="Q319" s="4"/>
     </row>
     <row r="320" spans="1:17">
-      <c r="A320" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B320" s="5"/>
-      <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
-      <c r="E320" s="8"/>
-      <c r="F320" s="5"/>
-      <c r="G320" s="24"/>
-      <c r="H320" s="5"/>
-      <c r="I320" s="5"/>
-      <c r="J320" s="9"/>
-      <c r="K320" s="8"/>
-      <c r="L320" s="8">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
+      <c r="A320" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C320" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D320" s="11"/>
+      <c r="E320" s="12">
+        <v>43173</v>
+      </c>
+      <c r="F320" s="10"/>
+      <c r="G320" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H320" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I320" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J320" s="13"/>
+      <c r="K320" s="12"/>
+      <c r="L320" s="12">
+        <f>[Date Breed]+114</f>
+        <v>43287</v>
       </c>
       <c r="M320" s="4"/>
       <c r="N320" s="4"/>
@@ -14428,7 +14701,7 @@
     </row>
     <row r="321" spans="1:17">
       <c r="A321" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B321" s="5"/>
       <c r="C321" s="4"/>
@@ -14452,7 +14725,7 @@
     </row>
     <row r="322" spans="1:17">
       <c r="A322" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B322" s="5"/>
       <c r="C322" s="4"/>
@@ -14476,7 +14749,7 @@
     </row>
     <row r="323" spans="1:17">
       <c r="A323" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B323" s="5"/>
       <c r="C323" s="4"/>
@@ -14500,7 +14773,7 @@
     </row>
     <row r="324" spans="1:17">
       <c r="A324" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B324" s="5"/>
       <c r="C324" s="4"/>
@@ -14524,7 +14797,7 @@
     </row>
     <row r="325" spans="1:17">
       <c r="A325" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B325" s="5"/>
       <c r="C325" s="4"/>
@@ -14548,7 +14821,7 @@
     </row>
     <row r="326" spans="1:17">
       <c r="A326" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B326" s="5"/>
       <c r="C326" s="4"/>
@@ -14572,7 +14845,7 @@
     </row>
     <row r="327" spans="1:17">
       <c r="A327" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B327" s="5"/>
       <c r="C327" s="4"/>
@@ -14596,7 +14869,7 @@
     </row>
     <row r="328" spans="1:17">
       <c r="A328" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B328" s="5"/>
       <c r="C328" s="4"/>
@@ -14620,7 +14893,7 @@
     </row>
     <row r="329" spans="1:17">
       <c r="A329" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B329" s="5"/>
       <c r="C329" s="4"/>
@@ -14644,7 +14917,7 @@
     </row>
     <row r="330" spans="1:17">
       <c r="A330" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B330" s="5"/>
       <c r="C330" s="4"/>
@@ -14668,7 +14941,7 @@
     </row>
     <row r="331" spans="1:17">
       <c r="A331" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B331" s="5"/>
       <c r="C331" s="4"/>
@@ -14692,7 +14965,7 @@
     </row>
     <row r="332" spans="1:17">
       <c r="A332" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B332" s="5"/>
       <c r="C332" s="4"/>
@@ -14716,7 +14989,7 @@
     </row>
     <row r="333" spans="1:17">
       <c r="A333" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B333" s="5"/>
       <c r="C333" s="4"/>
@@ -14740,7 +15013,7 @@
     </row>
     <row r="334" spans="1:17">
       <c r="A334" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B334" s="5"/>
       <c r="C334" s="4"/>
@@ -14764,7 +15037,7 @@
     </row>
     <row r="335" spans="1:17">
       <c r="A335" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B335" s="5"/>
       <c r="C335" s="4"/>
@@ -14788,7 +15061,7 @@
     </row>
     <row r="336" spans="1:17">
       <c r="A336" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B336" s="5"/>
       <c r="C336" s="4"/>
@@ -14809,6 +15082,186 @@
       <c r="O336" s="4"/>
       <c r="P336" s="4"/>
       <c r="Q336" s="4"/>
+    </row>
+    <row r="337" spans="1:17">
+      <c r="A337" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B337" s="5"/>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="8"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="24"/>
+      <c r="H337" s="5"/>
+      <c r="I337" s="5"/>
+      <c r="J337" s="9"/>
+      <c r="K337" s="8"/>
+      <c r="L337" s="8">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M337" s="4"/>
+      <c r="N337" s="4"/>
+      <c r="O337" s="4"/>
+      <c r="P337" s="4"/>
+      <c r="Q337" s="4"/>
+    </row>
+    <row r="338" spans="1:17">
+      <c r="L338" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M338"/>
+    </row>
+    <row r="339" spans="1:17">
+      <c r="L339" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M339"/>
+    </row>
+    <row r="340" spans="1:17">
+      <c r="L340" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M340"/>
+    </row>
+    <row r="341" spans="1:17">
+      <c r="L341" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M341"/>
+    </row>
+    <row r="342" spans="1:17">
+      <c r="L342" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M342"/>
+    </row>
+    <row r="343" spans="1:17">
+      <c r="L343" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M343"/>
+    </row>
+    <row r="344" spans="1:17">
+      <c r="L344" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M344"/>
+    </row>
+    <row r="345" spans="1:17">
+      <c r="L345" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M345"/>
+    </row>
+    <row r="346" spans="1:17">
+      <c r="L346" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M346"/>
+    </row>
+    <row r="347" spans="1:17">
+      <c r="L347" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M347"/>
+    </row>
+    <row r="348" spans="1:17">
+      <c r="L348" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M348"/>
+    </row>
+    <row r="349" spans="1:17">
+      <c r="L349" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M349"/>
+    </row>
+    <row r="350" spans="1:17">
+      <c r="L350" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M350"/>
+    </row>
+    <row r="351" spans="1:17">
+      <c r="L351" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M351"/>
+    </row>
+    <row r="352" spans="1:17">
+      <c r="L352" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M352"/>
+    </row>
+    <row r="353" spans="1:18">
+      <c r="L353" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M353"/>
+    </row>
+    <row r="354" spans="1:18">
+      <c r="L354" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M354"/>
+    </row>
+    <row r="355" spans="1:18">
+      <c r="L355" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M355"/>
+    </row>
+    <row r="356" spans="1:18">
+      <c r="L356" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M356"/>
+    </row>
+    <row r="357" spans="1:18">
+      <c r="A357" s="4"/>
+      <c r="B357" s="5"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+      <c r="E357" s="8"/>
+      <c r="F357" s="5"/>
+      <c r="G357" s="5"/>
+      <c r="H357" s="5"/>
+      <c r="I357" s="5"/>
+      <c r="J357" s="9"/>
+      <c r="K357" s="8"/>
+      <c r="L357" s="8">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M357" s="4"/>
+      <c r="N357" s="4"/>
+      <c r="O357" s="4"/>
+      <c r="P357" s="4"/>
+      <c r="Q357" s="4"/>
+      <c r="R357" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Breeding.xlsx
+++ b/Breeding.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="586">
   <si>
     <t>Ref. No</t>
   </si>
@@ -1640,9 +1640,6 @@
     <t>REJECT</t>
   </si>
   <si>
-    <t>FOURCE DRY</t>
-  </si>
-  <si>
     <t>BAD</t>
   </si>
   <si>
@@ -1701,6 +1698,81 @@
   </si>
   <si>
     <t>Past candidate for reject</t>
+  </si>
+  <si>
+    <t>09381</t>
+  </si>
+  <si>
+    <t>09401</t>
+  </si>
+  <si>
+    <t>09402</t>
+  </si>
+  <si>
+    <t>A321</t>
+  </si>
+  <si>
+    <t>A322</t>
+  </si>
+  <si>
+    <t>A323</t>
+  </si>
+  <si>
+    <t>A324</t>
+  </si>
+  <si>
+    <t>A325</t>
+  </si>
+  <si>
+    <t>A326</t>
+  </si>
+  <si>
+    <t>A327</t>
+  </si>
+  <si>
+    <t>A328</t>
+  </si>
+  <si>
+    <t>A329</t>
+  </si>
+  <si>
+    <t>A330</t>
+  </si>
+  <si>
+    <t>A331</t>
+  </si>
+  <si>
+    <t>A332</t>
+  </si>
+  <si>
+    <t>A333</t>
+  </si>
+  <si>
+    <t>A334</t>
+  </si>
+  <si>
+    <t>A335</t>
+  </si>
+  <si>
+    <t>A336</t>
+  </si>
+  <si>
+    <t>A337</t>
+  </si>
+  <si>
+    <t>A338</t>
+  </si>
+  <si>
+    <t>A339</t>
+  </si>
+  <si>
+    <t>A340</t>
+  </si>
+  <si>
+    <t>BELOW AVERAGE FOURCE DRY</t>
+  </si>
+  <si>
+    <t>FOURCE DRY FOURCE DRY</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1804,6 +1876,12 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2306,7 +2384,7 @@
   <dimension ref="A1:R357"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2323,11 +2401,12 @@
     <col min="10" max="10" width="20.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
     <col min="14" max="14" width="22.5703125" customWidth="1"/>
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -2367,7 +2446,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -2383,7 +2462,7 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
@@ -2405,8 +2484,8 @@
       <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1">
-        <v>4</v>
+      <c r="I2" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>22</v>
@@ -2418,7 +2497,6 @@
         <f>[Date Breed]+114</f>
         <v>43040</v>
       </c>
-      <c r="M2"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
       <c r="A3" t="s">
@@ -2439,8 +2517,8 @@
       <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1">
-        <v>4</v>
+      <c r="I3" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>22</v>
@@ -2452,7 +2530,6 @@
         <f>[Date Breed]+114</f>
         <v>43043</v>
       </c>
-      <c r="M3"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
       <c r="A4" t="s">
@@ -2473,8 +2550,8 @@
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1">
-        <v>4</v>
+      <c r="I4" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>27</v>
@@ -2486,7 +2563,6 @@
         <f>[Date Breed]+114</f>
         <v>43045</v>
       </c>
-      <c r="M4"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1">
       <c r="A5" t="s">
@@ -2507,8 +2583,8 @@
       <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="1">
-        <v>4</v>
+      <c r="I5" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>27</v>
@@ -2520,7 +2596,6 @@
         <f>[Date Breed]+114</f>
         <v>43046</v>
       </c>
-      <c r="M5"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" t="s">
@@ -2541,8 +2616,8 @@
       <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="1">
-        <v>4</v>
+      <c r="I6" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>22</v>
@@ -2554,7 +2629,6 @@
         <f>[Date Breed]+114</f>
         <v>43050</v>
       </c>
-      <c r="M6"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" t="s">
@@ -2575,8 +2649,8 @@
       <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="1">
-        <v>3</v>
+      <c r="I7" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>22</v>
@@ -2588,7 +2662,6 @@
         <f>[Date Breed]+114</f>
         <v>43051</v>
       </c>
-      <c r="M7"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1">
       <c r="A8" t="s">
@@ -2600,6 +2673,9 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="16">
+        <v>43084</v>
+      </c>
       <c r="E8" s="2">
         <v>42939</v>
       </c>
@@ -2609,8 +2685,8 @@
       <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="1">
-        <v>2</v>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>36</v>
@@ -2642,6 +2718,9 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="16">
+        <v>43084</v>
+      </c>
       <c r="E9" s="2">
         <v>42940</v>
       </c>
@@ -2651,8 +2730,8 @@
       <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="1">
-        <v>2</v>
+      <c r="I9" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>36</v>
@@ -2684,6 +2763,9 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
+      <c r="D10" s="16">
+        <v>43084</v>
+      </c>
       <c r="E10" s="2">
         <v>42942</v>
       </c>
@@ -2693,8 +2775,8 @@
       <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="1">
-        <v>4</v>
+      <c r="I10" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>36</v>
@@ -2735,8 +2817,8 @@
       <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="1">
-        <v>3</v>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>36</v>
@@ -2755,52 +2837,56 @@
         <v>4</v>
       </c>
       <c r="Q11" t="s">
-        <v>537</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="A12" t="s">
+      <c r="A12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="27">
         <v>42943</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="F12" s="26"/>
+      <c r="G12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27">
         <f>[Date Breed]+114</f>
         <v>43057</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="29">
         <v>43057</v>
       </c>
-      <c r="O12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12">
+      <c r="N12" s="19"/>
+      <c r="O12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="19">
         <v>11</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="19" t="s">
         <v>535</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
@@ -2813,6 +2899,9 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
+      <c r="D13" s="16">
+        <v>43084</v>
+      </c>
       <c r="E13" s="2">
         <v>42944</v>
       </c>
@@ -2822,8 +2911,8 @@
       <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="1">
-        <v>3</v>
+      <c r="I13" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>36</v>
@@ -2858,6 +2947,9 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
+      <c r="D14" s="16">
+        <v>43084</v>
+      </c>
       <c r="E14" s="2">
         <v>42945</v>
       </c>
@@ -2867,8 +2959,8 @@
       <c r="H14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="1">
-        <v>2</v>
+      <c r="I14" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>36</v>
@@ -2900,6 +2992,9 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
+      <c r="D15" s="16">
+        <v>43091</v>
+      </c>
       <c r="E15" s="2">
         <v>42946</v>
       </c>
@@ -2909,8 +3004,8 @@
       <c r="H15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="1">
-        <v>4</v>
+      <c r="I15" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>36</v>
@@ -2951,8 +3046,8 @@
       <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="1">
-        <v>4</v>
+      <c r="I16" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>36</v>
@@ -2990,6 +3085,9 @@
       <c r="C17" t="s">
         <v>19</v>
       </c>
+      <c r="D17" s="16">
+        <v>43091</v>
+      </c>
       <c r="E17" s="2">
         <v>42947</v>
       </c>
@@ -2999,8 +3097,8 @@
       <c r="H17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="1">
-        <v>3</v>
+      <c r="I17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>36</v>
@@ -3032,6 +3130,9 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
+      <c r="D18" s="16">
+        <v>43091</v>
+      </c>
       <c r="E18" s="2">
         <v>42948</v>
       </c>
@@ -3096,51 +3197,57 @@
         <f>[Date Breed]+114</f>
         <v>43063</v>
       </c>
-      <c r="M19"/>
       <c r="N19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1">
-      <c r="A20" t="s">
+      <c r="A20" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="C20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="27">
         <v>42949</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="J20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27">
         <f>[Date Breed]+114</f>
         <v>43063</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="29">
         <v>43429</v>
       </c>
-      <c r="O20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20">
+      <c r="N20" s="19"/>
+      <c r="O20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="19">
         <v>8</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="19" t="s">
         <v>536</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1">
@@ -3153,6 +3260,9 @@
       <c r="C21" t="s">
         <v>19</v>
       </c>
+      <c r="D21" s="16">
+        <v>43091</v>
+      </c>
       <c r="E21" s="2">
         <v>42950</v>
       </c>
@@ -3195,6 +3305,9 @@
       <c r="C22" t="s">
         <v>19</v>
       </c>
+      <c r="D22" s="16">
+        <v>43099</v>
+      </c>
       <c r="E22" s="2">
         <v>42951</v>
       </c>
@@ -3259,7 +3372,6 @@
         <f>[Date Breed]+114</f>
         <v>43066</v>
       </c>
-      <c r="M23"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1">
       <c r="A24" t="s">
@@ -3271,6 +3383,9 @@
       <c r="C24" t="s">
         <v>19</v>
       </c>
+      <c r="D24" s="16">
+        <v>43099</v>
+      </c>
       <c r="E24" s="2">
         <v>42954</v>
       </c>
@@ -3332,12 +3447,11 @@
         <f>[Date Breed]+114</f>
         <v>43069</v>
       </c>
-      <c r="M25"/>
       <c r="N25" t="s">
         <v>30</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1">
@@ -3369,7 +3483,6 @@
         <f>[Date Breed]+114</f>
         <v>43071</v>
       </c>
-      <c r="M26"/>
       <c r="Q26" t="s">
         <v>540</v>
       </c>
@@ -3406,7 +3519,6 @@
         <f>[Date Breed]+114</f>
         <v>43071</v>
       </c>
-      <c r="M27"/>
       <c r="N27" t="s">
         <v>25</v>
       </c>
@@ -3421,6 +3533,9 @@
       <c r="C28" t="s">
         <v>19</v>
       </c>
+      <c r="D28" s="16">
+        <v>43099</v>
+      </c>
       <c r="E28" s="2">
         <v>42957</v>
       </c>
@@ -3466,6 +3581,9 @@
       <c r="C29" t="s">
         <v>19</v>
       </c>
+      <c r="D29" s="16">
+        <v>43099</v>
+      </c>
       <c r="E29" s="2">
         <v>42958</v>
       </c>
@@ -3508,6 +3626,9 @@
       <c r="C30" t="s">
         <v>19</v>
       </c>
+      <c r="D30" s="16">
+        <v>43099</v>
+      </c>
       <c r="E30" s="2">
         <v>42959</v>
       </c>
@@ -3537,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="Q30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1">
@@ -3595,6 +3716,9 @@
       <c r="C32" t="s">
         <v>19</v>
       </c>
+      <c r="D32" s="16">
+        <v>43105</v>
+      </c>
       <c r="E32" s="2">
         <v>42961</v>
       </c>
@@ -3637,6 +3761,9 @@
       <c r="C33" t="s">
         <v>19</v>
       </c>
+      <c r="D33" s="16">
+        <v>43105</v>
+      </c>
       <c r="E33" s="2">
         <v>42961</v>
       </c>
@@ -3679,6 +3806,7 @@
       <c r="C34" t="s">
         <v>19</v>
       </c>
+      <c r="D34" s="16"/>
       <c r="E34" s="2">
         <v>42963</v>
       </c>
@@ -3701,7 +3829,6 @@
         <f>[Date Breed]+114</f>
         <v>43077</v>
       </c>
-      <c r="M34"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
@@ -3735,7 +3862,6 @@
         <f>[Date Breed]+114</f>
         <v>43080</v>
       </c>
-      <c r="M35"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
@@ -3769,7 +3895,6 @@
         <f>[Date Breed]+114</f>
         <v>43082</v>
       </c>
-      <c r="M36"/>
       <c r="N36" t="s">
         <v>28</v>
       </c>
@@ -3806,7 +3931,6 @@
         <f>[Date Breed]+114</f>
         <v>43083</v>
       </c>
-      <c r="M37"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
@@ -3840,7 +3964,6 @@
         <f>[Date Breed]+114</f>
         <v>43085</v>
       </c>
-      <c r="M38"/>
       <c r="N38" t="s">
         <v>57</v>
       </c>
@@ -3877,7 +4000,6 @@
         <f>[Date Breed]+114</f>
         <v>43085</v>
       </c>
-      <c r="M39"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
@@ -3911,7 +4033,6 @@
         <f>[Date Breed]+114</f>
         <v>43086</v>
       </c>
-      <c r="M40"/>
       <c r="N40" t="s">
         <v>65</v>
       </c>
@@ -3948,7 +4069,6 @@
         <f>[Date Breed]+114</f>
         <v>43087</v>
       </c>
-      <c r="M41"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
@@ -3979,9 +4099,8 @@
         <f>[Date Breed]+114</f>
         <v>43087</v>
       </c>
-      <c r="M42"/>
       <c r="R42" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4016,7 +4135,6 @@
         <f>[Date Breed]+114</f>
         <v>43090</v>
       </c>
-      <c r="M43"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
@@ -4050,7 +4168,6 @@
         <f>[Date Breed]+114</f>
         <v>43091</v>
       </c>
-      <c r="M44"/>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
@@ -4084,7 +4201,6 @@
         <f>[Date Breed]+114</f>
         <v>43091</v>
       </c>
-      <c r="M45"/>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
@@ -4118,7 +4234,6 @@
         <f>[Date Breed]+114</f>
         <v>43093</v>
       </c>
-      <c r="M46"/>
       <c r="N46" t="s">
         <v>73</v>
       </c>
@@ -4155,7 +4270,6 @@
         <f>[Date Breed]+114</f>
         <v>43093</v>
       </c>
-      <c r="M47"/>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
@@ -4189,7 +4303,6 @@
         <f>[Date Breed]+114</f>
         <v>43093</v>
       </c>
-      <c r="M48"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" t="s">
@@ -4201,6 +4314,9 @@
       <c r="C49" t="s">
         <v>19</v>
       </c>
+      <c r="D49" s="16">
+        <v>43119</v>
+      </c>
       <c r="E49" s="2">
         <v>42980</v>
       </c>
@@ -4220,7 +4336,6 @@
         <f>[Date Breed]+114</f>
         <v>43094</v>
       </c>
-      <c r="M49"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" t="s">
@@ -4251,7 +4366,6 @@
         <f>[Date Breed]+114</f>
         <v>43093</v>
       </c>
-      <c r="M50"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" t="s">
@@ -4263,6 +4377,9 @@
       <c r="C51" t="s">
         <v>19</v>
       </c>
+      <c r="D51" s="16">
+        <v>43119</v>
+      </c>
       <c r="E51" s="2">
         <v>42980</v>
       </c>
@@ -4327,7 +4444,6 @@
         <f>[Date Breed]+114</f>
         <v>43094</v>
       </c>
-      <c r="M52"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" t="s">
@@ -4339,6 +4455,9 @@
       <c r="C53" t="s">
         <v>19</v>
       </c>
+      <c r="D53" s="16">
+        <v>43126</v>
+      </c>
       <c r="E53" s="2">
         <v>42982</v>
       </c>
@@ -4381,6 +4500,9 @@
       <c r="C54" t="s">
         <v>19</v>
       </c>
+      <c r="D54" s="16">
+        <v>43126</v>
+      </c>
       <c r="E54" s="2">
         <v>42985</v>
       </c>
@@ -4423,6 +4545,9 @@
       <c r="C55" t="s">
         <v>19</v>
       </c>
+      <c r="D55" s="16">
+        <v>43102</v>
+      </c>
       <c r="E55" s="2">
         <v>42985</v>
       </c>
@@ -4487,7 +4612,6 @@
         <f>[Date Breed]+114</f>
         <v>43099</v>
       </c>
-      <c r="M56"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" t="s">
@@ -4499,6 +4623,9 @@
       <c r="C57" t="s">
         <v>19</v>
       </c>
+      <c r="D57" s="16">
+        <v>43133</v>
+      </c>
       <c r="E57" s="2">
         <v>42985</v>
       </c>
@@ -4544,6 +4671,9 @@
       <c r="C58" t="s">
         <v>19</v>
       </c>
+      <c r="D58" s="16">
+        <v>43138</v>
+      </c>
       <c r="E58" s="2">
         <v>42982</v>
       </c>
@@ -4566,7 +4696,6 @@
         <f>[Date Breed]+114</f>
         <v>43096</v>
       </c>
-      <c r="M58"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" t="s">
@@ -4607,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="Q59" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4620,6 +4749,9 @@
       <c r="C60" t="s">
         <v>19</v>
       </c>
+      <c r="D60" s="16">
+        <v>43126</v>
+      </c>
       <c r="E60" s="2">
         <v>42989</v>
       </c>
@@ -4684,7 +4816,6 @@
         <f>[Date Breed]+114</f>
         <v>43103</v>
       </c>
-      <c r="M61"/>
       <c r="N61" t="s">
         <v>88</v>
       </c>
@@ -4699,6 +4830,9 @@
       <c r="C62" t="s">
         <v>19</v>
       </c>
+      <c r="D62" s="16">
+        <v>43133</v>
+      </c>
       <c r="E62" s="2">
         <v>42989</v>
       </c>
@@ -4760,7 +4894,6 @@
         <f>[Date Breed]+114</f>
         <v>43103</v>
       </c>
-      <c r="M63"/>
       <c r="N63" t="s">
         <v>90</v>
       </c>
@@ -4797,12 +4930,11 @@
         <f>[Date Breed]+114</f>
         <v>43104</v>
       </c>
-      <c r="M64"/>
       <c r="N64" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>140</v>
       </c>
@@ -4812,6 +4944,9 @@
       <c r="C65" t="s">
         <v>19</v>
       </c>
+      <c r="D65" s="16">
+        <v>43133</v>
+      </c>
       <c r="E65" s="2">
         <v>42990</v>
       </c>
@@ -4847,7 +4982,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -4876,7 +5011,7 @@
         <f>[Date Breed]+114</f>
         <v>43105</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="16">
         <v>43106</v>
       </c>
       <c r="O66" t="s">
@@ -4886,10 +5021,10 @@
         <v>4</v>
       </c>
       <c r="Q66" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>143</v>
       </c>
@@ -4899,6 +5034,9 @@
       <c r="C67" t="s">
         <v>19</v>
       </c>
+      <c r="D67" s="16">
+        <v>43138</v>
+      </c>
       <c r="E67" s="2">
         <v>42991</v>
       </c>
@@ -4931,10 +5069,10 @@
         <v>3</v>
       </c>
       <c r="Q67" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>144</v>
       </c>
@@ -4944,6 +5082,7 @@
       <c r="C68" t="s">
         <v>19</v>
       </c>
+      <c r="D68" s="16"/>
       <c r="E68" s="2">
         <v>42991</v>
       </c>
@@ -4976,10 +5115,11 @@
         <v>4</v>
       </c>
       <c r="Q68" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>585</v>
+      </c>
+      <c r="R68" s="16"/>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -4989,6 +5129,9 @@
       <c r="C69" t="s">
         <v>19</v>
       </c>
+      <c r="D69" s="16">
+        <v>43133</v>
+      </c>
       <c r="E69" s="2">
         <v>42991</v>
       </c>
@@ -5021,7 +5164,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -5050,9 +5193,8 @@
         <f>[Date Breed]+114</f>
         <v>43105</v>
       </c>
-      <c r="M70"/>
-    </row>
-    <row r="71" spans="1:17">
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -5084,9 +5226,8 @@
         <f>[Date Breed]+114</f>
         <v>43107</v>
       </c>
-      <c r="M71"/>
-    </row>
-    <row r="72" spans="1:17">
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -5096,6 +5237,9 @@
       <c r="C72" t="s">
         <v>19</v>
       </c>
+      <c r="D72" s="16">
+        <v>43138</v>
+      </c>
       <c r="E72" s="2">
         <v>42994</v>
       </c>
@@ -5125,10 +5269,10 @@
         <v>14</v>
       </c>
       <c r="Q72" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -5160,9 +5304,8 @@
         <f>[Date Breed]+114</f>
         <v>43108</v>
       </c>
-      <c r="M73"/>
-    </row>
-    <row r="74" spans="1:17">
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -5191,12 +5334,11 @@
         <f>[Date Breed]+114</f>
         <v>43111</v>
       </c>
-      <c r="M74"/>
       <c r="N74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -5225,12 +5367,11 @@
         <f>[Date Breed]+114</f>
         <v>43111</v>
       </c>
-      <c r="M75"/>
       <c r="N75" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -5259,9 +5400,8 @@
         <f>[Date Breed]+114</f>
         <v>43111</v>
       </c>
-      <c r="M76"/>
-    </row>
-    <row r="77" spans="1:17">
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -5271,6 +5411,9 @@
       <c r="C77" t="s">
         <v>19</v>
       </c>
+      <c r="D77" s="16">
+        <v>43138</v>
+      </c>
       <c r="E77" s="2">
         <v>42997</v>
       </c>
@@ -5303,7 +5446,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -5313,6 +5456,9 @@
       <c r="C78" t="s">
         <v>19</v>
       </c>
+      <c r="D78" s="16">
+        <v>43138</v>
+      </c>
       <c r="E78" s="2">
         <v>42999</v>
       </c>
@@ -5345,7 +5491,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -5355,6 +5501,9 @@
       <c r="C79" t="s">
         <v>19</v>
       </c>
+      <c r="D79" s="16">
+        <v>43144</v>
+      </c>
       <c r="E79" s="2">
         <v>42999</v>
       </c>
@@ -5387,7 +5536,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -5416,7 +5565,6 @@
         <f>[Date Breed]+114</f>
         <v>43113</v>
       </c>
-      <c r="M80"/>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" t="s">
@@ -5428,6 +5576,9 @@
       <c r="C81" t="s">
         <v>19</v>
       </c>
+      <c r="D81" s="16">
+        <v>43138</v>
+      </c>
       <c r="E81" s="2">
         <v>43000</v>
       </c>
@@ -5473,6 +5624,9 @@
       <c r="C82" t="s">
         <v>19</v>
       </c>
+      <c r="D82" s="16">
+        <v>43144</v>
+      </c>
       <c r="E82" s="2">
         <v>43000</v>
       </c>
@@ -5518,6 +5672,9 @@
       <c r="C83" t="s">
         <v>19</v>
       </c>
+      <c r="D83" s="16">
+        <v>43144</v>
+      </c>
       <c r="E83" s="2">
         <v>43001</v>
       </c>
@@ -5579,7 +5736,6 @@
         <f>[Date Breed]+114</f>
         <v>43115</v>
       </c>
-      <c r="M84"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" t="s">
@@ -5610,7 +5766,6 @@
         <f>[Date Breed]+114</f>
         <v>43115</v>
       </c>
-      <c r="M85"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" t="s">
@@ -5641,7 +5796,6 @@
         <f>[Date Breed]+114</f>
         <v>43116</v>
       </c>
-      <c r="M86"/>
       <c r="N86" t="s">
         <v>122</v>
       </c>
@@ -5675,7 +5829,6 @@
         <f>[Date Breed]+114</f>
         <v>43116</v>
       </c>
-      <c r="M87"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" t="s">
@@ -5706,7 +5859,6 @@
         <f>[Date Breed]+114</f>
         <v>43116</v>
       </c>
-      <c r="M88"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" t="s">
@@ -5718,6 +5870,9 @@
       <c r="C89" t="s">
         <v>19</v>
       </c>
+      <c r="D89" s="16">
+        <v>43144</v>
+      </c>
       <c r="E89" s="2">
         <v>43003</v>
       </c>
@@ -5737,7 +5892,9 @@
         <f>[Date Breed]+114</f>
         <v>43117</v>
       </c>
-      <c r="M89"/>
+      <c r="M89" s="16">
+        <v>43115</v>
+      </c>
       <c r="N89" t="s">
         <v>109</v>
       </c>
@@ -5784,7 +5941,7 @@
         <v>17</v>
       </c>
       <c r="Q90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5797,6 +5954,9 @@
       <c r="C91" t="s">
         <v>19</v>
       </c>
+      <c r="D91" s="16">
+        <v>43152</v>
+      </c>
       <c r="E91" s="2">
         <v>43005</v>
       </c>
@@ -5816,7 +5976,6 @@
         <f>[Date Breed]+114</f>
         <v>43119</v>
       </c>
-      <c r="M91"/>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" t="s">
@@ -5828,6 +5987,9 @@
       <c r="C92" t="s">
         <v>19</v>
       </c>
+      <c r="D92" s="16">
+        <v>43152</v>
+      </c>
       <c r="E92" s="2">
         <v>43009</v>
       </c>
@@ -5895,7 +6057,6 @@
         <f>[Date Breed]+114</f>
         <v>43124</v>
       </c>
-      <c r="M93"/>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" t="s">
@@ -5907,6 +6068,9 @@
       <c r="C94" t="s">
         <v>19</v>
       </c>
+      <c r="D94" s="16">
+        <v>43152</v>
+      </c>
       <c r="E94" s="2">
         <v>43010</v>
       </c>
@@ -5949,6 +6113,9 @@
       <c r="C95" t="s">
         <v>19</v>
       </c>
+      <c r="D95" s="16">
+        <v>43152</v>
+      </c>
       <c r="E95" s="2">
         <v>43010</v>
       </c>
@@ -5968,9 +6135,17 @@
         <f>[Date Breed]+114</f>
         <v>43124</v>
       </c>
-      <c r="M95"/>
+      <c r="M95" s="16">
+        <v>43123</v>
+      </c>
       <c r="N95" t="s">
         <v>128</v>
+      </c>
+      <c r="P95">
+        <v>9</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5983,6 +6158,9 @@
       <c r="C96" t="s">
         <v>19</v>
       </c>
+      <c r="D96" s="16">
+        <v>43152</v>
+      </c>
       <c r="E96" s="2">
         <v>43012</v>
       </c>
@@ -6028,6 +6206,9 @@
       <c r="C97" t="s">
         <v>19</v>
       </c>
+      <c r="D97" s="16">
+        <v>43152</v>
+      </c>
       <c r="E97" s="2">
         <v>43013</v>
       </c>
@@ -6070,6 +6251,9 @@
       <c r="C98" t="s">
         <v>19</v>
       </c>
+      <c r="D98" s="16">
+        <v>43161</v>
+      </c>
       <c r="E98" s="2">
         <v>43014</v>
       </c>
@@ -6102,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6115,6 +6299,9 @@
       <c r="C99" t="s">
         <v>19</v>
       </c>
+      <c r="D99" s="16">
+        <v>43161</v>
+      </c>
       <c r="E99" s="2">
         <v>43015</v>
       </c>
@@ -6157,6 +6344,9 @@
       <c r="C100" t="s">
         <v>19</v>
       </c>
+      <c r="D100" s="16">
+        <v>43161</v>
+      </c>
       <c r="E100" s="2">
         <v>43016</v>
       </c>
@@ -6202,6 +6392,9 @@
       <c r="C101" t="s">
         <v>19</v>
       </c>
+      <c r="D101" s="16">
+        <v>43168</v>
+      </c>
       <c r="E101" s="2">
         <v>43017</v>
       </c>
@@ -6244,6 +6437,7 @@
       <c r="C102" t="s">
         <v>19</v>
       </c>
+      <c r="D102" s="16"/>
       <c r="E102" s="2">
         <v>43017</v>
       </c>
@@ -6263,7 +6457,6 @@
         <f>[Date Breed]+114</f>
         <v>43131</v>
       </c>
-      <c r="M102"/>
     </row>
     <row r="103" spans="1:18">
       <c r="A103" t="s">
@@ -6275,6 +6468,9 @@
       <c r="C103" t="s">
         <v>19</v>
       </c>
+      <c r="D103" s="16">
+        <v>43161</v>
+      </c>
       <c r="E103" s="2">
         <v>43018</v>
       </c>
@@ -6339,7 +6535,6 @@
         <f>[Date Breed]+114</f>
         <v>43133</v>
       </c>
-      <c r="M104"/>
       <c r="N104" t="s">
         <v>108</v>
       </c>
@@ -6373,7 +6568,6 @@
         <f>[Date Breed]+114</f>
         <v>43134</v>
       </c>
-      <c r="M105"/>
       <c r="N105" t="s">
         <v>176</v>
       </c>
@@ -6388,6 +6582,9 @@
       <c r="C106" t="s">
         <v>19</v>
       </c>
+      <c r="D106" s="16">
+        <v>43168</v>
+      </c>
       <c r="E106" s="2">
         <v>43022</v>
       </c>
@@ -6452,7 +6649,6 @@
         <f>[Date Breed]+114</f>
         <v>43136</v>
       </c>
-      <c r="M107"/>
       <c r="N107" t="s">
         <v>165</v>
       </c>
@@ -6531,7 +6727,6 @@
         <f>[Date Breed]+114</f>
         <v>43137</v>
       </c>
-      <c r="M109"/>
       <c r="N109" t="s">
         <v>179</v>
       </c>
@@ -6546,6 +6741,9 @@
       <c r="C110" t="s">
         <v>19</v>
       </c>
+      <c r="D110" s="16">
+        <v>43168</v>
+      </c>
       <c r="E110" s="2">
         <v>43024</v>
       </c>
@@ -6604,12 +6802,11 @@
         <f>[Date Breed]+114</f>
         <v>43139</v>
       </c>
-      <c r="M111"/>
       <c r="N111" t="s">
         <v>113</v>
       </c>
       <c r="R111" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -6641,7 +6838,6 @@
         <f>[Date Breed]+114</f>
         <v>43139</v>
       </c>
-      <c r="M112"/>
       <c r="N112" t="s">
         <v>111</v>
       </c>
@@ -6685,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="Q113" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="15" customHeight="1">
@@ -6717,7 +6913,6 @@
         <f>[Date Breed]+114</f>
         <v>43139</v>
       </c>
-      <c r="M114"/>
       <c r="N114" t="s">
         <v>183</v>
       </c>
@@ -6732,6 +6927,9 @@
       <c r="C115" t="s">
         <v>19</v>
       </c>
+      <c r="D115" s="16">
+        <v>43168</v>
+      </c>
       <c r="E115" s="2">
         <v>43026</v>
       </c>
@@ -6774,6 +6972,9 @@
       <c r="C116" t="s">
         <v>19</v>
       </c>
+      <c r="D116" s="16">
+        <v>43175</v>
+      </c>
       <c r="E116" s="2">
         <v>43027</v>
       </c>
@@ -6803,7 +7004,7 @@
         <v>13</v>
       </c>
       <c r="Q116" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="15" customHeight="1">
@@ -6848,7 +7049,7 @@
         <v>1</v>
       </c>
       <c r="Q117" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="118" spans="1:18" ht="15" customHeight="1">
@@ -6861,6 +7062,9 @@
       <c r="C118" t="s">
         <v>19</v>
       </c>
+      <c r="D118" s="16">
+        <v>43175</v>
+      </c>
       <c r="E118" s="2">
         <v>43028</v>
       </c>
@@ -6906,6 +7110,9 @@
       <c r="C119" t="s">
         <v>19</v>
       </c>
+      <c r="D119" s="16">
+        <v>43175</v>
+      </c>
       <c r="E119" s="2">
         <v>43028</v>
       </c>
@@ -6938,7 +7145,7 @@
         <v>13</v>
       </c>
       <c r="Q119" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -6980,7 +7187,7 @@
         <v>15</v>
       </c>
       <c r="Q120" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7023,7 +7230,7 @@
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7066,7 +7273,7 @@
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7290,7 +7497,7 @@
         <v>3</v>
       </c>
       <c r="Q127" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7382,7 +7589,7 @@
         <v>3</v>
       </c>
       <c r="Q129" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -7428,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="Q130" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -8252,10 +8459,10 @@
         <v>14</v>
       </c>
       <c r="Q149" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="R149" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -8346,7 +8553,7 @@
       <c r="A152" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="22" t="s">
         <v>180</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -8374,11 +8581,19 @@
         <f>[Date Breed]+114</f>
         <v>43176</v>
       </c>
-      <c r="M152" s="4"/>
+      <c r="M152" s="21">
+        <v>43178</v>
+      </c>
       <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
-      <c r="P152" s="4"/>
-      <c r="Q152" s="4"/>
+      <c r="O152" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P152" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q152" s="4" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="153" spans="1:18">
       <c r="A153" s="4" t="s">
@@ -8417,7 +8632,7 @@
       </c>
       <c r="N153" s="4"/>
       <c r="O153" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P153" s="4">
         <v>11</v>
@@ -8430,7 +8645,7 @@
       <c r="A154" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="22" t="s">
         <v>184</v>
       </c>
       <c r="C154" s="4" t="s">
@@ -8458,17 +8673,25 @@
         <f>[Date Breed]+114</f>
         <v>43176</v>
       </c>
-      <c r="M154" s="4"/>
+      <c r="M154" s="21">
+        <v>43179</v>
+      </c>
       <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
-      <c r="P154" s="4"/>
-      <c r="Q154" s="4"/>
+      <c r="O154" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="P154" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q154" s="4" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="155" spans="1:18">
       <c r="A155" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="22" t="s">
         <v>287</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -8496,17 +8719,23 @@
         <f>[Date Breed]+114</f>
         <v>43179</v>
       </c>
-      <c r="M155" s="4"/>
+      <c r="M155" s="21">
+        <v>43181</v>
+      </c>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
+      <c r="P155" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q155" s="4" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="22" t="s">
         <v>289</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -8534,11 +8763,17 @@
         <f>[Date Breed]+114</f>
         <v>43178</v>
       </c>
-      <c r="M156" s="4"/>
+      <c r="M156" s="21">
+        <v>43181</v>
+      </c>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
-      <c r="P156" s="4"/>
-      <c r="Q156" s="4"/>
+      <c r="P156" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q156" s="4" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="157" spans="1:18">
       <c r="A157" s="4" t="s">
@@ -9228,7 +9463,7 @@
       <c r="P174" s="4"/>
       <c r="Q174" s="4"/>
       <c r="R174" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10497,7 +10732,7 @@
       <c r="P207" s="4"/>
       <c r="Q207" s="4"/>
       <c r="R207" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12476,7 +12711,7 @@
       <c r="P259" s="4"/>
       <c r="Q259" s="4"/>
       <c r="R259" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -12517,7 +12752,7 @@
       <c r="P260" s="4"/>
       <c r="Q260" s="4"/>
       <c r="R260" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -12625,7 +12860,6 @@
         <f>[Date Breed]+114</f>
         <v>43246</v>
       </c>
-      <c r="M263"/>
     </row>
     <row r="264" spans="1:18">
       <c r="A264" s="4" t="s">
@@ -12656,7 +12890,6 @@
         <f>[Date Breed]+114</f>
         <v>43246</v>
       </c>
-      <c r="M264"/>
     </row>
     <row r="265" spans="1:18">
       <c r="A265" s="4" t="s">
@@ -12687,7 +12920,6 @@
         <f>[Date Breed]+114</f>
         <v>43247</v>
       </c>
-      <c r="M265"/>
     </row>
     <row r="266" spans="1:18">
       <c r="A266" s="4" t="s">
@@ -12718,7 +12950,6 @@
         <f>[Date Breed]+114</f>
         <v>43247</v>
       </c>
-      <c r="M266"/>
     </row>
     <row r="267" spans="1:18">
       <c r="A267" s="4" t="s">
@@ -12749,7 +12980,6 @@
         <f>[Date Breed]+114</f>
         <v>43249</v>
       </c>
-      <c r="M267"/>
     </row>
     <row r="268" spans="1:18">
       <c r="A268" s="4" t="s">
@@ -12780,7 +13010,6 @@
         <f>[Date Breed]+114</f>
         <v>43249</v>
       </c>
-      <c r="M268"/>
     </row>
     <row r="269" spans="1:18">
       <c r="A269" s="4" t="s">
@@ -12811,7 +13040,6 @@
         <f>[Date Breed]+114</f>
         <v>43250</v>
       </c>
-      <c r="M269"/>
     </row>
     <row r="270" spans="1:18">
       <c r="A270" s="4" t="s">
@@ -12842,7 +13070,6 @@
         <f>[Date Breed]+114</f>
         <v>43251</v>
       </c>
-      <c r="M270"/>
     </row>
     <row r="271" spans="1:18">
       <c r="A271" s="4" t="s">
@@ -13077,7 +13304,7 @@
         <v>467</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>19</v>
@@ -13115,7 +13342,7 @@
         <v>468</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>19</v>
@@ -13191,7 +13418,7 @@
         <v>470</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>19</v>
@@ -13229,7 +13456,7 @@
         <v>471</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>19</v>
@@ -13381,7 +13608,7 @@
         <v>475</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>19</v>
@@ -13414,7 +13641,7 @@
       <c r="P285" s="4"/>
       <c r="Q285" s="4"/>
       <c r="R285" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -13536,7 +13763,7 @@
         <v>479</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>19</v>
@@ -13650,7 +13877,7 @@
         <v>482</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>19</v>
@@ -13688,7 +13915,7 @@
         <v>483</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>19</v>
@@ -13726,7 +13953,7 @@
         <v>484</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>19</v>
@@ -13740,7 +13967,7 @@
         <v>20</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I294" s="5" t="s">
         <v>60</v>
@@ -13778,7 +14005,7 @@
         <v>20</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I295" s="5" t="s">
         <v>60</v>
@@ -13859,7 +14086,9 @@
       <c r="I297" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J297" s="9"/>
+      <c r="J297" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="K297" s="8"/>
       <c r="L297" s="8">
         <f>[Date Breed]+114</f>
@@ -13895,7 +14124,9 @@
       <c r="I298" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J298" s="9"/>
+      <c r="J298" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K298" s="8"/>
       <c r="L298" s="8">
         <f>[Date Breed]+114</f>
@@ -13931,7 +14162,9 @@
       <c r="I299" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J299" s="9"/>
+      <c r="J299" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K299" s="8"/>
       <c r="L299" s="8">
         <f>[Date Breed]+114</f>
@@ -13948,7 +14181,7 @@
         <v>490</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>19</v>
@@ -13967,7 +14200,9 @@
       <c r="I300" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J300" s="9"/>
+      <c r="J300" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K300" s="8"/>
       <c r="L300" s="8">
         <f>[Date Breed]+114</f>
@@ -14003,7 +14238,9 @@
       <c r="I301" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J301" s="9"/>
+      <c r="J301" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K301" s="8"/>
       <c r="L301" s="8">
         <f>[Date Breed]+114</f>
@@ -14056,7 +14293,7 @@
         <v>493</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C303" s="11" t="s">
         <v>19</v>
@@ -14164,7 +14401,7 @@
         <v>496</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>19</v>
@@ -14700,22 +14937,34 @@
       <c r="Q320" s="4"/>
     </row>
     <row r="321" spans="1:17">
-      <c r="A321" s="4" t="s">
+      <c r="A321" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="B321" s="5"/>
-      <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
-      <c r="E321" s="8"/>
-      <c r="F321" s="5"/>
-      <c r="G321" s="24"/>
-      <c r="H321" s="5"/>
-      <c r="I321" s="5"/>
-      <c r="J321" s="9"/>
-      <c r="K321" s="8"/>
-      <c r="L321" s="8">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
+      <c r="B321" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C321" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D321" s="11"/>
+      <c r="E321" s="12">
+        <v>43175</v>
+      </c>
+      <c r="F321" s="10"/>
+      <c r="G321" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H321" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I321" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J321" s="13"/>
+      <c r="K321" s="12"/>
+      <c r="L321" s="12">
+        <f>[Date Breed]+114</f>
+        <v>43289</v>
       </c>
       <c r="M321" s="4"/>
       <c r="N321" s="4"/>
@@ -14724,22 +14973,34 @@
       <c r="Q321" s="4"/>
     </row>
     <row r="322" spans="1:17">
-      <c r="A322" s="4" t="s">
+      <c r="A322" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="B322" s="5"/>
-      <c r="C322" s="4"/>
-      <c r="D322" s="4"/>
-      <c r="E322" s="8"/>
-      <c r="F322" s="5"/>
-      <c r="G322" s="24"/>
-      <c r="H322" s="5"/>
-      <c r="I322" s="5"/>
-      <c r="J322" s="9"/>
-      <c r="K322" s="8"/>
-      <c r="L322" s="8">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
+      <c r="B322" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C322" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D322" s="11"/>
+      <c r="E322" s="12">
+        <v>43176</v>
+      </c>
+      <c r="F322" s="10"/>
+      <c r="G322" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H322" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I322" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J322" s="13"/>
+      <c r="K322" s="12"/>
+      <c r="L322" s="12">
+        <f>[Date Breed]+114</f>
+        <v>43290</v>
       </c>
       <c r="M322" s="4"/>
       <c r="N322" s="4"/>
@@ -14751,19 +15012,31 @@
       <c r="A323" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B323" s="5"/>
-      <c r="C323" s="4"/>
+      <c r="B323" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D323" s="4"/>
-      <c r="E323" s="8"/>
+      <c r="E323" s="8">
+        <v>43176</v>
+      </c>
       <c r="F323" s="5"/>
-      <c r="G323" s="24"/>
-      <c r="H323" s="5"/>
-      <c r="I323" s="5"/>
+      <c r="G323" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H323" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I323" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J323" s="9"/>
       <c r="K323" s="8"/>
       <c r="L323" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43290</v>
       </c>
       <c r="M323" s="4"/>
       <c r="N323" s="4"/>
@@ -14775,19 +15048,31 @@
       <c r="A324" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B324" s="5"/>
-      <c r="C324" s="4"/>
+      <c r="B324" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D324" s="4"/>
-      <c r="E324" s="8"/>
+      <c r="E324" s="8">
+        <v>43178</v>
+      </c>
       <c r="F324" s="5"/>
-      <c r="G324" s="24"/>
-      <c r="H324" s="5"/>
-      <c r="I324" s="5"/>
+      <c r="G324" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I324" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J324" s="9"/>
       <c r="K324" s="8"/>
       <c r="L324" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43292</v>
       </c>
       <c r="M324" s="4"/>
       <c r="N324" s="4"/>
@@ -14799,19 +15084,31 @@
       <c r="A325" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B325" s="5"/>
-      <c r="C325" s="4"/>
+      <c r="B325" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D325" s="4"/>
-      <c r="E325" s="8"/>
+      <c r="E325" s="8">
+        <v>43178</v>
+      </c>
       <c r="F325" s="5"/>
-      <c r="G325" s="24"/>
-      <c r="H325" s="5"/>
-      <c r="I325" s="5"/>
+      <c r="G325" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H325" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I325" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J325" s="9"/>
       <c r="K325" s="8"/>
       <c r="L325" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43292</v>
       </c>
       <c r="M325" s="4"/>
       <c r="N325" s="4"/>
@@ -14823,19 +15120,31 @@
       <c r="A326" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B326" s="5"/>
-      <c r="C326" s="4"/>
+      <c r="B326" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D326" s="4"/>
-      <c r="E326" s="8"/>
+      <c r="E326" s="8">
+        <v>43178</v>
+      </c>
       <c r="F326" s="5"/>
-      <c r="G326" s="24"/>
-      <c r="H326" s="5"/>
-      <c r="I326" s="5"/>
+      <c r="G326" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H326" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I326" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J326" s="9"/>
       <c r="K326" s="8"/>
       <c r="L326" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43292</v>
       </c>
       <c r="M326" s="4"/>
       <c r="N326" s="4"/>
@@ -14847,19 +15156,31 @@
       <c r="A327" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B327" s="5"/>
-      <c r="C327" s="4"/>
+      <c r="B327" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D327" s="4"/>
-      <c r="E327" s="8"/>
+      <c r="E327" s="8">
+        <v>43179</v>
+      </c>
       <c r="F327" s="5"/>
-      <c r="G327" s="24"/>
-      <c r="H327" s="5"/>
-      <c r="I327" s="5"/>
+      <c r="G327" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H327" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I327" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J327" s="9"/>
       <c r="K327" s="8"/>
       <c r="L327" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43293</v>
       </c>
       <c r="M327" s="4"/>
       <c r="N327" s="4"/>
@@ -14871,19 +15192,31 @@
       <c r="A328" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B328" s="5"/>
-      <c r="C328" s="4"/>
+      <c r="B328" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D328" s="4"/>
-      <c r="E328" s="8"/>
+      <c r="E328" s="8">
+        <v>43180</v>
+      </c>
       <c r="F328" s="5"/>
-      <c r="G328" s="24"/>
-      <c r="H328" s="5"/>
-      <c r="I328" s="5"/>
+      <c r="G328" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I328" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J328" s="9"/>
       <c r="K328" s="8"/>
       <c r="L328" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43294</v>
       </c>
       <c r="M328" s="4"/>
       <c r="N328" s="4"/>
@@ -14895,19 +15228,31 @@
       <c r="A329" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B329" s="5"/>
-      <c r="C329" s="4"/>
+      <c r="B329" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D329" s="4"/>
-      <c r="E329" s="8"/>
+      <c r="E329" s="8">
+        <v>43180</v>
+      </c>
       <c r="F329" s="5"/>
-      <c r="G329" s="24"/>
-      <c r="H329" s="5"/>
-      <c r="I329" s="5"/>
+      <c r="G329" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H329" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I329" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J329" s="9"/>
       <c r="K329" s="8"/>
       <c r="L329" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43294</v>
       </c>
       <c r="M329" s="4"/>
       <c r="N329" s="4"/>
@@ -14919,19 +15264,31 @@
       <c r="A330" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B330" s="5"/>
-      <c r="C330" s="4"/>
+      <c r="B330" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D330" s="4"/>
-      <c r="E330" s="8"/>
+      <c r="E330" s="8">
+        <v>43180</v>
+      </c>
       <c r="F330" s="5"/>
-      <c r="G330" s="24"/>
-      <c r="H330" s="5"/>
-      <c r="I330" s="5"/>
+      <c r="G330" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H330" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I330" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J330" s="9"/>
       <c r="K330" s="8"/>
       <c r="L330" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43294</v>
       </c>
       <c r="M330" s="4"/>
       <c r="N330" s="4"/>
@@ -15108,140 +15465,180 @@
       <c r="Q337" s="4"/>
     </row>
     <row r="338" spans="1:17">
+      <c r="A338" s="4" t="s">
+        <v>564</v>
+      </c>
       <c r="L338" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M338"/>
     </row>
     <row r="339" spans="1:17">
+      <c r="A339" s="4" t="s">
+        <v>565</v>
+      </c>
       <c r="L339" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M339"/>
     </row>
     <row r="340" spans="1:17">
+      <c r="A340" s="4" t="s">
+        <v>566</v>
+      </c>
       <c r="L340" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M340"/>
     </row>
     <row r="341" spans="1:17">
+      <c r="A341" s="4" t="s">
+        <v>567</v>
+      </c>
       <c r="L341" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M341"/>
     </row>
     <row r="342" spans="1:17">
+      <c r="A342" s="4" t="s">
+        <v>568</v>
+      </c>
       <c r="L342" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M342"/>
     </row>
     <row r="343" spans="1:17">
+      <c r="A343" s="4" t="s">
+        <v>569</v>
+      </c>
       <c r="L343" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M343"/>
     </row>
     <row r="344" spans="1:17">
+      <c r="A344" s="4" t="s">
+        <v>570</v>
+      </c>
       <c r="L344" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M344"/>
     </row>
     <row r="345" spans="1:17">
+      <c r="A345" s="4" t="s">
+        <v>571</v>
+      </c>
       <c r="L345" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M345"/>
     </row>
     <row r="346" spans="1:17">
+      <c r="A346" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="L346" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M346"/>
     </row>
     <row r="347" spans="1:17">
+      <c r="A347" s="4" t="s">
+        <v>573</v>
+      </c>
       <c r="L347" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M347"/>
     </row>
     <row r="348" spans="1:17">
+      <c r="A348" s="4" t="s">
+        <v>574</v>
+      </c>
       <c r="L348" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M348"/>
     </row>
     <row r="349" spans="1:17">
+      <c r="A349" s="4" t="s">
+        <v>575</v>
+      </c>
       <c r="L349" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M349"/>
     </row>
     <row r="350" spans="1:17">
+      <c r="A350" s="4" t="s">
+        <v>576</v>
+      </c>
       <c r="L350" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M350"/>
     </row>
     <row r="351" spans="1:17">
+      <c r="A351" s="4" t="s">
+        <v>577</v>
+      </c>
       <c r="L351" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M351"/>
     </row>
     <row r="352" spans="1:17">
+      <c r="A352" s="4" t="s">
+        <v>578</v>
+      </c>
       <c r="L352" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M352"/>
     </row>
     <row r="353" spans="1:18">
+      <c r="A353" s="4" t="s">
+        <v>579</v>
+      </c>
       <c r="L353" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M353"/>
     </row>
     <row r="354" spans="1:18">
+      <c r="A354" s="4" t="s">
+        <v>580</v>
+      </c>
       <c r="L354" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M354"/>
     </row>
     <row r="355" spans="1:18">
+      <c r="A355" s="4" t="s">
+        <v>581</v>
+      </c>
       <c r="L355" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M355"/>
     </row>
     <row r="356" spans="1:18">
+      <c r="A356" s="4" t="s">
+        <v>582</v>
+      </c>
       <c r="L356" s="2">
         <f>[Date Breed]+114</f>
         <v>114</v>
       </c>
-      <c r="M356"/>
     </row>
     <row r="357" spans="1:18">
-      <c r="A357" s="4"/>
+      <c r="A357" s="4" t="s">
+        <v>583</v>
+      </c>
       <c r="B357" s="5"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>

--- a/Breeding.xlsx
+++ b/Breeding.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="681">
   <si>
     <t>Ref. No</t>
   </si>
@@ -836,943 +836,1228 @@
     <t>A129</t>
   </si>
   <si>
+    <t>A130</t>
+  </si>
+  <si>
+    <t>09396</t>
+  </si>
+  <si>
+    <t>A131</t>
+  </si>
+  <si>
+    <t>09374</t>
+  </si>
+  <si>
+    <t>A132</t>
+  </si>
+  <si>
+    <t>A133</t>
+  </si>
+  <si>
+    <t>09399</t>
+  </si>
+  <si>
+    <t>A134</t>
+  </si>
+  <si>
+    <t>09390</t>
+  </si>
+  <si>
+    <t>A135</t>
+  </si>
+  <si>
+    <t>A136</t>
+  </si>
+  <si>
+    <t>A137</t>
+  </si>
+  <si>
+    <t>A138</t>
+  </si>
+  <si>
+    <t>09411</t>
+  </si>
+  <si>
+    <t>A139</t>
+  </si>
+  <si>
+    <t>08982</t>
+  </si>
+  <si>
+    <t>A140</t>
+  </si>
+  <si>
+    <t>08556</t>
+  </si>
+  <si>
+    <t>A141</t>
+  </si>
+  <si>
+    <t>09385</t>
+  </si>
+  <si>
+    <t>A142</t>
+  </si>
+  <si>
+    <t>08991</t>
+  </si>
+  <si>
+    <t>A143</t>
+  </si>
+  <si>
+    <t>09403</t>
+  </si>
+  <si>
+    <t>A144</t>
+  </si>
+  <si>
+    <t>08990</t>
+  </si>
+  <si>
+    <t>A145</t>
+  </si>
+  <si>
+    <t>09407</t>
+  </si>
+  <si>
+    <t>A146</t>
+  </si>
+  <si>
+    <t>A147</t>
+  </si>
+  <si>
+    <t>08555</t>
+  </si>
+  <si>
+    <t>A148</t>
+  </si>
+  <si>
+    <t>08545</t>
+  </si>
+  <si>
+    <t>A149</t>
+  </si>
+  <si>
+    <t>08563</t>
+  </si>
+  <si>
+    <t>A150</t>
+  </si>
+  <si>
+    <t>08998</t>
+  </si>
+  <si>
+    <t>A151</t>
+  </si>
+  <si>
+    <t>08584</t>
+  </si>
+  <si>
+    <t>A152</t>
+  </si>
+  <si>
+    <t>08553</t>
+  </si>
+  <si>
+    <t>A153</t>
+  </si>
+  <si>
+    <t>A154</t>
+  </si>
+  <si>
+    <t>A155</t>
+  </si>
+  <si>
+    <t>A156</t>
+  </si>
+  <si>
+    <t>A157</t>
+  </si>
+  <si>
+    <t>A158</t>
+  </si>
+  <si>
+    <t>A159</t>
+  </si>
+  <si>
+    <t>A160</t>
+  </si>
+  <si>
+    <t>A161</t>
+  </si>
+  <si>
+    <t>A162</t>
+  </si>
+  <si>
+    <t>A163</t>
+  </si>
+  <si>
+    <t>A164</t>
+  </si>
+  <si>
+    <t>A165</t>
+  </si>
+  <si>
+    <t>A166</t>
+  </si>
+  <si>
+    <t>A167</t>
+  </si>
+  <si>
+    <t>A168</t>
+  </si>
+  <si>
+    <t>A169</t>
+  </si>
+  <si>
+    <t>A170</t>
+  </si>
+  <si>
+    <t>A171</t>
+  </si>
+  <si>
+    <t>A172</t>
+  </si>
+  <si>
+    <t>08965</t>
+  </si>
+  <si>
+    <t>08953</t>
+  </si>
+  <si>
+    <t>08576</t>
+  </si>
+  <si>
+    <t>09417</t>
+  </si>
+  <si>
+    <t>09387</t>
+  </si>
+  <si>
+    <t>08565</t>
+  </si>
+  <si>
+    <t>0678/0694</t>
+  </si>
+  <si>
+    <t>08986</t>
+  </si>
+  <si>
+    <t>08993</t>
+  </si>
+  <si>
+    <t>08578</t>
+  </si>
+  <si>
+    <t>08551</t>
+  </si>
+  <si>
+    <t>08954</t>
+  </si>
+  <si>
+    <t>08937</t>
+  </si>
+  <si>
+    <t>A173</t>
+  </si>
+  <si>
+    <t>A174</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>A176</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>A178</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>A180</t>
+  </si>
+  <si>
+    <t>A181</t>
+  </si>
+  <si>
+    <t>08995</t>
+  </si>
+  <si>
+    <t>08549</t>
+  </si>
+  <si>
+    <t>08975</t>
+  </si>
+  <si>
+    <t>A182</t>
+  </si>
+  <si>
+    <t>A183</t>
+  </si>
+  <si>
+    <t>A184</t>
+  </si>
+  <si>
+    <t>A185</t>
+  </si>
+  <si>
+    <t>A186</t>
+  </si>
+  <si>
+    <t>A187</t>
+  </si>
+  <si>
+    <t>A188</t>
+  </si>
+  <si>
+    <t>A189</t>
+  </si>
+  <si>
+    <t>A190</t>
+  </si>
+  <si>
+    <t>A191</t>
+  </si>
+  <si>
+    <t>A192</t>
+  </si>
+  <si>
+    <t>A193</t>
+  </si>
+  <si>
+    <t>A194</t>
+  </si>
+  <si>
+    <t>A195</t>
+  </si>
+  <si>
+    <t>A196</t>
+  </si>
+  <si>
+    <t>A197</t>
+  </si>
+  <si>
+    <t>A198</t>
+  </si>
+  <si>
+    <t>A199</t>
+  </si>
+  <si>
+    <t>A200</t>
+  </si>
+  <si>
+    <t>A201</t>
+  </si>
+  <si>
+    <t>A202</t>
+  </si>
+  <si>
+    <t>A203</t>
+  </si>
+  <si>
+    <t>A204</t>
+  </si>
+  <si>
+    <t>A205</t>
+  </si>
+  <si>
+    <t>A206</t>
+  </si>
+  <si>
+    <t>A207</t>
+  </si>
+  <si>
+    <t>A208</t>
+  </si>
+  <si>
+    <t>A209</t>
+  </si>
+  <si>
+    <t>A210</t>
+  </si>
+  <si>
+    <t>A211</t>
+  </si>
+  <si>
+    <t>A212</t>
+  </si>
+  <si>
+    <t>09377</t>
+  </si>
+  <si>
+    <t>09409</t>
+  </si>
+  <si>
+    <t>08960</t>
+  </si>
+  <si>
+    <t>09412</t>
+  </si>
+  <si>
+    <t>09416</t>
+  </si>
+  <si>
+    <t>09388</t>
+  </si>
+  <si>
+    <t>08989</t>
+  </si>
+  <si>
+    <t>09406</t>
+  </si>
+  <si>
+    <t>09398</t>
+  </si>
+  <si>
+    <t>08973</t>
+  </si>
+  <si>
+    <t>A213</t>
+  </si>
+  <si>
+    <t>A214</t>
+  </si>
+  <si>
+    <t>A215</t>
+  </si>
+  <si>
+    <t>A216</t>
+  </si>
+  <si>
+    <t>A217</t>
+  </si>
+  <si>
+    <t>A218</t>
+  </si>
+  <si>
+    <t>A219</t>
+  </si>
+  <si>
+    <t>A220</t>
+  </si>
+  <si>
+    <t>A221</t>
+  </si>
+  <si>
+    <t>A222</t>
+  </si>
+  <si>
+    <t>A223</t>
+  </si>
+  <si>
+    <t>A224</t>
+  </si>
+  <si>
+    <t>A225</t>
+  </si>
+  <si>
+    <t>A226</t>
+  </si>
+  <si>
+    <t>A227</t>
+  </si>
+  <si>
+    <t>A228</t>
+  </si>
+  <si>
+    <t>A229</t>
+  </si>
+  <si>
+    <t>A230</t>
+  </si>
+  <si>
+    <t>A231</t>
+  </si>
+  <si>
+    <t>A232</t>
+  </si>
+  <si>
+    <t>A233</t>
+  </si>
+  <si>
+    <t>A234</t>
+  </si>
+  <si>
+    <t>A235</t>
+  </si>
+  <si>
+    <t>A236</t>
+  </si>
+  <si>
+    <t>A237</t>
+  </si>
+  <si>
+    <t>A238</t>
+  </si>
+  <si>
+    <t>A239</t>
+  </si>
+  <si>
+    <t>A240</t>
+  </si>
+  <si>
+    <t>A241</t>
+  </si>
+  <si>
+    <t>A242</t>
+  </si>
+  <si>
+    <t>A243</t>
+  </si>
+  <si>
+    <t>A244</t>
+  </si>
+  <si>
+    <t>A245</t>
+  </si>
+  <si>
+    <t>09400</t>
+  </si>
+  <si>
+    <t>08958</t>
+  </si>
+  <si>
+    <t>08983</t>
+  </si>
+  <si>
+    <t>09379</t>
+  </si>
+  <si>
+    <t>08985</t>
+  </si>
+  <si>
+    <t>09376</t>
+  </si>
+  <si>
+    <t>09415</t>
+  </si>
+  <si>
+    <t>08581</t>
+  </si>
+  <si>
+    <t>09370</t>
+  </si>
+  <si>
+    <t>09394</t>
+  </si>
+  <si>
+    <t>09391</t>
+  </si>
+  <si>
+    <t>09389</t>
+  </si>
+  <si>
+    <t>08557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILT </t>
+  </si>
+  <si>
+    <t>09373</t>
+  </si>
+  <si>
+    <t>08959</t>
+  </si>
+  <si>
+    <t>08970</t>
+  </si>
+  <si>
+    <t>08952</t>
+  </si>
+  <si>
+    <t>W0478</t>
+  </si>
+  <si>
+    <t>A246</t>
+  </si>
+  <si>
+    <t>A247</t>
+  </si>
+  <si>
+    <t>A248</t>
+  </si>
+  <si>
+    <t>A249</t>
+  </si>
+  <si>
+    <t>A250</t>
+  </si>
+  <si>
+    <t>A251</t>
+  </si>
+  <si>
+    <t>A252</t>
+  </si>
+  <si>
+    <t>A253</t>
+  </si>
+  <si>
+    <t>A254</t>
+  </si>
+  <si>
+    <t>A255</t>
+  </si>
+  <si>
+    <t>A256</t>
+  </si>
+  <si>
+    <t>A257</t>
+  </si>
+  <si>
+    <t>A258</t>
+  </si>
+  <si>
+    <t>A259</t>
+  </si>
+  <si>
+    <t>A260</t>
+  </si>
+  <si>
+    <t>A261</t>
+  </si>
+  <si>
+    <t>A262</t>
+  </si>
+  <si>
+    <t>A263</t>
+  </si>
+  <si>
+    <t>A264</t>
+  </si>
+  <si>
+    <t>A265</t>
+  </si>
+  <si>
+    <t>A266</t>
+  </si>
+  <si>
+    <t>A267</t>
+  </si>
+  <si>
+    <t>A268</t>
+  </si>
+  <si>
+    <t>A269</t>
+  </si>
+  <si>
+    <t>A270</t>
+  </si>
+  <si>
+    <t>A271</t>
+  </si>
+  <si>
+    <t>A272</t>
+  </si>
+  <si>
+    <t>A273</t>
+  </si>
+  <si>
+    <t>A274</t>
+  </si>
+  <si>
+    <t>A275</t>
+  </si>
+  <si>
+    <t>A276</t>
+  </si>
+  <si>
+    <t>A277</t>
+  </si>
+  <si>
+    <t>A278</t>
+  </si>
+  <si>
+    <t>A279</t>
+  </si>
+  <si>
+    <t>A280</t>
+  </si>
+  <si>
+    <t>A281</t>
+  </si>
+  <si>
+    <t>A282</t>
+  </si>
+  <si>
+    <t>A283</t>
+  </si>
+  <si>
+    <t>A284</t>
+  </si>
+  <si>
+    <t>A285</t>
+  </si>
+  <si>
+    <t>A286</t>
+  </si>
+  <si>
+    <t>A287</t>
+  </si>
+  <si>
+    <t>A288</t>
+  </si>
+  <si>
+    <t>A289</t>
+  </si>
+  <si>
+    <t>A290</t>
+  </si>
+  <si>
+    <t>A291</t>
+  </si>
+  <si>
+    <t>A292</t>
+  </si>
+  <si>
+    <t>A293</t>
+  </si>
+  <si>
+    <t>A294</t>
+  </si>
+  <si>
+    <t>A295</t>
+  </si>
+  <si>
+    <t>A296</t>
+  </si>
+  <si>
+    <t>A297</t>
+  </si>
+  <si>
+    <t>A298</t>
+  </si>
+  <si>
+    <t>A299</t>
+  </si>
+  <si>
+    <t>A300</t>
+  </si>
+  <si>
+    <t>A301</t>
+  </si>
+  <si>
+    <t>A302</t>
+  </si>
+  <si>
+    <t>A303</t>
+  </si>
+  <si>
+    <t>A304</t>
+  </si>
+  <si>
+    <t>A305</t>
+  </si>
+  <si>
+    <t>A306</t>
+  </si>
+  <si>
+    <t>A307</t>
+  </si>
+  <si>
+    <t>A308</t>
+  </si>
+  <si>
+    <t>A309</t>
+  </si>
+  <si>
+    <t>A310</t>
+  </si>
+  <si>
+    <t>A311</t>
+  </si>
+  <si>
+    <t>A312</t>
+  </si>
+  <si>
+    <t>A313</t>
+  </si>
+  <si>
+    <t>A314</t>
+  </si>
+  <si>
+    <t>A315</t>
+  </si>
+  <si>
+    <t>A316</t>
+  </si>
+  <si>
+    <t>A317</t>
+  </si>
+  <si>
+    <t>A318</t>
+  </si>
+  <si>
+    <t>A319</t>
+  </si>
+  <si>
+    <t>A320</t>
+  </si>
+  <si>
+    <t>08956</t>
+  </si>
+  <si>
+    <t>09410</t>
+  </si>
+  <si>
+    <t>09386</t>
+  </si>
+  <si>
+    <t>09395</t>
+  </si>
+  <si>
+    <t>08559</t>
+  </si>
+  <si>
+    <t>08540</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>BELOW AVERAGE</t>
+  </si>
+  <si>
+    <t>VERY GOOD</t>
+  </si>
+  <si>
+    <t>RB(-)</t>
+  </si>
+  <si>
+    <t>REJECT</t>
+  </si>
+  <si>
+    <t>BAD</t>
+  </si>
+  <si>
+    <t>EXCELLENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Cull</t>
+  </si>
+  <si>
+    <t>Diseased</t>
+  </si>
+  <si>
+    <t>09384</t>
+  </si>
+  <si>
+    <t>08955</t>
+  </si>
+  <si>
+    <t>08972</t>
+  </si>
+  <si>
+    <t>08949</t>
+  </si>
+  <si>
+    <t>09408</t>
+  </si>
+  <si>
+    <t>09371</t>
+  </si>
+  <si>
+    <t>08974</t>
+  </si>
+  <si>
+    <t>09382</t>
+  </si>
+  <si>
+    <t>0694/V0542</t>
+  </si>
+  <si>
+    <t>09392</t>
+  </si>
+  <si>
+    <t>08997</t>
+  </si>
+  <si>
+    <t>09404</t>
+  </si>
+  <si>
+    <t>Mortality</t>
+  </si>
+  <si>
+    <t>Past candidate for reject</t>
+  </si>
+  <si>
+    <t>09381</t>
+  </si>
+  <si>
+    <t>09401</t>
+  </si>
+  <si>
+    <t>09402</t>
+  </si>
+  <si>
+    <t>A321</t>
+  </si>
+  <si>
+    <t>A322</t>
+  </si>
+  <si>
+    <t>A323</t>
+  </si>
+  <si>
+    <t>A324</t>
+  </si>
+  <si>
+    <t>A325</t>
+  </si>
+  <si>
+    <t>A326</t>
+  </si>
+  <si>
+    <t>A327</t>
+  </si>
+  <si>
+    <t>A328</t>
+  </si>
+  <si>
+    <t>A329</t>
+  </si>
+  <si>
+    <t>A330</t>
+  </si>
+  <si>
+    <t>A331</t>
+  </si>
+  <si>
+    <t>A332</t>
+  </si>
+  <si>
+    <t>A333</t>
+  </si>
+  <si>
+    <t>A334</t>
+  </si>
+  <si>
+    <t>A335</t>
+  </si>
+  <si>
+    <t>A336</t>
+  </si>
+  <si>
+    <t>A337</t>
+  </si>
+  <si>
+    <t>A338</t>
+  </si>
+  <si>
+    <t>A339</t>
+  </si>
+  <si>
+    <t>A340</t>
+  </si>
+  <si>
+    <t>BELOW AVERAGE FOURCE DRY</t>
+  </si>
+  <si>
+    <t>FOURCE DRY FOURCE DRY</t>
+  </si>
+  <si>
+    <t>0678/0678</t>
+  </si>
+  <si>
+    <t>A341</t>
+  </si>
+  <si>
+    <t>A342</t>
+  </si>
+  <si>
+    <t>A343</t>
+  </si>
+  <si>
+    <t>A344</t>
+  </si>
+  <si>
+    <t>A345</t>
+  </si>
+  <si>
+    <t>A346</t>
+  </si>
+  <si>
+    <t>A347</t>
+  </si>
+  <si>
+    <t>A348</t>
+  </si>
+  <si>
+    <t>A349</t>
+  </si>
+  <si>
+    <t>A350</t>
+  </si>
+  <si>
+    <t>A351</t>
+  </si>
+  <si>
+    <t>A352</t>
+  </si>
+  <si>
+    <t>A353</t>
+  </si>
+  <si>
+    <t>A354</t>
+  </si>
+  <si>
+    <t>A355</t>
+  </si>
+  <si>
+    <t>A356</t>
+  </si>
+  <si>
+    <t>A357</t>
+  </si>
+  <si>
+    <t>A358</t>
+  </si>
+  <si>
+    <t>A359</t>
+  </si>
+  <si>
+    <t>A360</t>
+  </si>
+  <si>
+    <t>A361</t>
+  </si>
+  <si>
+    <t>A362</t>
+  </si>
+  <si>
+    <t>A363</t>
+  </si>
+  <si>
+    <t>A364</t>
+  </si>
+  <si>
+    <t>A365</t>
+  </si>
+  <si>
+    <t>A366</t>
+  </si>
+  <si>
+    <t>A367</t>
+  </si>
+  <si>
+    <t>A368</t>
+  </si>
+  <si>
+    <t>A369</t>
+  </si>
+  <si>
+    <t>A370</t>
+  </si>
+  <si>
+    <t>09380</t>
+  </si>
+  <si>
+    <t>09413</t>
+  </si>
+  <si>
     <t>09383</t>
   </si>
   <si>
-    <t>A130</t>
-  </si>
-  <si>
-    <t>09396</t>
-  </si>
-  <si>
-    <t>A131</t>
-  </si>
-  <si>
-    <t>09374</t>
-  </si>
-  <si>
-    <t>A132</t>
-  </si>
-  <si>
-    <t>A133</t>
-  </si>
-  <si>
-    <t>09399</t>
-  </si>
-  <si>
-    <t>A134</t>
-  </si>
-  <si>
-    <t>09390</t>
-  </si>
-  <si>
-    <t>A135</t>
-  </si>
-  <si>
-    <t>A136</t>
-  </si>
-  <si>
-    <t>A137</t>
-  </si>
-  <si>
-    <t>A138</t>
-  </si>
-  <si>
-    <t>09411</t>
-  </si>
-  <si>
-    <t>A139</t>
-  </si>
-  <si>
-    <t>08982</t>
-  </si>
-  <si>
-    <t>A140</t>
-  </si>
-  <si>
-    <t>08556</t>
-  </si>
-  <si>
-    <t>A141</t>
-  </si>
-  <si>
-    <t>09385</t>
-  </si>
-  <si>
-    <t>A142</t>
-  </si>
-  <si>
-    <t>08991</t>
-  </si>
-  <si>
-    <t>A143</t>
-  </si>
-  <si>
-    <t>09403</t>
-  </si>
-  <si>
-    <t>A144</t>
-  </si>
-  <si>
-    <t>08990</t>
-  </si>
-  <si>
-    <t>A145</t>
-  </si>
-  <si>
-    <t>09407</t>
-  </si>
-  <si>
-    <t>A146</t>
-  </si>
-  <si>
-    <t>A147</t>
-  </si>
-  <si>
-    <t>08555</t>
-  </si>
-  <si>
-    <t>A148</t>
-  </si>
-  <si>
-    <t>08545</t>
-  </si>
-  <si>
-    <t>A149</t>
-  </si>
-  <si>
-    <t>08563</t>
-  </si>
-  <si>
-    <t>A150</t>
-  </si>
-  <si>
-    <t>08998</t>
-  </si>
-  <si>
-    <t>A151</t>
-  </si>
-  <si>
-    <t>08584</t>
-  </si>
-  <si>
-    <t>A152</t>
-  </si>
-  <si>
-    <t>08553</t>
-  </si>
-  <si>
-    <t>A153</t>
-  </si>
-  <si>
-    <t>A154</t>
-  </si>
-  <si>
-    <t>A155</t>
-  </si>
-  <si>
-    <t>A156</t>
-  </si>
-  <si>
-    <t>A157</t>
-  </si>
-  <si>
-    <t>A158</t>
-  </si>
-  <si>
-    <t>A159</t>
-  </si>
-  <si>
-    <t>A160</t>
-  </si>
-  <si>
-    <t>A161</t>
-  </si>
-  <si>
-    <t>A162</t>
-  </si>
-  <si>
-    <t>A163</t>
-  </si>
-  <si>
-    <t>A164</t>
-  </si>
-  <si>
-    <t>A165</t>
-  </si>
-  <si>
-    <t>A166</t>
-  </si>
-  <si>
-    <t>A167</t>
-  </si>
-  <si>
-    <t>A168</t>
-  </si>
-  <si>
-    <t>A169</t>
-  </si>
-  <si>
-    <t>A170</t>
-  </si>
-  <si>
-    <t>A171</t>
-  </si>
-  <si>
-    <t>A172</t>
-  </si>
-  <si>
-    <t>08965</t>
-  </si>
-  <si>
-    <t>08953</t>
-  </si>
-  <si>
-    <t>08576</t>
-  </si>
-  <si>
-    <t>09417</t>
-  </si>
-  <si>
-    <t>09387</t>
-  </si>
-  <si>
-    <t>08565</t>
-  </si>
-  <si>
-    <t>0678/0694</t>
-  </si>
-  <si>
-    <t>08986</t>
-  </si>
-  <si>
-    <t>08993</t>
-  </si>
-  <si>
-    <t>08578</t>
-  </si>
-  <si>
-    <t>08551</t>
-  </si>
-  <si>
-    <t>08954</t>
-  </si>
-  <si>
-    <t>08937</t>
-  </si>
-  <si>
-    <t>A173</t>
-  </si>
-  <si>
-    <t>A174</t>
-  </si>
-  <si>
-    <t>A175</t>
-  </si>
-  <si>
-    <t>A176</t>
-  </si>
-  <si>
-    <t>A177</t>
-  </si>
-  <si>
-    <t>A178</t>
-  </si>
-  <si>
-    <t>A179</t>
-  </si>
-  <si>
-    <t>A180</t>
-  </si>
-  <si>
-    <t>A181</t>
-  </si>
-  <si>
-    <t>08995</t>
-  </si>
-  <si>
-    <t>08549</t>
-  </si>
-  <si>
-    <t>08975</t>
-  </si>
-  <si>
-    <t>A182</t>
-  </si>
-  <si>
-    <t>A183</t>
-  </si>
-  <si>
-    <t>A184</t>
-  </si>
-  <si>
-    <t>A185</t>
-  </si>
-  <si>
-    <t>A186</t>
-  </si>
-  <si>
-    <t>A187</t>
-  </si>
-  <si>
-    <t>A188</t>
-  </si>
-  <si>
-    <t>A189</t>
-  </si>
-  <si>
-    <t>A190</t>
-  </si>
-  <si>
-    <t>A191</t>
-  </si>
-  <si>
-    <t>A192</t>
-  </si>
-  <si>
-    <t>A193</t>
-  </si>
-  <si>
-    <t>A194</t>
-  </si>
-  <si>
-    <t>A195</t>
-  </si>
-  <si>
-    <t>A196</t>
-  </si>
-  <si>
-    <t>A197</t>
-  </si>
-  <si>
-    <t>A198</t>
-  </si>
-  <si>
-    <t>A199</t>
-  </si>
-  <si>
-    <t>A200</t>
-  </si>
-  <si>
-    <t>A201</t>
-  </si>
-  <si>
-    <t>A202</t>
-  </si>
-  <si>
-    <t>A203</t>
-  </si>
-  <si>
-    <t>A204</t>
-  </si>
-  <si>
-    <t>A205</t>
-  </si>
-  <si>
-    <t>A206</t>
-  </si>
-  <si>
-    <t>A207</t>
-  </si>
-  <si>
-    <t>A208</t>
-  </si>
-  <si>
-    <t>A209</t>
-  </si>
-  <si>
-    <t>A210</t>
-  </si>
-  <si>
-    <t>A211</t>
-  </si>
-  <si>
-    <t>A212</t>
-  </si>
-  <si>
-    <t>09377</t>
-  </si>
-  <si>
-    <t>09409</t>
-  </si>
-  <si>
-    <t>08960</t>
-  </si>
-  <si>
-    <t>09412</t>
-  </si>
-  <si>
-    <t>09416</t>
-  </si>
-  <si>
-    <t>09388</t>
-  </si>
-  <si>
-    <t>08989</t>
-  </si>
-  <si>
-    <t>09406</t>
-  </si>
-  <si>
-    <t>09398</t>
-  </si>
-  <si>
-    <t>08973</t>
-  </si>
-  <si>
-    <t>A213</t>
-  </si>
-  <si>
-    <t>A214</t>
-  </si>
-  <si>
-    <t>A215</t>
-  </si>
-  <si>
-    <t>A216</t>
-  </si>
-  <si>
-    <t>A217</t>
-  </si>
-  <si>
-    <t>A218</t>
-  </si>
-  <si>
-    <t>A219</t>
-  </si>
-  <si>
-    <t>A220</t>
-  </si>
-  <si>
-    <t>A221</t>
-  </si>
-  <si>
-    <t>A222</t>
-  </si>
-  <si>
-    <t>A223</t>
-  </si>
-  <si>
-    <t>A224</t>
-  </si>
-  <si>
-    <t>A225</t>
-  </si>
-  <si>
-    <t>A226</t>
-  </si>
-  <si>
-    <t>A227</t>
-  </si>
-  <si>
-    <t>A228</t>
-  </si>
-  <si>
-    <t>A229</t>
-  </si>
-  <si>
-    <t>A230</t>
-  </si>
-  <si>
-    <t>A231</t>
-  </si>
-  <si>
-    <t>A232</t>
-  </si>
-  <si>
-    <t>A233</t>
-  </si>
-  <si>
-    <t>A234</t>
-  </si>
-  <si>
-    <t>A235</t>
-  </si>
-  <si>
-    <t>A236</t>
-  </si>
-  <si>
-    <t>A237</t>
-  </si>
-  <si>
-    <t>A238</t>
-  </si>
-  <si>
-    <t>A239</t>
-  </si>
-  <si>
-    <t>A240</t>
-  </si>
-  <si>
-    <t>A241</t>
-  </si>
-  <si>
-    <t>A242</t>
-  </si>
-  <si>
-    <t>A243</t>
-  </si>
-  <si>
-    <t>A244</t>
-  </si>
-  <si>
-    <t>A245</t>
-  </si>
-  <si>
-    <t>09400</t>
-  </si>
-  <si>
-    <t>08958</t>
-  </si>
-  <si>
-    <t>08983</t>
-  </si>
-  <si>
-    <t>09379</t>
-  </si>
-  <si>
-    <t>08985</t>
-  </si>
-  <si>
-    <t>09376</t>
-  </si>
-  <si>
-    <t>09415</t>
-  </si>
-  <si>
-    <t>08581</t>
-  </si>
-  <si>
-    <t>09370</t>
-  </si>
-  <si>
-    <t>09394</t>
-  </si>
-  <si>
-    <t>09391</t>
-  </si>
-  <si>
-    <t>09389</t>
-  </si>
-  <si>
-    <t>08557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GILT </t>
-  </si>
-  <si>
-    <t>09373</t>
-  </si>
-  <si>
-    <t>08959</t>
-  </si>
-  <si>
-    <t>08970</t>
-  </si>
-  <si>
-    <t>08952</t>
-  </si>
-  <si>
-    <t>W0478</t>
-  </si>
-  <si>
-    <t>A246</t>
-  </si>
-  <si>
-    <t>A247</t>
-  </si>
-  <si>
-    <t>A248</t>
-  </si>
-  <si>
-    <t>A249</t>
-  </si>
-  <si>
-    <t>A250</t>
-  </si>
-  <si>
-    <t>A251</t>
-  </si>
-  <si>
-    <t>A252</t>
-  </si>
-  <si>
-    <t>A253</t>
-  </si>
-  <si>
-    <t>A254</t>
-  </si>
-  <si>
-    <t>A255</t>
-  </si>
-  <si>
-    <t>A256</t>
-  </si>
-  <si>
-    <t>A257</t>
-  </si>
-  <si>
-    <t>A258</t>
-  </si>
-  <si>
-    <t>A259</t>
-  </si>
-  <si>
-    <t>A260</t>
-  </si>
-  <si>
-    <t>A261</t>
-  </si>
-  <si>
-    <t>A262</t>
-  </si>
-  <si>
-    <t>A263</t>
-  </si>
-  <si>
-    <t>A264</t>
-  </si>
-  <si>
-    <t>A265</t>
-  </si>
-  <si>
-    <t>A266</t>
-  </si>
-  <si>
-    <t>A267</t>
-  </si>
-  <si>
-    <t>A268</t>
-  </si>
-  <si>
-    <t>A269</t>
-  </si>
-  <si>
-    <t>A270</t>
-  </si>
-  <si>
-    <t>A271</t>
-  </si>
-  <si>
-    <t>A272</t>
-  </si>
-  <si>
-    <t>A273</t>
-  </si>
-  <si>
-    <t>A274</t>
-  </si>
-  <si>
-    <t>A275</t>
-  </si>
-  <si>
-    <t>A276</t>
-  </si>
-  <si>
-    <t>A277</t>
-  </si>
-  <si>
-    <t>A278</t>
-  </si>
-  <si>
-    <t>A279</t>
-  </si>
-  <si>
-    <t>A280</t>
-  </si>
-  <si>
-    <t>A281</t>
-  </si>
-  <si>
-    <t>A282</t>
-  </si>
-  <si>
-    <t>A283</t>
-  </si>
-  <si>
-    <t>A284</t>
-  </si>
-  <si>
-    <t>A285</t>
-  </si>
-  <si>
-    <t>A286</t>
-  </si>
-  <si>
-    <t>A287</t>
-  </si>
-  <si>
-    <t>A288</t>
-  </si>
-  <si>
-    <t>A289</t>
-  </si>
-  <si>
-    <t>A290</t>
-  </si>
-  <si>
-    <t>A291</t>
-  </si>
-  <si>
-    <t>A292</t>
-  </si>
-  <si>
-    <t>A293</t>
-  </si>
-  <si>
-    <t>A294</t>
-  </si>
-  <si>
-    <t>A295</t>
-  </si>
-  <si>
-    <t>A296</t>
-  </si>
-  <si>
-    <t>A297</t>
-  </si>
-  <si>
-    <t>A298</t>
-  </si>
-  <si>
-    <t>A299</t>
-  </si>
-  <si>
-    <t>A300</t>
-  </si>
-  <si>
-    <t>A301</t>
-  </si>
-  <si>
-    <t>A302</t>
-  </si>
-  <si>
-    <t>A303</t>
-  </si>
-  <si>
-    <t>A304</t>
-  </si>
-  <si>
-    <t>A305</t>
-  </si>
-  <si>
-    <t>A306</t>
-  </si>
-  <si>
-    <t>A307</t>
-  </si>
-  <si>
-    <t>A308</t>
-  </si>
-  <si>
-    <t>A309</t>
-  </si>
-  <si>
-    <t>A310</t>
-  </si>
-  <si>
-    <t>A311</t>
-  </si>
-  <si>
-    <t>A312</t>
-  </si>
-  <si>
-    <t>A313</t>
-  </si>
-  <si>
-    <t>A314</t>
-  </si>
-  <si>
-    <t>A315</t>
-  </si>
-  <si>
-    <t>A316</t>
-  </si>
-  <si>
-    <t>A317</t>
-  </si>
-  <si>
-    <t>A318</t>
-  </si>
-  <si>
-    <t>A319</t>
-  </si>
-  <si>
-    <t>A320</t>
-  </si>
-  <si>
-    <t>08956</t>
-  </si>
-  <si>
-    <t>08380</t>
-  </si>
-  <si>
-    <t>09410</t>
-  </si>
-  <si>
-    <t>09386</t>
-  </si>
-  <si>
-    <t>09395</t>
-  </si>
-  <si>
-    <t>08559</t>
-  </si>
-  <si>
-    <t>08540</t>
-  </si>
-  <si>
-    <t>GOOD</t>
-  </si>
-  <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
-    <t>BELOW AVERAGE</t>
-  </si>
-  <si>
-    <t>VERY GOOD</t>
-  </si>
-  <si>
-    <t>RB(-)</t>
-  </si>
-  <si>
-    <t>REJECT</t>
-  </si>
-  <si>
-    <t>BAD</t>
-  </si>
-  <si>
-    <t>EXCELLENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>Cull</t>
-  </si>
-  <si>
-    <t>Diseased</t>
-  </si>
-  <si>
-    <t>09384</t>
-  </si>
-  <si>
-    <t>08955</t>
-  </si>
-  <si>
-    <t>08972</t>
-  </si>
-  <si>
-    <t>08949</t>
-  </si>
-  <si>
-    <t>09408</t>
-  </si>
-  <si>
-    <t>08413</t>
-  </si>
-  <si>
-    <t>09371</t>
-  </si>
-  <si>
-    <t>08974</t>
-  </si>
-  <si>
-    <t>09382</t>
-  </si>
-  <si>
-    <t>0694/V0542</t>
-  </si>
-  <si>
-    <t>09392</t>
-  </si>
-  <si>
-    <t>08997</t>
-  </si>
-  <si>
-    <t>09404</t>
-  </si>
-  <si>
-    <t>Mortality</t>
-  </si>
-  <si>
-    <t>Past candidate for reject</t>
-  </si>
-  <si>
-    <t>09381</t>
-  </si>
-  <si>
-    <t>09401</t>
-  </si>
-  <si>
-    <t>09402</t>
-  </si>
-  <si>
-    <t>A321</t>
-  </si>
-  <si>
-    <t>A322</t>
-  </si>
-  <si>
-    <t>A323</t>
-  </si>
-  <si>
-    <t>A324</t>
-  </si>
-  <si>
-    <t>A325</t>
-  </si>
-  <si>
-    <t>A326</t>
-  </si>
-  <si>
-    <t>A327</t>
-  </si>
-  <si>
-    <t>A328</t>
-  </si>
-  <si>
-    <t>A329</t>
-  </si>
-  <si>
-    <t>A330</t>
-  </si>
-  <si>
-    <t>A331</t>
-  </si>
-  <si>
-    <t>A332</t>
-  </si>
-  <si>
-    <t>A333</t>
-  </si>
-  <si>
-    <t>A334</t>
-  </si>
-  <si>
-    <t>A335</t>
-  </si>
-  <si>
-    <t>A336</t>
-  </si>
-  <si>
-    <t>A337</t>
-  </si>
-  <si>
-    <t>A338</t>
-  </si>
-  <si>
-    <t>A339</t>
-  </si>
-  <si>
-    <t>A340</t>
-  </si>
-  <si>
-    <t>BELOW AVERAGE FOURCE DRY</t>
-  </si>
-  <si>
-    <t>FOURCE DRY FOURCE DRY</t>
+    <t>08971</t>
+  </si>
+  <si>
+    <t>09368</t>
+  </si>
+  <si>
+    <t>0678/0695</t>
+  </si>
+  <si>
+    <t>0678/W0478</t>
+  </si>
+  <si>
+    <t>0678/W0479</t>
+  </si>
+  <si>
+    <t>A371</t>
+  </si>
+  <si>
+    <t>A372</t>
+  </si>
+  <si>
+    <t>A373</t>
+  </si>
+  <si>
+    <t>A374</t>
+  </si>
+  <si>
+    <t>A375</t>
+  </si>
+  <si>
+    <t>A376</t>
+  </si>
+  <si>
+    <t>A377</t>
+  </si>
+  <si>
+    <t>A378</t>
+  </si>
+  <si>
+    <t>A379</t>
+  </si>
+  <si>
+    <t>A380</t>
+  </si>
+  <si>
+    <t>A381</t>
+  </si>
+  <si>
+    <t>A382</t>
+  </si>
+  <si>
+    <t>A383</t>
+  </si>
+  <si>
+    <t>A384</t>
+  </si>
+  <si>
+    <t>A385</t>
+  </si>
+  <si>
+    <t>A386</t>
+  </si>
+  <si>
+    <t>A387</t>
+  </si>
+  <si>
+    <t>A388</t>
+  </si>
+  <si>
+    <t>A389</t>
+  </si>
+  <si>
+    <t>A390</t>
+  </si>
+  <si>
+    <t>A391</t>
+  </si>
+  <si>
+    <t>A392</t>
+  </si>
+  <si>
+    <t>A393</t>
+  </si>
+  <si>
+    <t>A394</t>
+  </si>
+  <si>
+    <t>A395</t>
+  </si>
+  <si>
+    <t>A396</t>
+  </si>
+  <si>
+    <t>A397</t>
+  </si>
+  <si>
+    <t>A398</t>
+  </si>
+  <si>
+    <t>A399</t>
+  </si>
+  <si>
+    <t>A400</t>
+  </si>
+  <si>
+    <t>A401</t>
+  </si>
+  <si>
+    <t>A402</t>
+  </si>
+  <si>
+    <t>A403</t>
+  </si>
+  <si>
+    <t>A404</t>
+  </si>
+  <si>
+    <t>A405</t>
+  </si>
+  <si>
+    <t>A406</t>
+  </si>
+  <si>
+    <t>A407</t>
+  </si>
+  <si>
+    <t>A408</t>
+  </si>
+  <si>
+    <t>A409</t>
+  </si>
+  <si>
+    <t>A410</t>
+  </si>
+  <si>
+    <t>A411</t>
+  </si>
+  <si>
+    <t>A412</t>
+  </si>
+  <si>
+    <t>A413</t>
+  </si>
+  <si>
+    <t>A414</t>
+  </si>
+  <si>
+    <t>A415</t>
+  </si>
+  <si>
+    <t>A416</t>
+  </si>
+  <si>
+    <t>A417</t>
+  </si>
+  <si>
+    <t>A418</t>
+  </si>
+  <si>
+    <t>A419</t>
+  </si>
+  <si>
+    <t>A420</t>
+  </si>
+  <si>
+    <t>A421</t>
+  </si>
+  <si>
+    <t>A422</t>
+  </si>
+  <si>
+    <t>A423</t>
+  </si>
+  <si>
+    <t>A424</t>
+  </si>
+  <si>
+    <t>A425</t>
+  </si>
+  <si>
+    <t>A426</t>
+  </si>
+  <si>
+    <t>A427</t>
+  </si>
+  <si>
+    <t>09372</t>
+  </si>
+  <si>
+    <t>V0542</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +2126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1882,6 +2167,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2065,8 +2364,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="BreedingTable" displayName="BreedingTable" ref="A1:R357">
-  <autoFilter ref="A1:R357">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="BreedingTable" displayName="BreedingTable" ref="A1:R444">
+  <autoFilter ref="A1:R444">
     <filterColumn colId="1"/>
     <filterColumn colId="17"/>
   </autoFilter>
@@ -2381,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R357"/>
+  <dimension ref="A1:R444"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2462,7 +2761,7 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
@@ -2705,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
@@ -2750,7 +3049,7 @@
         <v>10</v>
       </c>
       <c r="Q9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
@@ -2795,7 +3094,7 @@
         <v>7</v>
       </c>
       <c r="Q10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
@@ -2837,7 +3136,7 @@
         <v>4</v>
       </c>
       <c r="Q11" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
@@ -2883,10 +3182,10 @@
         <v>11</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
@@ -2928,13 +3227,13 @@
         <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P13">
         <v>8</v>
       </c>
       <c r="Q13" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1">
@@ -2979,7 +3278,7 @@
         <v>12</v>
       </c>
       <c r="Q14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1">
@@ -3024,7 +3323,7 @@
         <v>7</v>
       </c>
       <c r="Q15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1">
@@ -3066,13 +3365,13 @@
         <v>50</v>
       </c>
       <c r="O16" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P16">
         <v>5</v>
       </c>
       <c r="Q16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1">
@@ -3117,7 +3416,7 @@
         <v>7</v>
       </c>
       <c r="Q17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3162,7 +3461,7 @@
         <v>12</v>
       </c>
       <c r="Q18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3244,10 +3543,10 @@
         <v>8</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1">
@@ -3292,7 +3591,7 @@
         <v>7</v>
       </c>
       <c r="Q21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3337,7 +3636,7 @@
         <v>6</v>
       </c>
       <c r="Q22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3415,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="Q24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1">
@@ -3451,7 +3750,7 @@
         <v>30</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1">
@@ -3484,7 +3783,7 @@
         <v>43071</v>
       </c>
       <c r="Q26" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
@@ -3562,13 +3861,13 @@
         <v>32</v>
       </c>
       <c r="O28" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P28">
         <v>12</v>
       </c>
       <c r="Q28" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1">
@@ -3613,7 +3912,7 @@
         <v>12</v>
       </c>
       <c r="Q29" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
@@ -3658,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="Q30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1">
@@ -3703,7 +4002,7 @@
         <v>8</v>
       </c>
       <c r="Q31" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1">
@@ -3748,7 +4047,7 @@
         <v>12</v>
       </c>
       <c r="Q32" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3793,7 +4092,7 @@
         <v>8</v>
       </c>
       <c r="Q33" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -4100,7 +4399,7 @@
         <v>43087</v>
       </c>
       <c r="R42" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4409,7 +4708,7 @@
         <v>9</v>
       </c>
       <c r="Q51" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -4487,7 +4786,7 @@
         <v>9</v>
       </c>
       <c r="Q53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4532,7 +4831,7 @@
         <v>11</v>
       </c>
       <c r="Q54" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4577,7 +4876,7 @@
         <v>8</v>
       </c>
       <c r="Q55" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4652,13 +4951,13 @@
         <v>86</v>
       </c>
       <c r="O57" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P57">
         <v>9</v>
       </c>
       <c r="Q57" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4736,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="Q59" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4781,7 +5080,7 @@
         <v>10</v>
       </c>
       <c r="Q60" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4862,7 +5161,7 @@
         <v>13</v>
       </c>
       <c r="Q62" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4973,13 +5272,13 @@
         <v>94</v>
       </c>
       <c r="O65" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P65">
         <v>9</v>
       </c>
       <c r="Q65" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5021,7 +5320,7 @@
         <v>4</v>
       </c>
       <c r="Q66" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5063,13 +5362,13 @@
         <v>97</v>
       </c>
       <c r="O67" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P67">
         <v>3</v>
       </c>
       <c r="Q67" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5109,13 +5408,13 @@
         <v>95</v>
       </c>
       <c r="O68" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P68">
         <v>4</v>
       </c>
       <c r="Q68" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="R68" s="16"/>
     </row>
@@ -5161,7 +5460,7 @@
         <v>10</v>
       </c>
       <c r="Q69" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5269,7 +5568,7 @@
         <v>14</v>
       </c>
       <c r="Q72" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5443,7 +5742,7 @@
         <v>8</v>
       </c>
       <c r="Q77" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5488,7 +5787,7 @@
         <v>12</v>
       </c>
       <c r="Q78" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5533,7 +5832,7 @@
         <v>8</v>
       </c>
       <c r="Q79" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5605,13 +5904,13 @@
         <v>104</v>
       </c>
       <c r="O81" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P81">
         <v>6</v>
       </c>
       <c r="Q81" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5653,13 +5952,13 @@
         <v>106</v>
       </c>
       <c r="O82" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P82">
         <v>11</v>
       </c>
       <c r="Q82" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5704,7 +6003,7 @@
         <v>11</v>
       </c>
       <c r="Q83" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5935,13 +6234,13 @@
         <v>118</v>
       </c>
       <c r="O90" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P90">
         <v>17</v>
       </c>
       <c r="Q90" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -6022,7 +6321,7 @@
         <v>13</v>
       </c>
       <c r="Q92" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -6100,7 +6399,7 @@
         <v>7</v>
       </c>
       <c r="Q94" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -6145,7 +6444,7 @@
         <v>9</v>
       </c>
       <c r="Q95" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -6187,13 +6486,13 @@
         <v>135</v>
       </c>
       <c r="O96" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P96">
         <v>7</v>
       </c>
       <c r="Q96" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6238,7 +6537,7 @@
         <v>12</v>
       </c>
       <c r="Q97" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6280,13 +6579,13 @@
         <v>149</v>
       </c>
       <c r="O98" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6331,7 +6630,7 @@
         <v>6</v>
       </c>
       <c r="Q99" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6373,13 +6672,13 @@
         <v>153</v>
       </c>
       <c r="O100" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P100">
         <v>12</v>
       </c>
       <c r="Q100" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6424,7 +6723,7 @@
         <v>8</v>
       </c>
       <c r="Q101" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6500,7 +6799,7 @@
         <v>7</v>
       </c>
       <c r="Q103" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6611,13 +6910,13 @@
         <v>174</v>
       </c>
       <c r="O106" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P106">
         <v>11</v>
       </c>
       <c r="Q106" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6695,7 +6994,7 @@
         <v>7</v>
       </c>
       <c r="Q108" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -6773,7 +7072,7 @@
         <v>11</v>
       </c>
       <c r="Q110" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -6806,7 +7105,7 @@
         <v>113</v>
       </c>
       <c r="R111" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -6881,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="Q113" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="15" customHeight="1">
@@ -6959,7 +7258,7 @@
         <v>6</v>
       </c>
       <c r="Q115" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="116" spans="1:18" ht="15" customHeight="1">
@@ -7004,7 +7303,7 @@
         <v>13</v>
       </c>
       <c r="Q116" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="15" customHeight="1">
@@ -7049,7 +7348,7 @@
         <v>1</v>
       </c>
       <c r="Q117" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="1:18" ht="15" customHeight="1">
@@ -7097,7 +7396,7 @@
         <v>5</v>
       </c>
       <c r="Q118" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="15" customHeight="1">
@@ -7139,13 +7438,13 @@
         <v>186</v>
       </c>
       <c r="O119" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P119">
         <v>13</v>
       </c>
       <c r="Q119" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7187,7 +7486,7 @@
         <v>15</v>
       </c>
       <c r="Q120" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7230,7 +7529,7 @@
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7273,7 +7572,7 @@
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7319,7 +7618,7 @@
         <v>7</v>
       </c>
       <c r="Q123" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7365,7 +7664,7 @@
         <v>8</v>
       </c>
       <c r="Q124" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7451,7 +7750,7 @@
         <v>6</v>
       </c>
       <c r="Q126" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7497,7 +7796,7 @@
         <v>3</v>
       </c>
       <c r="Q127" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7543,7 +7842,7 @@
         <v>5</v>
       </c>
       <c r="Q128" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -7589,7 +7888,7 @@
         <v>3</v>
       </c>
       <c r="Q129" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -7635,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="Q130" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -7873,7 +8172,7 @@
         <v>8</v>
       </c>
       <c r="Q136" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -7919,7 +8218,7 @@
         <v>7</v>
       </c>
       <c r="Q137" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -8003,7 +8302,7 @@
         <v>11</v>
       </c>
       <c r="Q139" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -8049,7 +8348,7 @@
         <v>6</v>
       </c>
       <c r="Q140" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -8095,7 +8394,7 @@
         <v>11</v>
       </c>
       <c r="Q141" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -8141,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="Q142" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -8187,7 +8486,7 @@
         <v>8</v>
       </c>
       <c r="Q143" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -8233,7 +8532,7 @@
         <v>10</v>
       </c>
       <c r="Q144" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8279,7 +8578,7 @@
         <v>10</v>
       </c>
       <c r="Q145" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8287,7 +8586,7 @@
         <v>272</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>273</v>
+        <v>616</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>19</v>
@@ -8325,15 +8624,15 @@
         <v>5</v>
       </c>
       <c r="Q146" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B147" s="22" t="s">
         <v>274</v>
-      </c>
-      <c r="B147" s="22" t="s">
-        <v>275</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>19</v>
@@ -8371,15 +8670,15 @@
         <v>12</v>
       </c>
       <c r="Q147" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>19</v>
@@ -8413,12 +8712,12 @@
         <v>12</v>
       </c>
       <c r="Q148" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="149" spans="1:18">
       <c r="A149" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B149" s="22" t="s">
         <v>158</v>
@@ -8453,24 +8752,24 @@
       </c>
       <c r="N149" s="4"/>
       <c r="O149" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P149" s="4">
         <v>14</v>
       </c>
       <c r="Q149" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="R149" s="19" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="150" spans="1:18">
       <c r="A150" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>19</v>
@@ -8505,10 +8804,10 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B151" s="22" t="s">
         <v>281</v>
-      </c>
-      <c r="B151" s="22" t="s">
-        <v>282</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>19</v>
@@ -8546,12 +8845,12 @@
         <v>8</v>
       </c>
       <c r="Q151" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="152" spans="1:18">
       <c r="A152" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B152" s="22" t="s">
         <v>180</v>
@@ -8568,7 +8867,7 @@
         <v>20</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I152" s="5" t="s">
         <v>56</v>
@@ -8592,12 +8891,12 @@
         <v>11</v>
       </c>
       <c r="Q152" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="153" spans="1:18">
       <c r="A153" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B153" s="22" t="s">
         <v>72</v>
@@ -8632,18 +8931,18 @@
       </c>
       <c r="N153" s="4"/>
       <c r="O153" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="P153" s="4">
         <v>11</v>
       </c>
       <c r="Q153" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="154" spans="1:18">
       <c r="A154" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B154" s="22" t="s">
         <v>184</v>
@@ -8678,21 +8977,21 @@
       </c>
       <c r="N154" s="4"/>
       <c r="O154" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P154" s="4">
         <v>12</v>
       </c>
       <c r="Q154" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="1:18">
       <c r="A155" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B155" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="B155" s="22" t="s">
-        <v>287</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>19</v>
@@ -8728,15 +9027,15 @@
         <v>10</v>
       </c>
       <c r="Q155" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B156" s="22" t="s">
         <v>288</v>
-      </c>
-      <c r="B156" s="22" t="s">
-        <v>289</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>19</v>
@@ -8772,15 +9071,15 @@
         <v>9</v>
       </c>
       <c r="Q156" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="157" spans="1:18">
       <c r="A157" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>19</v>
@@ -8815,10 +9114,10 @@
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>19</v>
@@ -8853,10 +9152,10 @@
     </row>
     <row r="159" spans="1:18">
       <c r="A159" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B159" s="22" t="s">
         <v>294</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>19</v>
@@ -8883,18 +9182,24 @@
         <f>[Date Breed]+114</f>
         <v>43182</v>
       </c>
-      <c r="M159" s="4"/>
+      <c r="M159" s="21">
+        <v>43184</v>
+      </c>
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
-      <c r="Q159" s="4"/>
+      <c r="P159" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q159" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="160" spans="1:18">
       <c r="A160" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B160" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>19</v>
@@ -8921,18 +9226,24 @@
         <f>[Date Breed]+114</f>
         <v>43183</v>
       </c>
-      <c r="M160" s="4"/>
+      <c r="M160" s="21">
+        <v>43184</v>
+      </c>
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
-      <c r="P160" s="4"/>
-      <c r="Q160" s="4"/>
+      <c r="P160" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q160" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="161" spans="1:18">
       <c r="A161" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B161" s="22" t="s">
         <v>298</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>19</v>
@@ -8959,18 +9270,24 @@
         <f>[Date Breed]+114</f>
         <v>43184</v>
       </c>
-      <c r="M161" s="4"/>
+      <c r="M161" s="21">
+        <v>43185</v>
+      </c>
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
-      <c r="P161" s="4"/>
-      <c r="Q161" s="4"/>
+      <c r="P161" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q161" s="4" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="162" spans="1:18">
       <c r="A162" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B162" s="22" t="s">
         <v>300</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>19</v>
@@ -8997,17 +9314,23 @@
         <f>[Date Breed]+114</f>
         <v>43185</v>
       </c>
-      <c r="M162" s="4"/>
+      <c r="M162" s="21">
+        <v>43189</v>
+      </c>
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
-      <c r="P162" s="4"/>
-      <c r="Q162" s="4"/>
+      <c r="P162" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q162" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="163" spans="1:18">
       <c r="A163" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B163" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B163" s="22" t="s">
         <v>257</v>
       </c>
       <c r="C163" s="4" t="s">
@@ -9035,22 +9358,28 @@
         <f>[Date Breed]+114</f>
         <v>43186</v>
       </c>
-      <c r="M163" s="4"/>
+      <c r="M163" s="21">
+        <v>43186</v>
+      </c>
       <c r="N163" s="4" t="s">
         <v>256</v>
       </c>
       <c r="O163" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="P163" s="4"/>
-      <c r="Q163" s="4"/>
+        <v>537</v>
+      </c>
+      <c r="P163" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q163" s="4" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B164" s="22" t="s">
         <v>303</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>19</v>
@@ -9077,18 +9406,24 @@
         <f>[Date Breed]+114</f>
         <v>43186</v>
       </c>
-      <c r="M164" s="4"/>
+      <c r="M164" s="21">
+        <v>43187</v>
+      </c>
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
+      <c r="P164" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q164" s="4" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B165" s="22" t="s">
         <v>305</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>19</v>
@@ -9115,18 +9450,24 @@
         <f>[Date Breed]+114</f>
         <v>43188</v>
       </c>
-      <c r="M165" s="4"/>
+      <c r="M165" s="21">
+        <v>43194</v>
+      </c>
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>
-      <c r="P165" s="4"/>
-      <c r="Q165" s="4"/>
+      <c r="P165" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="4" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="166" spans="1:18">
       <c r="A166" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B166" s="22" t="s">
         <v>307</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>19</v>
@@ -9145,26 +9486,32 @@
       <c r="I166" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J166" s="15" t="s">
-        <v>22</v>
+      <c r="J166" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8">
         <f>[Date Breed]+114</f>
         <v>43188</v>
       </c>
-      <c r="M166" s="4"/>
+      <c r="M166" s="21">
+        <v>43191</v>
+      </c>
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
-      <c r="P166" s="4"/>
-      <c r="Q166" s="4"/>
+      <c r="P166" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q166" s="4" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>19</v>
@@ -9183,7 +9530,7 @@
       <c r="I167" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J167" s="9" t="s">
+      <c r="J167" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K167" s="8"/>
@@ -9199,10 +9546,10 @@
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>19</v>
@@ -9221,7 +9568,7 @@
       <c r="I168" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J168" s="9" t="s">
+      <c r="J168" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K168" s="8"/>
@@ -9237,10 +9584,10 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>19</v>
@@ -9275,10 +9622,10 @@
     </row>
     <row r="170" spans="1:18">
       <c r="A170" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>335</v>
+        <v>314</v>
+      </c>
+      <c r="B170" s="22" t="s">
+        <v>334</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>19</v>
@@ -9305,18 +9652,24 @@
         <f>[Date Breed]+114</f>
         <v>43191</v>
       </c>
-      <c r="M170" s="4"/>
+      <c r="M170" s="21">
+        <v>43192</v>
+      </c>
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
-      <c r="P170" s="4"/>
-      <c r="Q170" s="4"/>
+      <c r="P170" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q170" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="171" spans="1:18">
       <c r="A171" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>336</v>
+        <v>315</v>
+      </c>
+      <c r="B171" s="22" t="s">
+        <v>335</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>19</v>
@@ -9343,18 +9696,24 @@
         <f>[Date Breed]+114</f>
         <v>43192</v>
       </c>
-      <c r="M171" s="4"/>
+      <c r="M171" s="21">
+        <v>43192</v>
+      </c>
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
-      <c r="P171" s="4"/>
-      <c r="Q171" s="4"/>
+      <c r="P171" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q171" s="4" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="172" spans="1:18">
       <c r="A172" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>19</v>
@@ -9381,18 +9740,24 @@
         <f>[Date Breed]+114</f>
         <v>43192</v>
       </c>
-      <c r="M172" s="4"/>
+      <c r="M172" s="21">
+        <v>43197</v>
+      </c>
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
-      <c r="P172" s="4"/>
-      <c r="Q172" s="4"/>
+      <c r="P172" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q172" s="4" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="173" spans="1:18">
       <c r="A173" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>338</v>
+        <v>317</v>
+      </c>
+      <c r="B173" s="22" t="s">
+        <v>337</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>19</v>
@@ -9419,15 +9784,21 @@
         <f>[Date Breed]+114</f>
         <v>43192</v>
       </c>
-      <c r="M173" s="4"/>
+      <c r="M173" s="21">
+        <v>43194</v>
+      </c>
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
-      <c r="P173" s="4"/>
-      <c r="Q173" s="4"/>
+      <c r="P173" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q173" s="4" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="174" spans="1:18">
       <c r="A174" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>123</v>
@@ -9463,15 +9834,15 @@
       <c r="P174" s="4"/>
       <c r="Q174" s="4"/>
       <c r="R174" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="175" spans="1:18">
       <c r="A175" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>339</v>
+        <v>319</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>338</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>19</v>
@@ -9498,18 +9869,24 @@
         <f>[Date Breed]+114</f>
         <v>43194</v>
       </c>
-      <c r="M175" s="4"/>
+      <c r="M175" s="21">
+        <v>43193</v>
+      </c>
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
-      <c r="P175" s="4"/>
-      <c r="Q175" s="4"/>
+      <c r="P175" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q175" s="4" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="176" spans="1:18">
       <c r="A176" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>19</v>
@@ -9536,17 +9913,23 @@
         <f>[Date Breed]+114</f>
         <v>43194</v>
       </c>
-      <c r="M176" s="4"/>
+      <c r="M176" s="21">
+        <v>43196</v>
+      </c>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
-      <c r="P176" s="4"/>
-      <c r="Q176" s="4"/>
+      <c r="P176" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q176" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="177" spans="1:17">
       <c r="A177" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B177" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B177" s="22" t="s">
         <v>249</v>
       </c>
       <c r="C177" s="4" t="s">
@@ -9574,21 +9957,27 @@
         <f>[Date Breed]+114</f>
         <v>43194</v>
       </c>
-      <c r="M177" s="4"/>
+      <c r="M177" s="21">
+        <v>43198</v>
+      </c>
       <c r="N177" s="4" t="s">
         <v>248</v>
       </c>
       <c r="O177" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="P177" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q177" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="P177" s="4"/>
-      <c r="Q177" s="4"/>
     </row>
     <row r="178" spans="1:17">
       <c r="A178" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B178" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B178" s="22" t="s">
         <v>246</v>
       </c>
       <c r="C178" s="4" t="s">
@@ -9616,17 +10005,23 @@
         <f>[Date Breed]+114</f>
         <v>43195</v>
       </c>
-      <c r="M178" s="4"/>
+      <c r="M178" s="21">
+        <v>43195</v>
+      </c>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
-      <c r="P178" s="4"/>
-      <c r="Q178" s="4"/>
+      <c r="P178" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q178" s="4" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="179" spans="1:17">
       <c r="A179" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B179" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B179" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C179" s="4" t="s">
@@ -9641,7 +10036,7 @@
         <v>20</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I179" s="5" t="s">
         <v>56</v>
@@ -9654,15 +10049,21 @@
         <f>[Date Breed]+114</f>
         <v>43196</v>
       </c>
-      <c r="M179" s="4"/>
+      <c r="M179" s="21">
+        <v>43198</v>
+      </c>
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
-      <c r="P179" s="4"/>
-      <c r="Q179" s="4"/>
+      <c r="P179" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q179" s="4" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="180" spans="1:17">
       <c r="A180" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>201</v>
@@ -9679,7 +10080,7 @@
         <v>20</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I180" s="5" t="s">
         <v>56</v>
@@ -9700,10 +10101,10 @@
     </row>
     <row r="181" spans="1:17">
       <c r="A181" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>342</v>
+        <v>325</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>19</v>
@@ -9730,18 +10131,24 @@
         <f>[Date Breed]+114</f>
         <v>43196</v>
       </c>
-      <c r="M181" s="4"/>
+      <c r="M181" s="21">
+        <v>43198</v>
+      </c>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
-      <c r="P181" s="4"/>
-      <c r="Q181" s="4"/>
+      <c r="P181" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q181" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="182" spans="1:17">
       <c r="A182" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>187</v>
+        <v>342</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>19</v>
@@ -9776,10 +10183,10 @@
     </row>
     <row r="183" spans="1:17">
       <c r="A183" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>19</v>
@@ -9814,10 +10221,10 @@
     </row>
     <row r="184" spans="1:17">
       <c r="A184" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>19</v>
@@ -9852,10 +10259,10 @@
     </row>
     <row r="185" spans="1:17">
       <c r="A185" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>19</v>
@@ -9890,10 +10297,10 @@
     </row>
     <row r="186" spans="1:17">
       <c r="A186" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>293</v>
+        <v>330</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>19</v>
@@ -9907,31 +10314,37 @@
         <v>20</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I186" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J186" s="15" t="s">
-        <v>22</v>
+      <c r="J186" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="K186" s="8"/>
       <c r="L186" s="8">
         <f>[Date Breed]+114</f>
         <v>43200</v>
       </c>
-      <c r="M186" s="4"/>
+      <c r="M186" s="21">
+        <v>43202</v>
+      </c>
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
-      <c r="P186" s="4"/>
-      <c r="Q186" s="4"/>
+      <c r="P186" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q186" s="4" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="187" spans="1:17">
       <c r="A187" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>346</v>
+        <v>331</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>19</v>
@@ -9945,7 +10358,7 @@
         <v>20</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I187" s="5" t="s">
         <v>56</v>
@@ -9958,22 +10371,28 @@
         <f>[Date Breed]+114</f>
         <v>43200</v>
       </c>
-      <c r="M187" s="4"/>
+      <c r="M187" s="21">
+        <v>43203</v>
+      </c>
       <c r="N187" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O187" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="P187" s="4"/>
-      <c r="Q187" s="4"/>
+        <v>537</v>
+      </c>
+      <c r="P187" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q187" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="188" spans="1:17">
       <c r="A188" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>19</v>
@@ -10002,20 +10421,20 @@
       </c>
       <c r="M188" s="4"/>
       <c r="N188" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O188" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P188" s="4"/>
       <c r="Q188" s="4"/>
     </row>
     <row r="189" spans="1:17">
       <c r="A189" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>347</v>
+        <v>333</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>19</v>
@@ -10042,17 +10461,23 @@
         <f>[Date Breed]+114</f>
         <v>43201</v>
       </c>
-      <c r="M189" s="4"/>
+      <c r="M189" s="21">
+        <v>43202</v>
+      </c>
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
-      <c r="P189" s="4"/>
-      <c r="Q189" s="4"/>
+      <c r="P189" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q189" s="4" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="190" spans="1:17">
       <c r="A190" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B190" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B190" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C190" s="4" t="s">
@@ -10080,15 +10505,21 @@
         <f>[Date Breed]+114</f>
         <v>43202</v>
       </c>
-      <c r="M190" s="4"/>
+      <c r="M190" s="21">
+        <v>43202</v>
+      </c>
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
-      <c r="P190" s="4"/>
-      <c r="Q190" s="4"/>
+      <c r="P190" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q190" s="4" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="191" spans="1:17">
       <c r="A191" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>18</v>
@@ -10110,7 +10541,7 @@
       <c r="I191" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J191" s="9" t="s">
+      <c r="J191" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K191" s="8"/>
@@ -10126,10 +10557,10 @@
     </row>
     <row r="192" spans="1:17">
       <c r="A192" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>357</v>
+        <v>349</v>
+      </c>
+      <c r="B192" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>19</v>
@@ -10156,17 +10587,23 @@
         <f>[Date Breed]+114</f>
         <v>43203</v>
       </c>
-      <c r="M192" s="4"/>
+      <c r="M192" s="21">
+        <v>43206</v>
+      </c>
       <c r="N192" s="4"/>
       <c r="O192" s="4"/>
-      <c r="P192" s="4"/>
-      <c r="Q192" s="4"/>
+      <c r="P192" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q192" s="4" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="193" spans="1:18">
       <c r="A193" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B193" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B193" s="22" t="s">
         <v>166</v>
       </c>
       <c r="C193" s="4" t="s">
@@ -10194,17 +10631,23 @@
         <f>[Date Breed]+114</f>
         <v>43203</v>
       </c>
-      <c r="M193" s="4"/>
+      <c r="M193" s="21">
+        <v>43204</v>
+      </c>
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
-      <c r="P193" s="4"/>
-      <c r="Q193" s="4"/>
+      <c r="P193" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q193" s="4" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="194" spans="1:18">
       <c r="A194" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B194" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B194" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C194" s="4" t="s">
@@ -10232,17 +10675,23 @@
         <f>[Date Breed]+114</f>
         <v>43203</v>
       </c>
-      <c r="M194" s="4"/>
+      <c r="M194" s="21">
+        <v>43208</v>
+      </c>
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
-      <c r="P194" s="4"/>
-      <c r="Q194" s="4"/>
+      <c r="P194" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q194" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="195" spans="1:18">
       <c r="A195" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B195" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B195" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -10270,18 +10719,24 @@
         <f>[Date Breed]+114</f>
         <v>43203</v>
       </c>
-      <c r="M195" s="4"/>
+      <c r="M195" s="21">
+        <v>43206</v>
+      </c>
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
-      <c r="P195" s="4"/>
-      <c r="Q195" s="4"/>
+      <c r="P195" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q195" s="4" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="196" spans="1:18">
       <c r="A196" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>19</v>
@@ -10313,13 +10768,16 @@
       <c r="O196" s="4"/>
       <c r="P196" s="4"/>
       <c r="Q196" s="4"/>
+      <c r="R196" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="197" spans="1:18">
       <c r="A197" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
+      </c>
+      <c r="B197" s="22" t="s">
+        <v>617</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>19</v>
@@ -10339,24 +10797,30 @@
         <v>56</v>
       </c>
       <c r="J197" s="9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="8">
         <f>[Date Breed]+114</f>
         <v>43204</v>
       </c>
-      <c r="M197" s="4"/>
+      <c r="M197" s="21">
+        <v>43207</v>
+      </c>
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
-      <c r="P197" s="4"/>
-      <c r="Q197" s="4"/>
+      <c r="P197" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q197" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="198" spans="1:18">
       <c r="A198" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B198" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B198" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -10371,7 +10835,7 @@
         <v>93</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I198" s="5" t="s">
         <v>56</v>
@@ -10384,18 +10848,24 @@
         <f>[Date Breed]+114</f>
         <v>43207</v>
       </c>
-      <c r="M198" s="4"/>
+      <c r="M198" s="21">
+        <v>43208</v>
+      </c>
       <c r="N198" s="4"/>
       <c r="O198" s="4"/>
-      <c r="P198" s="4"/>
-      <c r="Q198" s="4"/>
+      <c r="P198" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q198" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="199" spans="1:18">
       <c r="A199" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>391</v>
+        <v>359</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>390</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>19</v>
@@ -10422,18 +10892,24 @@
         <f>[Date Breed]+114</f>
         <v>43208</v>
       </c>
-      <c r="M199" s="4"/>
+      <c r="M199" s="21">
+        <v>43212</v>
+      </c>
       <c r="N199" s="4"/>
       <c r="O199" s="4"/>
-      <c r="P199" s="4"/>
-      <c r="Q199" s="4"/>
+      <c r="P199" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q199" s="4" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="200" spans="1:18">
       <c r="A200" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>392</v>
+        <v>360</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>19</v>
@@ -10460,18 +10936,24 @@
         <f>[Date Breed]+114</f>
         <v>43208</v>
       </c>
-      <c r="M200" s="4"/>
+      <c r="M200" s="21">
+        <v>43208</v>
+      </c>
       <c r="N200" s="4"/>
       <c r="O200" s="4"/>
-      <c r="P200" s="4"/>
-      <c r="Q200" s="4"/>
+      <c r="P200" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q200" s="4" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="201" spans="1:18">
       <c r="A201" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>393</v>
+        <v>361</v>
+      </c>
+      <c r="B201" s="22" t="s">
+        <v>392</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>19</v>
@@ -10490,23 +10972,29 @@
       <c r="I201" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J201" s="15" t="s">
-        <v>22</v>
+      <c r="J201" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="K201" s="8"/>
       <c r="L201" s="8">
         <f>[Date Breed]+114</f>
         <v>43209</v>
       </c>
-      <c r="M201" s="4"/>
+      <c r="M201" s="21">
+        <v>43217</v>
+      </c>
       <c r="N201" s="4"/>
       <c r="O201" s="4"/>
-      <c r="P201" s="4"/>
-      <c r="Q201" s="4"/>
+      <c r="P201" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q201" s="4" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="202" spans="1:18">
       <c r="A202" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>51</v>
@@ -10523,7 +11011,7 @@
         <v>20</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I202" s="5" t="s">
         <v>56</v>
@@ -10544,10 +11032,10 @@
     </row>
     <row r="203" spans="1:18">
       <c r="A203" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>19</v>
@@ -10561,7 +11049,7 @@
         <v>20</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I203" s="5" t="s">
         <v>56</v>
@@ -10582,7 +11070,7 @@
     </row>
     <row r="204" spans="1:18">
       <c r="A204" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>53</v>
@@ -10620,10 +11108,10 @@
     </row>
     <row r="205" spans="1:18">
       <c r="A205" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>19</v>
@@ -10658,10 +11146,10 @@
     </row>
     <row r="206" spans="1:18">
       <c r="A206" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>312</v>
+        <v>366</v>
+      </c>
+      <c r="B206" s="22" t="s">
+        <v>311</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>19</v>
@@ -10688,18 +11176,24 @@
         <f>[Date Breed]+114</f>
         <v>43209</v>
       </c>
-      <c r="M206" s="4"/>
+      <c r="M206" s="21">
+        <v>43211</v>
+      </c>
       <c r="N206" s="4"/>
       <c r="O206" s="4"/>
-      <c r="P206" s="4"/>
-      <c r="Q206" s="4"/>
+      <c r="P206" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q206" s="4" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="207" spans="1:18">
       <c r="A207" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>19</v>
@@ -10732,14 +11226,14 @@
       <c r="P207" s="4"/>
       <c r="Q207" s="4"/>
       <c r="R207" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="208" spans="1:18">
       <c r="A208" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B208" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B208" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C208" s="4" t="s">
@@ -10767,18 +11261,24 @@
         <f>[Date Breed]+114</f>
         <v>43211</v>
       </c>
-      <c r="M208" s="4"/>
+      <c r="M208" s="21">
+        <v>43212</v>
+      </c>
       <c r="N208" s="4"/>
       <c r="O208" s="4"/>
-      <c r="P208" s="4"/>
-      <c r="Q208" s="4"/>
+      <c r="P208" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q208" s="4" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="209" spans="1:17">
       <c r="A209" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>19</v>
@@ -10792,7 +11292,7 @@
         <v>20</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I209" s="5" t="s">
         <v>56</v>
@@ -10813,10 +11313,10 @@
     </row>
     <row r="210" spans="1:17">
       <c r="A210" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>19</v>
@@ -10830,7 +11330,7 @@
         <v>20</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I210" s="5" t="s">
         <v>56</v>
@@ -10851,10 +11351,10 @@
     </row>
     <row r="211" spans="1:17">
       <c r="A211" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>336</v>
+        <v>371</v>
+      </c>
+      <c r="B211" s="22" t="s">
+        <v>335</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>19</v>
@@ -10868,7 +11368,7 @@
         <v>20</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I211" s="5" t="s">
         <v>56</v>
@@ -10881,18 +11381,24 @@
         <f>[Date Breed]+114</f>
         <v>43212</v>
       </c>
-      <c r="M211" s="4"/>
+      <c r="M211" s="21">
+        <v>43217</v>
+      </c>
       <c r="N211" s="4"/>
       <c r="O211" s="4"/>
-      <c r="P211" s="4"/>
-      <c r="Q211" s="4"/>
+      <c r="P211" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q211" s="4" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="212" spans="1:17">
       <c r="A212" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>399</v>
+        <v>372</v>
+      </c>
+      <c r="B212" s="22" t="s">
+        <v>398</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>19</v>
@@ -10919,18 +11425,24 @@
         <f>[Date Breed]+114</f>
         <v>43203</v>
       </c>
-      <c r="M212" s="4"/>
+      <c r="M212" s="21">
+        <v>43215</v>
+      </c>
       <c r="N212" s="4"/>
       <c r="O212" s="4"/>
-      <c r="P212" s="4"/>
-      <c r="Q212" s="4"/>
+      <c r="P212" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q212" s="4" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="213" spans="1:17">
       <c r="A213" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>19</v>
@@ -10965,10 +11477,10 @@
     </row>
     <row r="214" spans="1:17">
       <c r="A214" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>19</v>
@@ -10982,7 +11494,7 @@
         <v>20</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I214" s="5" t="s">
         <v>56</v>
@@ -11003,10 +11515,10 @@
     </row>
     <row r="215" spans="1:17">
       <c r="A215" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>19</v>
@@ -11041,9 +11553,9 @@
     </row>
     <row r="216" spans="1:17">
       <c r="A216" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B216" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B216" s="22" t="s">
         <v>244</v>
       </c>
       <c r="C216" s="4" t="s">
@@ -11058,7 +11570,7 @@
         <v>20</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I216" s="5" t="s">
         <v>56</v>
@@ -11071,18 +11583,24 @@
         <f>[Date Breed]+114</f>
         <v>43216</v>
       </c>
-      <c r="M216" s="4"/>
+      <c r="M216" s="21">
+        <v>43217</v>
+      </c>
       <c r="N216" s="4"/>
       <c r="O216" s="4"/>
-      <c r="P216" s="4"/>
-      <c r="Q216" s="4"/>
+      <c r="P216" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q216" s="4" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="217" spans="1:17">
       <c r="A217" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>436</v>
+        <v>377</v>
+      </c>
+      <c r="B217" s="22" t="s">
+        <v>435</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>19</v>
@@ -11096,7 +11614,7 @@
         <v>20</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I217" s="5" t="s">
         <v>56</v>
@@ -11109,17 +11627,23 @@
         <f>[Date Breed]+114</f>
         <v>43216</v>
       </c>
-      <c r="M217" s="4"/>
+      <c r="M217" s="21">
+        <v>43218</v>
+      </c>
       <c r="N217" s="4"/>
       <c r="O217" s="4"/>
-      <c r="P217" s="4"/>
-      <c r="Q217" s="4"/>
+      <c r="P217" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q217" s="4" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="218" spans="1:17">
       <c r="A218" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B218" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B218" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C218" s="4" t="s">
@@ -11134,7 +11658,7 @@
         <v>93</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I218" s="5" t="s">
         <v>56</v>
@@ -11147,17 +11671,23 @@
         <f>[Date Breed]+114</f>
         <v>43216</v>
       </c>
-      <c r="M218" s="4"/>
+      <c r="M218" s="21">
+        <v>43219</v>
+      </c>
       <c r="N218" s="4"/>
       <c r="O218" s="4"/>
-      <c r="P218" s="4"/>
-      <c r="Q218" s="4"/>
+      <c r="P218" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q218" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="219" spans="1:17">
       <c r="A219" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B219" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B219" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C219" s="4" t="s">
@@ -11172,7 +11702,7 @@
         <v>93</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I219" s="5" t="s">
         <v>56</v>
@@ -11185,18 +11715,24 @@
         <f>[Date Breed]+114</f>
         <v>43216</v>
       </c>
-      <c r="M219" s="4"/>
+      <c r="M219" s="21">
+        <v>43219</v>
+      </c>
       <c r="N219" s="4"/>
       <c r="O219" s="4"/>
-      <c r="P219" s="4"/>
-      <c r="Q219" s="4"/>
+      <c r="P219" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q219" s="4" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="220" spans="1:17">
       <c r="A220" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>437</v>
+        <v>380</v>
+      </c>
+      <c r="B220" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>19</v>
@@ -11210,7 +11746,7 @@
         <v>20</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I220" s="5" t="s">
         <v>56</v>
@@ -11223,15 +11759,21 @@
         <f>[Date Breed]+114</f>
         <v>43217</v>
       </c>
-      <c r="M220" s="4"/>
+      <c r="M220" s="21">
+        <v>43220</v>
+      </c>
       <c r="N220" s="4"/>
       <c r="O220" s="4"/>
-      <c r="P220" s="4"/>
-      <c r="Q220" s="4"/>
+      <c r="P220" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q220" s="4" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="221" spans="1:17">
       <c r="A221" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>251</v>
@@ -11248,7 +11790,7 @@
         <v>20</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I221" s="5" t="s">
         <v>56</v>
@@ -11261,18 +11803,24 @@
         <f>[Date Breed]+114</f>
         <v>43217</v>
       </c>
-      <c r="M221" s="4"/>
+      <c r="M221" s="21">
+        <v>43221</v>
+      </c>
       <c r="N221" s="4"/>
       <c r="O221" s="4"/>
-      <c r="P221" s="4"/>
-      <c r="Q221" s="4"/>
+      <c r="P221" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q221" s="4" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="222" spans="1:17">
       <c r="A222" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>19</v>
@@ -11307,10 +11855,10 @@
     </row>
     <row r="223" spans="1:17">
       <c r="A223" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>19</v>
@@ -11345,10 +11893,10 @@
     </row>
     <row r="224" spans="1:17">
       <c r="A224" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>438</v>
+        <v>384</v>
+      </c>
+      <c r="B224" s="22" t="s">
+        <v>437</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>19</v>
@@ -11375,17 +11923,23 @@
         <f>[Date Breed]+114</f>
         <v>43219</v>
       </c>
-      <c r="M224" s="4"/>
+      <c r="M224" s="21">
+        <v>43222</v>
+      </c>
       <c r="N224" s="4"/>
       <c r="O224" s="4"/>
-      <c r="P224" s="4"/>
-      <c r="Q224" s="4"/>
+      <c r="P224" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q224" s="4" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="225" spans="1:17">
       <c r="A225" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="B225" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B225" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C225" s="4" t="s">
@@ -11413,18 +11967,24 @@
         <f>[Date Breed]+114</f>
         <v>43219</v>
       </c>
-      <c r="M225" s="4"/>
+      <c r="M225" s="21">
+        <v>43219</v>
+      </c>
       <c r="N225" s="4"/>
       <c r="O225" s="4"/>
-      <c r="P225" s="4"/>
-      <c r="Q225" s="4"/>
+      <c r="P225" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q225" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="226" spans="1:17">
       <c r="A226" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>439</v>
+        <v>386</v>
+      </c>
+      <c r="B226" s="22" t="s">
+        <v>438</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>19</v>
@@ -11451,18 +12011,24 @@
         <f>[Date Breed]+114</f>
         <v>43219</v>
       </c>
-      <c r="M226" s="4"/>
+      <c r="M226" s="21">
+        <v>43222</v>
+      </c>
       <c r="N226" s="4"/>
       <c r="O226" s="4"/>
-      <c r="P226" s="4"/>
-      <c r="Q226" s="4"/>
+      <c r="P226" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q226" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="227" spans="1:17">
       <c r="A227" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>19</v>
@@ -11489,17 +12055,23 @@
         <f>[Date Breed]+114</f>
         <v>43222</v>
       </c>
-      <c r="M227" s="4"/>
+      <c r="M227" s="21">
+        <v>43225</v>
+      </c>
       <c r="N227" s="4"/>
       <c r="O227" s="4"/>
-      <c r="P227" s="4"/>
-      <c r="Q227" s="4"/>
+      <c r="P227" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q227" s="4" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="228" spans="1:17">
       <c r="A228" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B228" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B228" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C228" s="4" t="s">
@@ -11527,18 +12099,24 @@
         <f>[Date Breed]+114</f>
         <v>43222</v>
       </c>
-      <c r="M228" s="4"/>
+      <c r="M228" s="21">
+        <v>43221</v>
+      </c>
       <c r="N228" s="4"/>
       <c r="O228" s="4"/>
-      <c r="P228" s="4"/>
-      <c r="Q228" s="4"/>
+      <c r="P228" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q228" s="4" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="229" spans="1:17">
       <c r="A229" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>19</v>
@@ -11573,10 +12151,10 @@
     </row>
     <row r="230" spans="1:17">
       <c r="A230" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>19</v>
@@ -11611,7 +12189,7 @@
     </row>
     <row r="231" spans="1:17">
       <c r="A231" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>82</v>
@@ -11628,7 +12206,7 @@
         <v>93</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I231" s="5" t="s">
         <v>56</v>
@@ -11641,18 +12219,24 @@
         <f>[Date Breed]+114</f>
         <v>43224</v>
       </c>
-      <c r="M231" s="4"/>
+      <c r="M231" s="21">
+        <v>43224</v>
+      </c>
       <c r="N231" s="4"/>
       <c r="O231" s="4"/>
-      <c r="P231" s="4"/>
-      <c r="Q231" s="4"/>
+      <c r="P231" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q231" s="4" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="232" spans="1:17">
       <c r="A232" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>442</v>
+        <v>402</v>
+      </c>
+      <c r="B232" s="22" t="s">
+        <v>441</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>19</v>
@@ -11666,7 +12250,7 @@
         <v>20</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I232" s="5" t="s">
         <v>56</v>
@@ -11679,15 +12263,21 @@
         <f>[Date Breed]+114</f>
         <v>43224</v>
       </c>
-      <c r="M232" s="4"/>
+      <c r="M232" s="21">
+        <v>43222</v>
+      </c>
       <c r="N232" s="4"/>
       <c r="O232" s="4"/>
-      <c r="P232" s="4"/>
-      <c r="Q232" s="4"/>
+      <c r="P232" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q232" s="4" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="233" spans="1:17">
       <c r="A233" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>84</v>
@@ -11725,10 +12315,10 @@
     </row>
     <row r="234" spans="1:17">
       <c r="A234" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>19</v>
@@ -11763,10 +12353,10 @@
     </row>
     <row r="235" spans="1:17">
       <c r="A235" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>19</v>
@@ -11801,10 +12391,10 @@
     </row>
     <row r="236" spans="1:17">
       <c r="A236" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>19</v>
@@ -11839,10 +12429,10 @@
     </row>
     <row r="237" spans="1:17">
       <c r="A237" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>19</v>
@@ -11869,18 +12459,24 @@
         <f>[Date Breed]+114</f>
         <v>43227</v>
       </c>
-      <c r="M237" s="4"/>
+      <c r="M237" s="21">
+        <v>43224</v>
+      </c>
       <c r="N237" s="4"/>
       <c r="O237" s="4"/>
-      <c r="P237" s="4"/>
-      <c r="Q237" s="4"/>
+      <c r="P237" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q237" s="4" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="238" spans="1:17">
       <c r="A238" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>19</v>
@@ -11891,7 +12487,7 @@
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H238" s="5" t="s">
         <v>21</v>
@@ -11915,10 +12511,10 @@
     </row>
     <row r="239" spans="1:17">
       <c r="A239" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>19</v>
@@ -11932,7 +12528,7 @@
         <v>20</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I239" s="5" t="s">
         <v>56</v>
@@ -11953,7 +12549,7 @@
     </row>
     <row r="240" spans="1:17">
       <c r="A240" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>64</v>
@@ -11970,7 +12566,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I240" s="5" t="s">
         <v>56</v>
@@ -11991,10 +12587,10 @@
     </row>
     <row r="241" spans="1:17">
       <c r="A241" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>19</v>
@@ -12008,7 +12604,7 @@
         <v>20</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I241" s="5" t="s">
         <v>56</v>
@@ -12029,10 +12625,10 @@
     </row>
     <row r="242" spans="1:17">
       <c r="A242" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>19</v>
@@ -12067,7 +12663,7 @@
     </row>
     <row r="243" spans="1:17">
       <c r="A243" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>53</v>
@@ -12105,10 +12701,10 @@
     </row>
     <row r="244" spans="1:17">
       <c r="A244" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>19</v>
@@ -12143,10 +12739,10 @@
     </row>
     <row r="245" spans="1:17">
       <c r="A245" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>19</v>
@@ -12160,7 +12756,7 @@
         <v>20</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I245" s="5" t="s">
         <v>56</v>
@@ -12181,7 +12777,7 @@
     </row>
     <row r="246" spans="1:17">
       <c r="A246" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>49</v>
@@ -12198,7 +12794,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I246" s="5" t="s">
         <v>56</v>
@@ -12219,7 +12815,7 @@
     </row>
     <row r="247" spans="1:17">
       <c r="A247" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>51</v>
@@ -12236,7 +12832,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I247" s="5" t="s">
         <v>56</v>
@@ -12257,10 +12853,10 @@
     </row>
     <row r="248" spans="1:17">
       <c r="A248" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>19</v>
@@ -12274,7 +12870,7 @@
         <v>20</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I248" s="5" t="s">
         <v>56</v>
@@ -12295,10 +12891,10 @@
     </row>
     <row r="249" spans="1:17">
       <c r="A249" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>19</v>
@@ -12333,10 +12929,10 @@
     </row>
     <row r="250" spans="1:17">
       <c r="A250" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>19</v>
@@ -12350,7 +12946,7 @@
         <v>20</v>
       </c>
       <c r="H250" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I250" s="10" t="s">
         <v>60</v>
@@ -12371,7 +12967,7 @@
     </row>
     <row r="251" spans="1:17">
       <c r="A251" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>117</v>
@@ -12388,7 +12984,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I251" s="5" t="s">
         <v>56</v>
@@ -12409,7 +13005,7 @@
     </row>
     <row r="252" spans="1:17">
       <c r="A252" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>80</v>
@@ -12447,7 +13043,7 @@
     </row>
     <row r="253" spans="1:17">
       <c r="A253" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>68</v>
@@ -12485,7 +13081,7 @@
     </row>
     <row r="254" spans="1:17">
       <c r="A254" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B254" s="10" t="s">
         <v>33</v>
@@ -12502,7 +13098,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I254" s="10" t="s">
         <v>56</v>
@@ -12523,10 +13119,10 @@
     </row>
     <row r="255" spans="1:17">
       <c r="A255" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>19</v>
@@ -12540,7 +13136,7 @@
         <v>20</v>
       </c>
       <c r="H255" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I255" s="10" t="s">
         <v>56</v>
@@ -12561,7 +13157,7 @@
     </row>
     <row r="256" spans="1:17">
       <c r="A256" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B256" s="10" t="s">
         <v>18</v>
@@ -12578,7 +13174,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I256" s="10" t="s">
         <v>56</v>
@@ -12599,10 +13195,10 @@
     </row>
     <row r="257" spans="1:18">
       <c r="A257" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>19</v>
@@ -12616,7 +13212,7 @@
         <v>20</v>
       </c>
       <c r="H257" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I257" s="10" t="s">
         <v>60</v>
@@ -12637,10 +13233,10 @@
     </row>
     <row r="258" spans="1:18">
       <c r="A258" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>19</v>
@@ -12675,7 +13271,7 @@
     </row>
     <row r="259" spans="1:18">
       <c r="A259" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>201</v>
@@ -12711,15 +13307,15 @@
       <c r="P259" s="4"/>
       <c r="Q259" s="4"/>
       <c r="R259" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="260" spans="1:18">
       <c r="A260" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>19</v>
@@ -12752,12 +13348,12 @@
       <c r="P260" s="4"/>
       <c r="Q260" s="4"/>
       <c r="R260" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="261" spans="1:18">
       <c r="A261" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>134</v>
@@ -12795,10 +13391,10 @@
     </row>
     <row r="262" spans="1:18">
       <c r="A262" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>19</v>
@@ -12833,7 +13429,7 @@
     </row>
     <row r="263" spans="1:18">
       <c r="A263" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>121</v>
@@ -12863,10 +13459,10 @@
     </row>
     <row r="264" spans="1:18">
       <c r="A264" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C264" t="s">
         <v>19</v>
@@ -12893,10 +13489,10 @@
     </row>
     <row r="265" spans="1:18">
       <c r="A265" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C265" t="s">
         <v>19</v>
@@ -12923,10 +13519,10 @@
     </row>
     <row r="266" spans="1:18">
       <c r="A266" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>529</v>
+        <v>614</v>
       </c>
       <c r="C266" t="s">
         <v>19</v>
@@ -12953,10 +13549,10 @@
     </row>
     <row r="267" spans="1:18">
       <c r="A267" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C267" t="s">
         <v>19</v>
@@ -12983,10 +13579,10 @@
     </row>
     <row r="268" spans="1:18">
       <c r="A268" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C268" t="s">
         <v>19</v>
@@ -13013,10 +13609,10 @@
     </row>
     <row r="269" spans="1:18">
       <c r="A269" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C269" t="s">
         <v>19</v>
@@ -13043,10 +13639,10 @@
     </row>
     <row r="270" spans="1:18">
       <c r="A270" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C270" t="s">
         <v>19</v>
@@ -13073,7 +13669,7 @@
     </row>
     <row r="271" spans="1:18">
       <c r="A271" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>127</v>
@@ -13111,7 +13707,7 @@
     </row>
     <row r="272" spans="1:18">
       <c r="A272" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>125</v>
@@ -13149,7 +13745,7 @@
     </row>
     <row r="273" spans="1:18">
       <c r="A273" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>137</v>
@@ -13187,7 +13783,7 @@
     </row>
     <row r="274" spans="1:18">
       <c r="A274" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>132</v>
@@ -13225,10 +13821,10 @@
     </row>
     <row r="275" spans="1:18">
       <c r="A275" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>19</v>
@@ -13263,10 +13859,10 @@
     </row>
     <row r="276" spans="1:18">
       <c r="A276" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>19</v>
@@ -13301,10 +13897,10 @@
     </row>
     <row r="277" spans="1:18">
       <c r="A277" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>19</v>
@@ -13339,10 +13935,10 @@
     </row>
     <row r="278" spans="1:18">
       <c r="A278" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>19</v>
@@ -13377,7 +13973,7 @@
     </row>
     <row r="279" spans="1:18">
       <c r="A279" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B279" s="10" t="s">
         <v>152</v>
@@ -13394,7 +13990,7 @@
         <v>93</v>
       </c>
       <c r="H279" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I279" s="10" t="s">
         <v>60</v>
@@ -13415,10 +14011,10 @@
     </row>
     <row r="280" spans="1:18">
       <c r="A280" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>19</v>
@@ -13432,7 +14028,7 @@
         <v>20</v>
       </c>
       <c r="H280" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I280" s="10" t="s">
         <v>56</v>
@@ -13453,10 +14049,10 @@
     </row>
     <row r="281" spans="1:18">
       <c r="A281" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>19</v>
@@ -13470,7 +14066,7 @@
         <v>20</v>
       </c>
       <c r="H281" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I281" s="10" t="s">
         <v>60</v>
@@ -13491,7 +14087,7 @@
     </row>
     <row r="282" spans="1:18">
       <c r="A282" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B282" s="10" t="s">
         <v>80</v>
@@ -13508,7 +14104,7 @@
         <v>93</v>
       </c>
       <c r="H282" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I282" s="10" t="s">
         <v>56</v>
@@ -13529,10 +14125,10 @@
     </row>
     <row r="283" spans="1:18">
       <c r="A283" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>19</v>
@@ -13567,7 +14163,7 @@
     </row>
     <row r="284" spans="1:18">
       <c r="A284" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>96</v>
@@ -13605,10 +14201,10 @@
     </row>
     <row r="285" spans="1:18">
       <c r="A285" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>19</v>
@@ -13641,12 +14237,12 @@
       <c r="P285" s="4"/>
       <c r="Q285" s="4"/>
       <c r="R285" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="286" spans="1:18">
       <c r="A286" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B286" s="10" t="s">
         <v>24</v>
@@ -13663,7 +14259,7 @@
         <v>93</v>
       </c>
       <c r="H286" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I286" s="10" t="s">
         <v>60</v>
@@ -13684,10 +14280,10 @@
     </row>
     <row r="287" spans="1:18">
       <c r="A287" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>19</v>
@@ -13722,7 +14318,7 @@
     </row>
     <row r="288" spans="1:18">
       <c r="A288" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>68</v>
@@ -13760,10 +14356,10 @@
     </row>
     <row r="289" spans="1:17">
       <c r="A289" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>19</v>
@@ -13798,7 +14394,7 @@
     </row>
     <row r="290" spans="1:17">
       <c r="A290" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>170</v>
@@ -13836,7 +14432,7 @@
     </row>
     <row r="291" spans="1:17">
       <c r="A291" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>164</v>
@@ -13874,10 +14470,10 @@
     </row>
     <row r="292" spans="1:17">
       <c r="A292" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>19</v>
@@ -13912,10 +14508,10 @@
     </row>
     <row r="293" spans="1:17">
       <c r="A293" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>19</v>
@@ -13950,10 +14546,10 @@
     </row>
     <row r="294" spans="1:17">
       <c r="A294" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>19</v>
@@ -13967,7 +14563,7 @@
         <v>20</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I294" s="5" t="s">
         <v>60</v>
@@ -13988,10 +14584,10 @@
     </row>
     <row r="295" spans="1:17">
       <c r="A295" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>19</v>
@@ -14005,7 +14601,7 @@
         <v>20</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I295" s="5" t="s">
         <v>60</v>
@@ -14026,7 +14622,7 @@
     </row>
     <row r="296" spans="1:17">
       <c r="A296" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>89</v>
@@ -14064,7 +14660,7 @@
     </row>
     <row r="297" spans="1:17">
       <c r="A297" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>189</v>
@@ -14102,7 +14698,7 @@
     </row>
     <row r="298" spans="1:17">
       <c r="A298" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>92</v>
@@ -14119,7 +14715,7 @@
         <v>93</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I298" s="5" t="s">
         <v>60</v>
@@ -14140,7 +14736,7 @@
     </row>
     <row r="299" spans="1:17">
       <c r="A299" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>193</v>
@@ -14178,10 +14774,10 @@
     </row>
     <row r="300" spans="1:17">
       <c r="A300" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>19</v>
@@ -14216,7 +14812,7 @@
     </row>
     <row r="301" spans="1:17">
       <c r="A301" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>87</v>
@@ -14254,7 +14850,7 @@
     </row>
     <row r="302" spans="1:17">
       <c r="A302" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>119</v>
@@ -14276,7 +14872,9 @@
       <c r="I302" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J302" s="9"/>
+      <c r="J302" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K302" s="8"/>
       <c r="L302" s="8">
         <f>[Date Breed]+114</f>
@@ -14290,10 +14888,10 @@
     </row>
     <row r="303" spans="1:17">
       <c r="A303" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C303" s="11" t="s">
         <v>19</v>
@@ -14307,12 +14905,14 @@
         <v>20</v>
       </c>
       <c r="H303" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I303" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J303" s="13"/>
+      <c r="J303" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="K303" s="12"/>
       <c r="L303" s="12">
         <f>[Date Breed]+114</f>
@@ -14326,7 +14926,7 @@
     </row>
     <row r="304" spans="1:17">
       <c r="A304" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B304" s="10" t="s">
         <v>66</v>
@@ -14343,12 +14943,14 @@
         <v>93</v>
       </c>
       <c r="H304" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I304" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J304" s="13"/>
+      <c r="J304" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="K304" s="12"/>
       <c r="L304" s="12">
         <f>[Date Breed]+114</f>
@@ -14362,7 +14964,7 @@
     </row>
     <row r="305" spans="1:17">
       <c r="A305" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B305" s="10" t="s">
         <v>162</v>
@@ -14379,12 +14981,14 @@
         <v>93</v>
       </c>
       <c r="H305" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I305" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J305" s="13"/>
+      <c r="J305" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="K305" s="12"/>
       <c r="L305" s="12">
         <f>[Date Breed]+114</f>
@@ -14398,10 +15002,10 @@
     </row>
     <row r="306" spans="1:17">
       <c r="A306" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>19</v>
@@ -14415,12 +15019,14 @@
         <v>20</v>
       </c>
       <c r="H306" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I306" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J306" s="13"/>
+      <c r="J306" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="K306" s="12"/>
       <c r="L306" s="12">
         <f>[Date Breed]+114</f>
@@ -14434,7 +15040,7 @@
     </row>
     <row r="307" spans="1:17">
       <c r="A307" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>105</v>
@@ -14456,7 +15062,9 @@
       <c r="I307" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J307" s="9"/>
+      <c r="J307" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="K307" s="8"/>
       <c r="L307" s="8">
         <f>[Date Breed]+114</f>
@@ -14470,7 +15078,7 @@
     </row>
     <row r="308" spans="1:17">
       <c r="A308" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>203</v>
@@ -14492,7 +15100,9 @@
       <c r="I308" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J308" s="9"/>
+      <c r="J308" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K308" s="8"/>
       <c r="L308" s="8">
         <f>[Date Breed]+114</f>
@@ -14506,7 +15116,7 @@
     </row>
     <row r="309" spans="1:17">
       <c r="A309" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>154</v>
@@ -14528,7 +15138,9 @@
       <c r="I309" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J309" s="9"/>
+      <c r="J309" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="K309" s="8"/>
       <c r="L309" s="8">
         <f>[Date Breed]+114</f>
@@ -14542,7 +15154,7 @@
     </row>
     <row r="310" spans="1:17">
       <c r="A310" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B310" s="5" t="s">
         <v>150</v>
@@ -14564,7 +15176,9 @@
       <c r="I310" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J310" s="9"/>
+      <c r="J310" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K310" s="8"/>
       <c r="L310" s="8">
         <f>[Date Breed]+114</f>
@@ -14578,7 +15192,7 @@
     </row>
     <row r="311" spans="1:17">
       <c r="A311" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>146</v>
@@ -14600,7 +15214,9 @@
       <c r="I311" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J311" s="9"/>
+      <c r="J311" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K311" s="8"/>
       <c r="L311" s="8">
         <f>[Date Breed]+114</f>
@@ -14614,7 +15230,7 @@
     </row>
     <row r="312" spans="1:17">
       <c r="A312" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B312" s="5" t="s">
         <v>196</v>
@@ -14636,7 +15252,9 @@
       <c r="I312" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J312" s="9"/>
+      <c r="J312" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K312" s="8"/>
       <c r="L312" s="8">
         <f>[Date Breed]+114</f>
@@ -14650,7 +15268,7 @@
     </row>
     <row r="313" spans="1:17">
       <c r="A313" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>160</v>
@@ -14672,7 +15290,9 @@
       <c r="I313" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J313" s="9"/>
+      <c r="J313" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K313" s="8"/>
       <c r="L313" s="8">
         <f>[Date Breed]+114</f>
@@ -14686,7 +15306,7 @@
     </row>
     <row r="314" spans="1:17">
       <c r="A314" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B314" s="5" t="s">
         <v>107</v>
@@ -14708,7 +15328,9 @@
       <c r="I314" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J314" s="9"/>
+      <c r="J314" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K314" s="8"/>
       <c r="L314" s="8">
         <f>[Date Breed]+114</f>
@@ -14722,10 +15344,10 @@
     </row>
     <row r="315" spans="1:17">
       <c r="A315" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>19</v>
@@ -14744,7 +15366,9 @@
       <c r="I315" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J315" s="9"/>
+      <c r="J315" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="K315" s="8"/>
       <c r="L315" s="8">
         <f>[Date Breed]+114</f>
@@ -14758,7 +15382,7 @@
     </row>
     <row r="316" spans="1:17">
       <c r="A316" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B316" s="5" t="s">
         <v>175</v>
@@ -14780,7 +15404,9 @@
       <c r="I316" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J316" s="9"/>
+      <c r="J316" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K316" s="8"/>
       <c r="L316" s="8">
         <f>[Date Breed]+114</f>
@@ -14794,7 +15420,7 @@
     </row>
     <row r="317" spans="1:17">
       <c r="A317" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>211</v>
@@ -14816,7 +15442,9 @@
       <c r="I317" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J317" s="9"/>
+      <c r="J317" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K317" s="8"/>
       <c r="L317" s="8">
         <f>[Date Breed]+114</f>
@@ -14830,7 +15458,7 @@
     </row>
     <row r="318" spans="1:17">
       <c r="A318" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B318" s="10" t="s">
         <v>255</v>
@@ -14847,12 +15475,14 @@
         <v>93</v>
       </c>
       <c r="H318" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I318" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J318" s="13"/>
+      <c r="J318" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="K318" s="12"/>
       <c r="L318" s="12">
         <f>[Date Breed]+114</f>
@@ -14866,7 +15496,7 @@
     </row>
     <row r="319" spans="1:17">
       <c r="A319" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>218</v>
@@ -14888,7 +15518,9 @@
       <c r="I319" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J319" s="9"/>
+      <c r="J319" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K319" s="8"/>
       <c r="L319" s="8">
         <f>[Date Breed]+114</f>
@@ -14902,7 +15534,7 @@
     </row>
     <row r="320" spans="1:17">
       <c r="A320" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B320" s="10" t="s">
         <v>199</v>
@@ -14919,12 +15551,14 @@
         <v>93</v>
       </c>
       <c r="H320" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I320" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J320" s="13"/>
+      <c r="J320" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="K320" s="12"/>
       <c r="L320" s="12">
         <f>[Date Breed]+114</f>
@@ -14938,10 +15572,10 @@
     </row>
     <row r="321" spans="1:17">
       <c r="A321" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C321" s="11" t="s">
         <v>19</v>
@@ -14955,12 +15589,14 @@
         <v>20</v>
       </c>
       <c r="H321" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I321" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J321" s="13"/>
+      <c r="J321" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="K321" s="12"/>
       <c r="L321" s="12">
         <f>[Date Breed]+114</f>
@@ -14974,10 +15610,10 @@
     </row>
     <row r="322" spans="1:17">
       <c r="A322" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C322" s="11" t="s">
         <v>19</v>
@@ -14991,12 +15627,14 @@
         <v>20</v>
       </c>
       <c r="H322" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I322" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J322" s="13"/>
+      <c r="J322" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="K322" s="12"/>
       <c r="L322" s="12">
         <f>[Date Breed]+114</f>
@@ -15010,10 +15648,10 @@
     </row>
     <row r="323" spans="1:17">
       <c r="A323" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>19</v>
@@ -15032,7 +15670,9 @@
       <c r="I323" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J323" s="9"/>
+      <c r="J323" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="K323" s="8"/>
       <c r="L323" s="8">
         <f>[Date Breed]+114</f>
@@ -15046,7 +15686,7 @@
     </row>
     <row r="324" spans="1:17">
       <c r="A324" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>220</v>
@@ -15068,7 +15708,9 @@
       <c r="I324" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J324" s="9"/>
+      <c r="J324" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K324" s="8"/>
       <c r="L324" s="8">
         <f>[Date Breed]+114</f>
@@ -15082,7 +15724,7 @@
     </row>
     <row r="325" spans="1:17">
       <c r="A325" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>129</v>
@@ -15104,7 +15746,9 @@
       <c r="I325" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J325" s="9"/>
+      <c r="J325" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K325" s="8"/>
       <c r="L325" s="8">
         <f>[Date Breed]+114</f>
@@ -15118,7 +15762,7 @@
     </row>
     <row r="326" spans="1:17">
       <c r="A326" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>189</v>
@@ -15140,7 +15784,9 @@
       <c r="I326" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J326" s="9"/>
+      <c r="J326" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K326" s="8"/>
       <c r="L326" s="8">
         <f>[Date Breed]+114</f>
@@ -15154,7 +15800,7 @@
     </row>
     <row r="327" spans="1:17">
       <c r="A327" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B327" s="5" t="s">
         <v>110</v>
@@ -15176,7 +15822,9 @@
       <c r="I327" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J327" s="9"/>
+      <c r="J327" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K327" s="8"/>
       <c r="L327" s="8">
         <f>[Date Breed]+114</f>
@@ -15190,7 +15838,7 @@
     </row>
     <row r="328" spans="1:17">
       <c r="A328" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B328" s="5" t="s">
         <v>178</v>
@@ -15212,7 +15860,9 @@
       <c r="I328" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J328" s="9"/>
+      <c r="J328" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K328" s="8"/>
       <c r="L328" s="8">
         <f>[Date Breed]+114</f>
@@ -15226,7 +15876,7 @@
     </row>
     <row r="329" spans="1:17">
       <c r="A329" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>187</v>
@@ -15248,7 +15898,9 @@
       <c r="I329" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J329" s="9"/>
+      <c r="J329" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K329" s="8"/>
       <c r="L329" s="8">
         <f>[Date Breed]+114</f>
@@ -15262,7 +15914,7 @@
     </row>
     <row r="330" spans="1:17">
       <c r="A330" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B330" s="5" t="s">
         <v>225</v>
@@ -15284,7 +15936,9 @@
       <c r="I330" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J330" s="9"/>
+      <c r="J330" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K330" s="8"/>
       <c r="L330" s="8">
         <f>[Date Breed]+114</f>
@@ -15298,21 +15952,35 @@
     </row>
     <row r="331" spans="1:17">
       <c r="A331" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="B331" s="5"/>
-      <c r="C331" s="4"/>
+        <v>520</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D331" s="4"/>
-      <c r="E331" s="8"/>
+      <c r="E331" s="8">
+        <v>43181</v>
+      </c>
       <c r="F331" s="5"/>
-      <c r="G331" s="24"/>
-      <c r="H331" s="5"/>
-      <c r="I331" s="5"/>
-      <c r="J331" s="9"/>
+      <c r="G331" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H331" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="I331" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J331" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K331" s="8"/>
       <c r="L331" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43295</v>
       </c>
       <c r="M331" s="4"/>
       <c r="N331" s="4"/>
@@ -15321,22 +15989,36 @@
       <c r="Q331" s="4"/>
     </row>
     <row r="332" spans="1:17">
-      <c r="A332" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="B332" s="5"/>
-      <c r="C332" s="4"/>
-      <c r="D332" s="4"/>
-      <c r="E332" s="8"/>
-      <c r="F332" s="5"/>
-      <c r="G332" s="24"/>
-      <c r="H332" s="5"/>
-      <c r="I332" s="5"/>
-      <c r="J332" s="9"/>
-      <c r="K332" s="8"/>
-      <c r="L332" s="8">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
+      <c r="A332" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C332" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D332" s="11"/>
+      <c r="E332" s="12">
+        <v>43186</v>
+      </c>
+      <c r="F332" s="10"/>
+      <c r="G332" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H332" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="I332" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J332" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K332" s="12"/>
+      <c r="L332" s="12">
+        <f>[Date Breed]+114</f>
+        <v>43300</v>
       </c>
       <c r="M332" s="4"/>
       <c r="N332" s="4"/>
@@ -15345,22 +16027,36 @@
       <c r="Q332" s="4"/>
     </row>
     <row r="333" spans="1:17">
-      <c r="A333" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="B333" s="5"/>
-      <c r="C333" s="4"/>
-      <c r="D333" s="4"/>
-      <c r="E333" s="8"/>
-      <c r="F333" s="5"/>
-      <c r="G333" s="24"/>
-      <c r="H333" s="5"/>
-      <c r="I333" s="5"/>
-      <c r="J333" s="9"/>
-      <c r="K333" s="8"/>
-      <c r="L333" s="8">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
+      <c r="A333" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C333" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D333" s="11"/>
+      <c r="E333" s="12">
+        <v>43186</v>
+      </c>
+      <c r="F333" s="10"/>
+      <c r="G333" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H333" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="I333" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J333" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K333" s="12"/>
+      <c r="L333" s="12">
+        <f>[Date Breed]+114</f>
+        <v>43300</v>
       </c>
       <c r="M333" s="4"/>
       <c r="N333" s="4"/>
@@ -15369,22 +16065,36 @@
       <c r="Q333" s="4"/>
     </row>
     <row r="334" spans="1:17">
-      <c r="A334" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B334" s="5"/>
-      <c r="C334" s="4"/>
-      <c r="D334" s="4"/>
-      <c r="E334" s="8"/>
-      <c r="F334" s="5"/>
-      <c r="G334" s="24"/>
-      <c r="H334" s="5"/>
-      <c r="I334" s="5"/>
-      <c r="J334" s="9"/>
-      <c r="K334" s="8"/>
-      <c r="L334" s="8">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
+      <c r="A334" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B334" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C334" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D334" s="11"/>
+      <c r="E334" s="12">
+        <v>43187</v>
+      </c>
+      <c r="F334" s="10"/>
+      <c r="G334" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H334" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="I334" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J334" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K334" s="12"/>
+      <c r="L334" s="12">
+        <f>[Date Breed]+114</f>
+        <v>43301</v>
       </c>
       <c r="M334" s="4"/>
       <c r="N334" s="4"/>
@@ -15393,22 +16103,36 @@
       <c r="Q334" s="4"/>
     </row>
     <row r="335" spans="1:17">
-      <c r="A335" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="B335" s="5"/>
-      <c r="C335" s="4"/>
-      <c r="D335" s="4"/>
-      <c r="E335" s="8"/>
-      <c r="F335" s="5"/>
-      <c r="G335" s="24"/>
-      <c r="H335" s="5"/>
-      <c r="I335" s="5"/>
-      <c r="J335" s="9"/>
-      <c r="K335" s="8"/>
-      <c r="L335" s="8">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
+      <c r="A335" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C335" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D335" s="11"/>
+      <c r="E335" s="12">
+        <v>43187</v>
+      </c>
+      <c r="F335" s="10"/>
+      <c r="G335" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H335" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="I335" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J335" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K335" s="12"/>
+      <c r="L335" s="12">
+        <f>[Date Breed]+114</f>
+        <v>43301</v>
       </c>
       <c r="M335" s="4"/>
       <c r="N335" s="4"/>
@@ -15418,21 +16142,35 @@
     </row>
     <row r="336" spans="1:17">
       <c r="A336" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B336" s="5"/>
-      <c r="C336" s="4"/>
+        <v>525</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D336" s="4"/>
-      <c r="E336" s="8"/>
+      <c r="E336" s="8">
+        <v>43190</v>
+      </c>
       <c r="F336" s="5"/>
-      <c r="G336" s="24"/>
-      <c r="H336" s="5"/>
-      <c r="I336" s="5"/>
-      <c r="J336" s="9"/>
+      <c r="G336" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H336" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="I336" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J336" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K336" s="8"/>
       <c r="L336" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43304</v>
       </c>
       <c r="M336" s="4"/>
       <c r="N336" s="4"/>
@@ -15442,21 +16180,35 @@
     </row>
     <row r="337" spans="1:17">
       <c r="A337" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="B337" s="5"/>
-      <c r="C337" s="4"/>
+        <v>526</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D337" s="4"/>
-      <c r="E337" s="8"/>
+      <c r="E337" s="8">
+        <v>43191</v>
+      </c>
       <c r="F337" s="5"/>
-      <c r="G337" s="24"/>
-      <c r="H337" s="5"/>
-      <c r="I337" s="5"/>
-      <c r="J337" s="9"/>
+      <c r="G337" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H337" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I337" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J337" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K337" s="8"/>
       <c r="L337" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43305</v>
       </c>
       <c r="M337" s="4"/>
       <c r="N337" s="4"/>
@@ -15466,192 +16218,611 @@
     </row>
     <row r="338" spans="1:17">
       <c r="A338" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C338" t="s">
+        <v>19</v>
+      </c>
+      <c r="E338" s="2">
+        <v>43192</v>
+      </c>
+      <c r="G338" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J338" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L338" s="2">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43306</v>
       </c>
     </row>
     <row r="339" spans="1:17">
       <c r="A339" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C339" t="s">
+        <v>19</v>
+      </c>
+      <c r="E339" s="2">
+        <v>43193</v>
+      </c>
+      <c r="G339" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J339" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L339" s="2">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43307</v>
       </c>
     </row>
     <row r="340" spans="1:17">
       <c r="A340" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C340" t="s">
+        <v>19</v>
+      </c>
+      <c r="E340" s="2">
+        <v>43194</v>
+      </c>
+      <c r="G340" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L340" s="2">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43308</v>
       </c>
     </row>
     <row r="341" spans="1:17">
       <c r="A341" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C341" t="s">
+        <v>19</v>
+      </c>
+      <c r="E341" s="2">
+        <v>43195</v>
+      </c>
+      <c r="G341" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L341" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43309</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17">
+      <c r="A342" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B342" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="C342" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D342" s="33"/>
+      <c r="E342" s="34">
+        <v>43195</v>
+      </c>
+      <c r="F342" s="32"/>
+      <c r="G342" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H342" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I342" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J342" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K342" s="34"/>
+      <c r="L342" s="34">
+        <f>[Date Breed]+114</f>
+        <v>43309</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17">
+      <c r="A343" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B343" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C343" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D343" s="33"/>
+      <c r="E343" s="34">
+        <v>43195</v>
+      </c>
+      <c r="F343" s="32"/>
+      <c r="G343" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H343" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I343" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J343" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K343" s="34"/>
+      <c r="L343" s="34">
+        <f>[Date Breed]+114</f>
+        <v>43309</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17">
+      <c r="A344" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="L341" s="2">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="342" spans="1:17">
-      <c r="A342" s="4" t="s">
+      <c r="B344" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C344" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D344" s="33"/>
+      <c r="E344" s="34">
+        <v>43200</v>
+      </c>
+      <c r="F344" s="32"/>
+      <c r="G344" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H344" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I344" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J344" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K344" s="34"/>
+      <c r="L344" s="34">
+        <f>[Date Breed]+114</f>
+        <v>43314</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17">
+      <c r="A345" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="L342" s="2">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="343" spans="1:17">
-      <c r="A343" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="L343" s="2">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="344" spans="1:17">
-      <c r="A344" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="L344" s="2">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="345" spans="1:17">
-      <c r="A345" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="L345" s="2">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
+      <c r="B345" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C345" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D345" s="33"/>
+      <c r="E345" s="34">
+        <v>43200</v>
+      </c>
+      <c r="F345" s="32"/>
+      <c r="G345" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H345" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I345" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J345" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K345" s="34"/>
+      <c r="L345" s="34">
+        <f>[Date Breed]+114</f>
+        <v>43314</v>
       </c>
     </row>
     <row r="346" spans="1:17">
       <c r="A346" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C346" t="s">
+        <v>19</v>
+      </c>
+      <c r="E346" s="2">
+        <v>43201</v>
+      </c>
+      <c r="G346" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J346" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L346" s="2">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43315</v>
       </c>
     </row>
     <row r="347" spans="1:17">
       <c r="A347" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C347" t="s">
+        <v>19</v>
+      </c>
+      <c r="E347" s="2">
+        <v>43201</v>
+      </c>
+      <c r="G347" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J347" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L347" s="2">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43315</v>
       </c>
     </row>
     <row r="348" spans="1:17">
       <c r="A348" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C348" t="s">
+        <v>19</v>
+      </c>
+      <c r="E348" s="2">
+        <v>43201</v>
+      </c>
+      <c r="G348" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J348" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L348" s="2">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43315</v>
       </c>
     </row>
     <row r="349" spans="1:17">
       <c r="A349" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C349" t="s">
+        <v>19</v>
+      </c>
+      <c r="E349" s="2">
+        <v>43202</v>
+      </c>
+      <c r="G349" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L349" s="2">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43316</v>
       </c>
     </row>
     <row r="350" spans="1:17">
       <c r="A350" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C350" t="s">
+        <v>19</v>
+      </c>
+      <c r="E350" s="2">
+        <v>43206</v>
+      </c>
+      <c r="G350" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J350" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L350" s="2">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43320</v>
       </c>
     </row>
     <row r="351" spans="1:17">
       <c r="A351" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C351" t="s">
+        <v>19</v>
+      </c>
+      <c r="E351" s="2">
+        <v>43206</v>
+      </c>
+      <c r="G351" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J351" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L351" s="2">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43320</v>
       </c>
     </row>
     <row r="352" spans="1:17">
       <c r="A352" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C352" t="s">
+        <v>19</v>
+      </c>
+      <c r="E352" s="2">
+        <v>43206</v>
+      </c>
+      <c r="G352" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="L352" s="2">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43320</v>
       </c>
     </row>
     <row r="353" spans="1:18">
-      <c r="A353" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="L353" s="2">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
+      <c r="A353" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B353" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="C353" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D353" s="33"/>
+      <c r="E353" s="34">
+        <v>43209</v>
+      </c>
+      <c r="F353" s="32"/>
+      <c r="G353" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H353" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I353" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J353" s="36"/>
+      <c r="K353" s="34"/>
+      <c r="L353" s="34">
+        <f>[Date Breed]+114</f>
+        <v>43323</v>
       </c>
     </row>
     <row r="354" spans="1:18">
-      <c r="A354" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="L354" s="2">
-        <f>[Date Breed]+114</f>
-        <v>114</v>
+      <c r="A354" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B354" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C354" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D354" s="33"/>
+      <c r="E354" s="34">
+        <v>43211</v>
+      </c>
+      <c r="F354" s="32"/>
+      <c r="G354" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H354" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I354" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J354" s="36"/>
+      <c r="K354" s="34"/>
+      <c r="L354" s="34">
+        <f>[Date Breed]+114</f>
+        <v>43325</v>
       </c>
     </row>
     <row r="355" spans="1:18">
       <c r="A355" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C355" t="s">
+        <v>19</v>
+      </c>
+      <c r="E355" s="2">
+        <v>43211</v>
+      </c>
+      <c r="G355" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L355" s="2">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43325</v>
       </c>
     </row>
     <row r="356" spans="1:18">
       <c r="A356" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C356" t="s">
+        <v>19</v>
+      </c>
+      <c r="E356" s="2">
+        <v>43211</v>
+      </c>
+      <c r="G356" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L356" s="2">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43325</v>
       </c>
     </row>
     <row r="357" spans="1:18">
       <c r="A357" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="B357" s="5"/>
-      <c r="C357" s="4"/>
+        <v>580</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D357" s="4"/>
-      <c r="E357" s="8"/>
+      <c r="E357" s="8">
+        <v>43212</v>
+      </c>
       <c r="F357" s="5"/>
-      <c r="G357" s="5"/>
-      <c r="H357" s="5"/>
-      <c r="I357" s="5"/>
+      <c r="G357" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H357" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I357" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J357" s="9"/>
       <c r="K357" s="8"/>
       <c r="L357" s="8">
         <f>[Date Breed]+114</f>
-        <v>114</v>
+        <v>43326</v>
       </c>
       <c r="M357" s="4"/>
       <c r="N357" s="4"/>
@@ -15659,6 +16830,1059 @@
       <c r="P357" s="4"/>
       <c r="Q357" s="4"/>
       <c r="R357" s="4"/>
+    </row>
+    <row r="358" spans="1:18">
+      <c r="A358" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C358" t="s">
+        <v>19</v>
+      </c>
+      <c r="E358" s="2">
+        <v>43214</v>
+      </c>
+      <c r="G358" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L358" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="359" spans="1:18">
+      <c r="A359" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C359" t="s">
+        <v>19</v>
+      </c>
+      <c r="E359" s="2">
+        <v>43215</v>
+      </c>
+      <c r="G359" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L359" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="360" spans="1:18">
+      <c r="A360" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C360" t="s">
+        <v>19</v>
+      </c>
+      <c r="E360" s="2">
+        <v>43215</v>
+      </c>
+      <c r="G360" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L360" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="361" spans="1:18">
+      <c r="A361" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C361" t="s">
+        <v>19</v>
+      </c>
+      <c r="E361" s="2">
+        <v>43216</v>
+      </c>
+      <c r="G361" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L361" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="362" spans="1:18">
+      <c r="A362" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C362" t="s">
+        <v>19</v>
+      </c>
+      <c r="E362" s="2">
+        <v>43217</v>
+      </c>
+      <c r="G362" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L362" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43331</v>
+      </c>
+    </row>
+    <row r="363" spans="1:18">
+      <c r="A363" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C363" t="s">
+        <v>19</v>
+      </c>
+      <c r="E363" s="2">
+        <v>43217</v>
+      </c>
+      <c r="G363" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L363" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43331</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18">
+      <c r="A364" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C364" t="s">
+        <v>19</v>
+      </c>
+      <c r="E364" s="2">
+        <v>43218</v>
+      </c>
+      <c r="G364" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L364" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43332</v>
+      </c>
+    </row>
+    <row r="365" spans="1:18">
+      <c r="A365" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C365" t="s">
+        <v>19</v>
+      </c>
+      <c r="E365" s="2">
+        <v>43220</v>
+      </c>
+      <c r="G365" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I365" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L365" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18">
+      <c r="A366" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C366" t="s">
+        <v>19</v>
+      </c>
+      <c r="E366" s="2">
+        <v>43220</v>
+      </c>
+      <c r="G366" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="I366" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L366" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="367" spans="1:18">
+      <c r="A367" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E367" s="2">
+        <v>43205</v>
+      </c>
+      <c r="G367" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I367" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L367" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="368" spans="1:18">
+      <c r="A368" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E368" s="2">
+        <v>43222</v>
+      </c>
+      <c r="G368" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I368" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L368" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43336</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12">
+      <c r="A369" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E369" s="2">
+        <v>43222</v>
+      </c>
+      <c r="G369" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I369" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L369" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43336</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12">
+      <c r="A370" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E370" s="2">
+        <v>43223</v>
+      </c>
+      <c r="G370" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I370" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L370" s="2">
+        <f>[Date Breed]+114</f>
+        <v>43337</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12">
+      <c r="A371" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="G371" s="23"/>
+      <c r="L371" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12">
+      <c r="A372" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="G372" s="23"/>
+      <c r="L372" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12">
+      <c r="A373" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G373" s="23"/>
+      <c r="L373" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12">
+      <c r="A374" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="G374" s="23"/>
+      <c r="L374" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12">
+      <c r="A375" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G375" s="23"/>
+      <c r="L375" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12">
+      <c r="A376" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="G376" s="23"/>
+      <c r="L376" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12">
+      <c r="A377" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G377" s="23"/>
+      <c r="L377" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12">
+      <c r="A378" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G378" s="23"/>
+      <c r="L378" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12">
+      <c r="A379" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G379" s="23"/>
+      <c r="L379" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
+      <c r="A380" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="G380" s="23"/>
+      <c r="L380" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12">
+      <c r="A381" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G381" s="23"/>
+      <c r="L381" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12">
+      <c r="A382" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G382" s="23"/>
+      <c r="L382" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12">
+      <c r="A383" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G383" s="23"/>
+      <c r="L383" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12">
+      <c r="A384" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="G384" s="23"/>
+      <c r="L384" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="385" spans="1:18">
+      <c r="A385" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="G385" s="23"/>
+      <c r="L385" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="386" spans="1:18">
+      <c r="A386" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G386" s="23"/>
+      <c r="L386" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="387" spans="1:18">
+      <c r="A387" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B387" s="5"/>
+      <c r="C387" s="4"/>
+      <c r="D387" s="4"/>
+      <c r="E387" s="8"/>
+      <c r="F387" s="5"/>
+      <c r="G387" s="24"/>
+      <c r="H387" s="5"/>
+      <c r="I387" s="5"/>
+      <c r="J387" s="9"/>
+      <c r="K387" s="8"/>
+      <c r="L387" s="8">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M387" s="4"/>
+      <c r="N387" s="4"/>
+      <c r="O387" s="4"/>
+      <c r="P387" s="4"/>
+      <c r="Q387" s="4"/>
+      <c r="R387" s="4"/>
+    </row>
+    <row r="388" spans="1:18">
+      <c r="A388" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="L388" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="389" spans="1:18">
+      <c r="A389" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="L389" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="390" spans="1:18">
+      <c r="A390" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="L390" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="391" spans="1:18">
+      <c r="A391" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="L391" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="392" spans="1:18">
+      <c r="A392" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="L392" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="393" spans="1:18">
+      <c r="A393" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="L393" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="394" spans="1:18">
+      <c r="A394" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="L394" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="395" spans="1:18">
+      <c r="A395" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="L395" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="396" spans="1:18">
+      <c r="A396" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="L396" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="397" spans="1:18">
+      <c r="A397" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="L397" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="398" spans="1:18">
+      <c r="A398" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="L398" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="399" spans="1:18">
+      <c r="A399" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="L399" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="400" spans="1:18">
+      <c r="A400" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="L400" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12">
+      <c r="A401" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="L401" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12">
+      <c r="A402" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="L402" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12">
+      <c r="A403" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="L403" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12">
+      <c r="A404" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="L404" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12">
+      <c r="A405" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="L405" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12">
+      <c r="A406" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="L406" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12">
+      <c r="A407" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="L407" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12">
+      <c r="A408" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="L408" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12">
+      <c r="A409" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="L409" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12">
+      <c r="A410" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="L410" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12">
+      <c r="A411" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="L411" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12">
+      <c r="A412" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="L412" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12">
+      <c r="A413" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L413" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12">
+      <c r="A414" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="L414" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12">
+      <c r="A415" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="L415" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12">
+      <c r="A416" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="L416" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12">
+      <c r="A417" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="L417" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12">
+      <c r="A418" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="L418" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12">
+      <c r="A419" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="L419" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12">
+      <c r="A420" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="L420" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12">
+      <c r="A421" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="L421" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12">
+      <c r="A422" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="L422" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12">
+      <c r="A423" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="L423" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12">
+      <c r="A424" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="L424" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12">
+      <c r="A425" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="L425" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12">
+      <c r="A426" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="L426" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12">
+      <c r="A427" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="L427" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
+      <c r="A428" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="L428" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12">
+      <c r="A429" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="L429" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12">
+      <c r="A430" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="L430" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
+      <c r="A431" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="L431" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
+      <c r="A432" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="L432" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="433" spans="1:18">
+      <c r="A433" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="L433" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="434" spans="1:18">
+      <c r="A434" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="L434" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="435" spans="1:18">
+      <c r="A435" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="L435" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="436" spans="1:18">
+      <c r="A436" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="L436" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="437" spans="1:18">
+      <c r="A437" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="L437" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="438" spans="1:18">
+      <c r="A438" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="L438" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="439" spans="1:18">
+      <c r="A439" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="L439" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="440" spans="1:18">
+      <c r="A440" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="L440" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="441" spans="1:18">
+      <c r="A441" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="L441" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="442" spans="1:18">
+      <c r="A442" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="L442" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="443" spans="1:18">
+      <c r="A443" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="L443" s="2">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="444" spans="1:18">
+      <c r="A444" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B444" s="5"/>
+      <c r="C444" s="4"/>
+      <c r="D444" s="4"/>
+      <c r="E444" s="8"/>
+      <c r="F444" s="5"/>
+      <c r="G444" s="5"/>
+      <c r="H444" s="5"/>
+      <c r="I444" s="5"/>
+      <c r="J444" s="9"/>
+      <c r="K444" s="8"/>
+      <c r="L444" s="8">
+        <f>[Date Breed]+114</f>
+        <v>114</v>
+      </c>
+      <c r="M444" s="4"/>
+      <c r="N444" s="4"/>
+      <c r="O444" s="4"/>
+      <c r="P444" s="4"/>
+      <c r="Q444" s="4"/>
+      <c r="R444" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
